--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="478">
   <si>
     <t>Data</t>
   </si>
@@ -1424,6 +1424,9 @@
   </si>
   <si>
     <t>06/21/2021</t>
+  </si>
+  <si>
+    <t>06/22/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1802,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D467"/>
+  <dimension ref="A1:D468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1833,7 +1836,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1847,7 +1850,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1861,7 +1864,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1875,7 +1878,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1889,7 +1892,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1903,7 +1906,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1917,7 +1920,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1931,7 +1934,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1945,7 +1948,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1959,7 +1962,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1973,7 +1976,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1987,7 +1990,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2001,7 +2004,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2015,7 +2018,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2029,7 +2032,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2043,7 +2046,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2057,7 +2060,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2071,7 +2074,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2085,7 +2088,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2099,7 +2102,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2113,7 +2116,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2127,7 +2130,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2141,7 +2144,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2155,7 +2158,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2169,7 +2172,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2183,7 +2186,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2197,7 +2200,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2211,7 +2214,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2225,7 +2228,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2239,7 +2242,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2253,7 +2256,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2267,7 +2270,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2281,7 +2284,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2295,7 +2298,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2309,7 +2312,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2323,7 +2326,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2337,7 +2340,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2351,7 +2354,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2365,7 +2368,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2379,7 +2382,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2393,7 +2396,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2407,7 +2410,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2421,7 +2424,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2435,7 +2438,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2449,7 +2452,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2463,7 +2466,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2477,7 +2480,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2491,7 +2494,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2505,7 +2508,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2519,7 +2522,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2533,7 +2536,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2547,7 +2550,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2561,7 +2564,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2575,7 +2578,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2589,7 +2592,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2603,7 +2606,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2617,7 +2620,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2631,7 +2634,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2645,7 +2648,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2659,7 +2662,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2673,7 +2676,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2687,7 +2690,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2701,7 +2704,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2715,7 +2718,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2729,7 +2732,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2743,7 +2746,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2757,7 +2760,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2771,7 +2774,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2785,7 +2788,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2799,7 +2802,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2813,7 +2816,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2827,7 +2830,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2841,7 +2844,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2855,7 +2858,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2869,7 +2872,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2883,7 +2886,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2897,7 +2900,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2911,7 +2914,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2925,7 +2928,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2939,7 +2942,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2953,7 +2956,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2967,7 +2970,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2981,7 +2984,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2995,7 +2998,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3009,7 +3012,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3023,7 +3026,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3037,7 +3040,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3051,7 +3054,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3065,7 +3068,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3079,7 +3082,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3093,7 +3096,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3107,7 +3110,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3121,7 +3124,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3135,7 +3138,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3149,7 +3152,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3163,7 +3166,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3177,7 +3180,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3191,7 +3194,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3205,7 +3208,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3219,7 +3222,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3233,7 +3236,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3247,7 +3250,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3261,7 +3264,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3275,7 +3278,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3289,7 +3292,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3303,7 +3306,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3317,7 +3320,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3331,7 +3334,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3345,7 +3348,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3359,7 +3362,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3373,7 +3376,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3387,7 +3390,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3401,7 +3404,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3415,7 +3418,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3429,7 +3432,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3443,7 +3446,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3457,7 +3460,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3471,7 +3474,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3485,7 +3488,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3499,7 +3502,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3513,7 +3516,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3527,7 +3530,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3541,7 +3544,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3555,7 +3558,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3569,7 +3572,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3583,7 +3586,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3597,7 +3600,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3611,7 +3614,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3625,7 +3628,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3639,7 +3642,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3653,7 +3656,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3667,7 +3670,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3681,7 +3684,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3695,7 +3698,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3709,7 +3712,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3723,7 +3726,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3737,7 +3740,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3751,7 +3754,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3765,7 +3768,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3779,7 +3782,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3793,7 +3796,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3807,7 +3810,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3821,7 +3824,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3835,7 +3838,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3849,7 +3852,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3863,7 +3866,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3877,7 +3880,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3891,7 +3894,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3905,7 +3908,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3919,7 +3922,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3933,7 +3936,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3947,7 +3950,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3961,7 +3964,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3975,7 +3978,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3989,7 +3992,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4003,7 +4006,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4017,7 +4020,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4031,7 +4034,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4045,7 +4048,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4059,7 +4062,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4073,7 +4076,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4087,7 +4090,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4101,7 +4104,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4115,7 +4118,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4129,7 +4132,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4143,7 +4146,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4157,7 +4160,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4171,7 +4174,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4185,7 +4188,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4199,7 +4202,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4213,7 +4216,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4227,7 +4230,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4241,7 +4244,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4255,7 +4258,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4269,7 +4272,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4283,7 +4286,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4297,7 +4300,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4311,7 +4314,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4325,7 +4328,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4339,7 +4342,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4353,7 +4356,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4367,7 +4370,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4381,7 +4384,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4395,7 +4398,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4409,7 +4412,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4423,7 +4426,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4437,7 +4440,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4451,7 +4454,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4465,7 +4468,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4479,7 +4482,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4493,7 +4496,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4507,7 +4510,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4521,7 +4524,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4535,7 +4538,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4549,7 +4552,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4563,7 +4566,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4577,7 +4580,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4591,7 +4594,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4605,7 +4608,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4619,7 +4622,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4633,7 +4636,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4647,7 +4650,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4661,7 +4664,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4675,7 +4678,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4689,7 +4692,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4703,7 +4706,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4717,7 +4720,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4731,7 +4734,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4745,7 +4748,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4759,7 +4762,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4773,7 +4776,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4787,7 +4790,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4801,7 +4804,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4815,7 +4818,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4829,7 +4832,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4843,7 +4846,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4857,7 +4860,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4871,7 +4874,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4885,7 +4888,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4899,7 +4902,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4913,7 +4916,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4927,7 +4930,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4941,7 +4944,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4955,7 +4958,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4969,7 +4972,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4983,7 +4986,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -4997,7 +5000,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5011,7 +5014,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5025,7 +5028,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5039,7 +5042,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5053,7 +5056,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5067,7 +5070,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5081,7 +5084,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5095,7 +5098,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5109,7 +5112,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5123,7 +5126,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5137,7 +5140,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5151,7 +5154,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5165,7 +5168,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5179,7 +5182,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5193,7 +5196,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5207,7 +5210,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5221,7 +5224,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5235,7 +5238,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5249,7 +5252,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5263,7 +5266,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5277,7 +5280,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5291,7 +5294,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5305,7 +5308,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5319,7 +5322,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5333,7 +5336,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5347,7 +5350,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5361,7 +5364,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5375,7 +5378,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5389,7 +5392,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5403,7 +5406,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5417,7 +5420,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5431,7 +5434,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5445,7 +5448,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5459,7 +5462,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5473,7 +5476,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5487,7 +5490,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5501,7 +5504,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5515,7 +5518,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5529,7 +5532,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5543,7 +5546,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5557,7 +5560,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5571,7 +5574,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5585,7 +5588,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5599,7 +5602,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5613,7 +5616,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5627,7 +5630,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5641,7 +5644,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5655,7 +5658,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5669,7 +5672,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5683,7 +5686,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5697,7 +5700,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5711,7 +5714,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5725,7 +5728,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5739,7 +5742,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5753,7 +5756,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5767,7 +5770,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5781,7 +5784,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5795,7 +5798,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5809,7 +5812,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5823,7 +5826,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5837,7 +5840,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5851,7 +5854,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5865,7 +5868,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5879,7 +5882,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5893,7 +5896,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5907,7 +5910,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5921,7 +5924,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5935,7 +5938,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5949,7 +5952,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5963,7 +5966,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5977,7 +5980,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5991,7 +5994,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6005,7 +6008,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6019,7 +6022,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6033,7 +6036,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6047,7 +6050,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6061,7 +6064,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6075,7 +6078,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6089,7 +6092,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6103,7 +6106,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6117,7 +6120,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6131,7 +6134,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6145,7 +6148,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6159,7 +6162,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6173,7 +6176,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6187,7 +6190,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6201,7 +6204,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6215,7 +6218,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6229,7 +6232,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6243,7 +6246,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6257,7 +6260,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6271,7 +6274,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6285,7 +6288,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6299,7 +6302,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6313,7 +6316,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6327,7 +6330,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6341,7 +6344,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6355,7 +6358,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6369,7 +6372,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6383,7 +6386,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6397,7 +6400,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6411,7 +6414,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6425,7 +6428,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6439,7 +6442,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6453,7 +6456,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6467,7 +6470,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6481,7 +6484,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6495,7 +6498,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6509,7 +6512,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6523,7 +6526,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6537,7 +6540,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6551,7 +6554,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6565,7 +6568,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6579,7 +6582,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6593,7 +6596,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6607,7 +6610,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6621,7 +6624,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6635,7 +6638,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6649,7 +6652,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6663,7 +6666,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6677,7 +6680,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6691,7 +6694,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6705,7 +6708,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6719,7 +6722,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6733,7 +6736,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6747,7 +6750,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6761,7 +6764,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6775,7 +6778,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6789,7 +6792,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6803,7 +6806,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6817,7 +6820,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6831,7 +6834,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6845,7 +6848,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6859,7 +6862,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6873,7 +6876,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6887,7 +6890,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6901,7 +6904,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6915,7 +6918,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6929,7 +6932,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6943,7 +6946,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6957,7 +6960,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6971,7 +6974,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6985,7 +6988,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -6999,7 +7002,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7013,7 +7016,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7027,7 +7030,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7041,7 +7044,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7055,7 +7058,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7069,7 +7072,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7083,7 +7086,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7097,7 +7100,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7111,7 +7114,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7125,7 +7128,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7139,7 +7142,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7153,7 +7156,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7167,7 +7170,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7181,7 +7184,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7195,7 +7198,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7209,7 +7212,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7223,7 +7226,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7237,7 +7240,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7251,7 +7254,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7265,7 +7268,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7279,7 +7282,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7293,7 +7296,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7307,7 +7310,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7321,7 +7324,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7335,7 +7338,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7349,7 +7352,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7363,7 +7366,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7377,7 +7380,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7391,7 +7394,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7405,7 +7408,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7419,7 +7422,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7433,7 +7436,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7447,7 +7450,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7461,7 +7464,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7475,7 +7478,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7489,7 +7492,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7503,7 +7506,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7517,7 +7520,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7531,7 +7534,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7545,7 +7548,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7559,7 +7562,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7573,7 +7576,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7587,7 +7590,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7601,7 +7604,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7615,7 +7618,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7629,7 +7632,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7643,7 +7646,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7657,7 +7660,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7671,7 +7674,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7685,7 +7688,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7699,7 +7702,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7713,7 +7716,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7727,7 +7730,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7741,7 +7744,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7755,7 +7758,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7769,7 +7772,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7783,7 +7786,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7797,7 +7800,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7811,7 +7814,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7825,7 +7828,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7839,7 +7842,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7853,7 +7856,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7867,7 +7870,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7881,7 +7884,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7895,7 +7898,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7909,7 +7912,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7923,7 +7926,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7937,7 +7940,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7951,7 +7954,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7965,7 +7968,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7979,7 +7982,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7993,7 +7996,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8007,7 +8010,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8021,7 +8024,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8035,7 +8038,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8049,7 +8052,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8063,7 +8066,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8077,7 +8080,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8091,7 +8094,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8105,7 +8108,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8119,7 +8122,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8133,7 +8136,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8147,7 +8150,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8161,7 +8164,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8175,7 +8178,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8189,7 +8192,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8203,7 +8206,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8217,7 +8220,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8231,7 +8234,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8245,7 +8248,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8259,7 +8262,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8273,7 +8276,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8287,7 +8290,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8301,7 +8304,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8315,7 +8318,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8329,7 +8332,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8343,7 +8346,21 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>476</v>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" t="s">
+        <v>470</v>
+      </c>
+      <c r="B468">
+        <v>0.4</v>
+      </c>
+      <c r="C468">
+        <v>0.42</v>
+      </c>
+      <c r="D468" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="479">
   <si>
     <t>Data</t>
   </si>
@@ -1427,6 +1427,9 @@
   </si>
   <si>
     <t>06/22/2021</t>
+  </si>
+  <si>
+    <t>06/23/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1805,7 +1808,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D468"/>
+  <dimension ref="A1:D469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1836,7 +1839,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1850,7 +1853,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1864,7 +1867,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1878,7 +1881,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1892,7 +1895,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1906,7 +1909,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1920,7 +1923,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1934,7 +1937,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1948,7 +1951,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1962,7 +1965,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1976,7 +1979,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1990,7 +1993,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2004,7 +2007,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2018,7 +2021,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2032,7 +2035,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2046,7 +2049,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2060,7 +2063,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2074,7 +2077,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2088,7 +2091,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2102,7 +2105,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2116,7 +2119,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2130,7 +2133,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2144,7 +2147,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2158,7 +2161,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2172,7 +2175,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2186,7 +2189,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2200,7 +2203,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2214,7 +2217,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2228,7 +2231,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2242,7 +2245,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2256,7 +2259,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2270,7 +2273,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2284,7 +2287,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2298,7 +2301,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2312,7 +2315,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2326,7 +2329,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2340,7 +2343,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2354,7 +2357,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2368,7 +2371,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2382,7 +2385,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2396,7 +2399,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2410,7 +2413,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2424,7 +2427,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2438,7 +2441,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2452,7 +2455,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2466,7 +2469,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2480,7 +2483,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2494,7 +2497,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2508,7 +2511,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2522,7 +2525,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2536,7 +2539,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2550,7 +2553,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2564,7 +2567,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2578,7 +2581,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2592,7 +2595,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2606,7 +2609,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2620,7 +2623,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2634,7 +2637,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2648,7 +2651,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2662,7 +2665,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2676,7 +2679,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2690,7 +2693,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2704,7 +2707,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2718,7 +2721,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2732,7 +2735,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2746,7 +2749,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2760,7 +2763,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2774,7 +2777,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2788,7 +2791,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2802,7 +2805,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2816,7 +2819,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2830,7 +2833,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2844,7 +2847,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2858,7 +2861,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2872,7 +2875,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2886,7 +2889,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2900,7 +2903,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2914,7 +2917,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2928,7 +2931,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2942,7 +2945,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2956,7 +2959,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2970,7 +2973,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2984,7 +2987,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2998,7 +3001,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3012,7 +3015,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3026,7 +3029,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3040,7 +3043,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3054,7 +3057,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3068,7 +3071,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3082,7 +3085,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3096,7 +3099,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3110,7 +3113,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3124,7 +3127,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3138,7 +3141,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3152,7 +3155,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3166,7 +3169,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3180,7 +3183,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3194,7 +3197,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3208,7 +3211,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3222,7 +3225,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3236,7 +3239,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3250,7 +3253,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3264,7 +3267,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3278,7 +3281,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3292,7 +3295,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3306,7 +3309,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3320,7 +3323,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3334,7 +3337,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3348,7 +3351,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3362,7 +3365,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3376,7 +3379,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3390,7 +3393,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3404,7 +3407,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3418,7 +3421,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3432,7 +3435,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3446,7 +3449,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3460,7 +3463,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3474,7 +3477,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3488,7 +3491,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3502,7 +3505,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3516,7 +3519,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3530,7 +3533,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3544,7 +3547,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3558,7 +3561,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3572,7 +3575,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3586,7 +3589,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3600,7 +3603,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3614,7 +3617,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3628,7 +3631,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3642,7 +3645,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3656,7 +3659,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3670,7 +3673,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3684,7 +3687,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3698,7 +3701,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3712,7 +3715,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3726,7 +3729,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3740,7 +3743,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3754,7 +3757,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3768,7 +3771,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3782,7 +3785,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3796,7 +3799,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3810,7 +3813,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3824,7 +3827,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3838,7 +3841,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3852,7 +3855,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3866,7 +3869,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3880,7 +3883,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3894,7 +3897,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3908,7 +3911,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3922,7 +3925,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3936,7 +3939,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3950,7 +3953,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3964,7 +3967,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3978,7 +3981,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3992,7 +3995,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4006,7 +4009,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4020,7 +4023,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4034,7 +4037,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4048,7 +4051,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4062,7 +4065,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4076,7 +4079,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4090,7 +4093,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4104,7 +4107,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4118,7 +4121,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4132,7 +4135,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4146,7 +4149,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4160,7 +4163,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4174,7 +4177,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4188,7 +4191,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4202,7 +4205,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4216,7 +4219,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4230,7 +4233,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4244,7 +4247,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4258,7 +4261,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4272,7 +4275,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4286,7 +4289,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4300,7 +4303,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4314,7 +4317,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4328,7 +4331,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4342,7 +4345,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4356,7 +4359,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4370,7 +4373,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4384,7 +4387,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4398,7 +4401,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4412,7 +4415,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4426,7 +4429,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4440,7 +4443,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4454,7 +4457,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4468,7 +4471,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4482,7 +4485,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4496,7 +4499,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4510,7 +4513,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4524,7 +4527,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4538,7 +4541,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4552,7 +4555,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4566,7 +4569,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4580,7 +4583,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4594,7 +4597,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4608,7 +4611,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4622,7 +4625,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4636,7 +4639,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4650,7 +4653,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4664,7 +4667,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4678,7 +4681,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4692,7 +4695,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4706,7 +4709,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4720,7 +4723,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4734,7 +4737,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4748,7 +4751,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4762,7 +4765,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4776,7 +4779,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4790,7 +4793,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4804,7 +4807,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4818,7 +4821,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4832,7 +4835,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4846,7 +4849,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4860,7 +4863,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4874,7 +4877,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4888,7 +4891,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4902,7 +4905,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4916,7 +4919,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4930,7 +4933,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4944,7 +4947,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4958,7 +4961,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4972,7 +4975,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4986,7 +4989,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5000,7 +5003,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5014,7 +5017,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5028,7 +5031,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5042,7 +5045,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5056,7 +5059,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5070,7 +5073,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5084,7 +5087,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5098,7 +5101,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5112,7 +5115,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5126,7 +5129,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5140,7 +5143,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5154,7 +5157,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5168,7 +5171,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5182,7 +5185,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5196,7 +5199,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5210,7 +5213,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5224,7 +5227,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5238,7 +5241,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5252,7 +5255,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5266,7 +5269,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5280,7 +5283,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5294,7 +5297,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5308,7 +5311,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5322,7 +5325,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5336,7 +5339,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5350,7 +5353,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5364,7 +5367,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5378,7 +5381,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5392,7 +5395,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5406,7 +5409,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5420,7 +5423,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5434,7 +5437,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5448,7 +5451,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5462,7 +5465,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5476,7 +5479,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5490,7 +5493,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5504,7 +5507,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5518,7 +5521,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5532,7 +5535,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5546,7 +5549,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5560,7 +5563,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5574,7 +5577,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5588,7 +5591,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5602,7 +5605,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5616,7 +5619,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5630,7 +5633,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5644,7 +5647,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5658,7 +5661,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5672,7 +5675,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5686,7 +5689,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5700,7 +5703,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5714,7 +5717,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5728,7 +5731,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5742,7 +5745,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5756,7 +5759,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5770,7 +5773,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5784,7 +5787,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5798,7 +5801,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5812,7 +5815,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5826,7 +5829,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5840,7 +5843,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5854,7 +5857,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5868,7 +5871,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5882,7 +5885,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5896,7 +5899,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5910,7 +5913,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5924,7 +5927,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5938,7 +5941,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5952,7 +5955,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5966,7 +5969,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5980,7 +5983,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5994,7 +5997,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6008,7 +6011,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6022,7 +6025,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6036,7 +6039,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6050,7 +6053,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6064,7 +6067,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6078,7 +6081,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6092,7 +6095,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6106,7 +6109,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6120,7 +6123,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6134,7 +6137,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6148,7 +6151,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6162,7 +6165,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6176,7 +6179,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6190,7 +6193,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6204,7 +6207,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6218,7 +6221,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6232,7 +6235,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6246,7 +6249,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6260,7 +6263,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6274,7 +6277,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6288,7 +6291,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6302,7 +6305,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6316,7 +6319,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6330,7 +6333,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6344,7 +6347,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6358,7 +6361,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6372,7 +6375,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6386,7 +6389,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6400,7 +6403,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6414,7 +6417,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6428,7 +6431,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6442,7 +6445,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6456,7 +6459,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6470,7 +6473,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6484,7 +6487,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6498,7 +6501,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6512,7 +6515,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6526,7 +6529,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6540,7 +6543,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6554,7 +6557,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6568,7 +6571,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6582,7 +6585,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6596,7 +6599,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6610,7 +6613,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6624,7 +6627,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6638,7 +6641,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6652,7 +6655,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6666,7 +6669,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6680,7 +6683,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6694,7 +6697,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6708,7 +6711,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6722,7 +6725,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6736,7 +6739,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6750,7 +6753,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6764,7 +6767,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6778,7 +6781,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6792,7 +6795,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6806,7 +6809,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6820,7 +6823,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6834,7 +6837,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6848,7 +6851,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6862,7 +6865,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6876,7 +6879,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6890,7 +6893,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6904,7 +6907,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6918,7 +6921,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6932,7 +6935,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6946,7 +6949,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6960,7 +6963,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6974,7 +6977,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6988,7 +6991,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7002,7 +7005,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7016,7 +7019,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7030,7 +7033,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7044,7 +7047,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7058,7 +7061,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7072,7 +7075,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7086,7 +7089,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7100,7 +7103,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7114,7 +7117,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7128,7 +7131,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7142,7 +7145,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7156,7 +7159,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7170,7 +7173,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7184,7 +7187,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7198,7 +7201,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7212,7 +7215,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7226,7 +7229,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7240,7 +7243,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7254,7 +7257,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7268,7 +7271,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7282,7 +7285,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7296,7 +7299,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7310,7 +7313,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7324,7 +7327,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7338,7 +7341,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7352,7 +7355,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7366,7 +7369,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7380,7 +7383,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7394,7 +7397,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7408,7 +7411,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7422,7 +7425,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7436,7 +7439,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7450,7 +7453,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7464,7 +7467,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7478,7 +7481,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7492,7 +7495,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7506,7 +7509,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7520,7 +7523,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7534,7 +7537,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7548,7 +7551,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7562,7 +7565,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7576,7 +7579,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7590,7 +7593,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7604,7 +7607,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7618,7 +7621,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7632,7 +7635,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7646,7 +7649,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7660,7 +7663,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7674,7 +7677,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7688,7 +7691,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7702,7 +7705,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7716,7 +7719,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7730,7 +7733,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7744,7 +7747,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7758,7 +7761,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7772,7 +7775,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7786,7 +7789,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7800,7 +7803,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7814,7 +7817,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7828,7 +7831,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7842,7 +7845,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7856,7 +7859,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7870,7 +7873,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7884,7 +7887,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7898,7 +7901,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7912,7 +7915,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7926,7 +7929,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7940,7 +7943,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7954,7 +7957,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7968,7 +7971,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7982,7 +7985,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7996,7 +7999,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8010,7 +8013,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8024,7 +8027,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8038,7 +8041,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8052,7 +8055,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8066,7 +8069,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8080,7 +8083,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8094,7 +8097,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8108,7 +8111,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8122,7 +8125,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8136,7 +8139,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8150,7 +8153,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8164,7 +8167,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8178,7 +8181,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8192,7 +8195,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8206,7 +8209,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8220,7 +8223,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8234,7 +8237,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8248,7 +8251,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8262,7 +8265,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8276,7 +8279,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8290,7 +8293,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8304,7 +8307,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8318,7 +8321,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8332,7 +8335,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8346,7 +8349,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8360,7 +8363,21 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" t="s">
+        <v>471</v>
+      </c>
+      <c r="B469">
+        <v>0.4</v>
+      </c>
+      <c r="C469">
+        <v>0.4</v>
+      </c>
+      <c r="D469" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="480">
   <si>
     <t>Data</t>
   </si>
@@ -1430,6 +1430,9 @@
   </si>
   <si>
     <t>06/23/2021</t>
+  </si>
+  <si>
+    <t>06/24/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1808,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D469"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1839,7 +1842,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1853,7 +1856,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1867,7 +1870,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1881,7 +1884,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1895,7 +1898,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1909,7 +1912,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1923,7 +1926,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1937,7 +1940,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1951,7 +1954,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1965,7 +1968,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1979,7 +1982,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1993,7 +1996,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2007,7 +2010,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2021,7 +2024,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2035,7 +2038,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2049,7 +2052,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2063,7 +2066,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2077,7 +2080,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2091,7 +2094,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2105,7 +2108,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2119,7 +2122,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2133,7 +2136,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2147,7 +2150,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2161,7 +2164,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2175,7 +2178,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2189,7 +2192,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2203,7 +2206,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2217,7 +2220,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2231,7 +2234,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2245,7 +2248,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2259,7 +2262,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2273,7 +2276,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2287,7 +2290,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2301,7 +2304,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2315,7 +2318,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2329,7 +2332,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2343,7 +2346,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2357,7 +2360,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2371,7 +2374,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2385,7 +2388,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2399,7 +2402,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2413,7 +2416,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2427,7 +2430,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2441,7 +2444,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2455,7 +2458,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2469,7 +2472,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2483,7 +2486,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2497,7 +2500,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2511,7 +2514,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2525,7 +2528,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2539,7 +2542,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2553,7 +2556,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2567,7 +2570,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2581,7 +2584,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2595,7 +2598,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2609,7 +2612,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2623,7 +2626,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2637,7 +2640,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2651,7 +2654,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2665,7 +2668,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2679,7 +2682,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2693,7 +2696,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2707,7 +2710,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2721,7 +2724,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2735,7 +2738,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2749,7 +2752,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2763,7 +2766,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2777,7 +2780,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2791,7 +2794,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2805,7 +2808,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2819,7 +2822,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2833,7 +2836,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2847,7 +2850,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2861,7 +2864,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2875,7 +2878,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2889,7 +2892,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2903,7 +2906,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2917,7 +2920,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2931,7 +2934,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2945,7 +2948,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2959,7 +2962,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2973,7 +2976,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2987,7 +2990,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3001,7 +3004,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3015,7 +3018,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3029,7 +3032,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3043,7 +3046,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3057,7 +3060,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3071,7 +3074,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3085,7 +3088,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3099,7 +3102,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3113,7 +3116,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3127,7 +3130,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3141,7 +3144,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3155,7 +3158,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3169,7 +3172,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3183,7 +3186,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3197,7 +3200,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3211,7 +3214,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3225,7 +3228,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3239,7 +3242,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3253,7 +3256,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3267,7 +3270,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3281,7 +3284,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3295,7 +3298,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3309,7 +3312,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3323,7 +3326,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3337,7 +3340,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3351,7 +3354,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3365,7 +3368,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3379,7 +3382,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3393,7 +3396,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3407,7 +3410,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3421,7 +3424,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3435,7 +3438,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3449,7 +3452,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3463,7 +3466,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3477,7 +3480,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3491,7 +3494,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3505,7 +3508,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3519,7 +3522,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3533,7 +3536,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3547,7 +3550,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3561,7 +3564,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3575,7 +3578,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3589,7 +3592,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3603,7 +3606,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3617,7 +3620,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3631,7 +3634,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3645,7 +3648,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3659,7 +3662,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3673,7 +3676,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3687,7 +3690,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3701,7 +3704,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3715,7 +3718,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3729,7 +3732,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3743,7 +3746,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3757,7 +3760,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3771,7 +3774,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3785,7 +3788,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3799,7 +3802,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3813,7 +3816,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3827,7 +3830,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3841,7 +3844,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3855,7 +3858,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3869,7 +3872,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3883,7 +3886,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3897,7 +3900,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3911,7 +3914,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3925,7 +3928,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3939,7 +3942,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3953,7 +3956,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3967,7 +3970,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3981,7 +3984,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3995,7 +3998,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4009,7 +4012,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4023,7 +4026,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4037,7 +4040,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4051,7 +4054,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4065,7 +4068,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4079,7 +4082,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4093,7 +4096,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4107,7 +4110,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4121,7 +4124,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4135,7 +4138,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4149,7 +4152,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4163,7 +4166,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4177,7 +4180,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4191,7 +4194,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4205,7 +4208,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4219,7 +4222,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4233,7 +4236,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4247,7 +4250,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4261,7 +4264,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4275,7 +4278,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4289,7 +4292,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4303,7 +4306,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4317,7 +4320,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4331,7 +4334,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4345,7 +4348,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4359,7 +4362,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4373,7 +4376,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4387,7 +4390,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4401,7 +4404,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4415,7 +4418,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4429,7 +4432,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4443,7 +4446,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4457,7 +4460,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4471,7 +4474,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4485,7 +4488,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4499,7 +4502,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4513,7 +4516,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4527,7 +4530,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4541,7 +4544,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4555,7 +4558,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4569,7 +4572,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4583,7 +4586,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4597,7 +4600,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4611,7 +4614,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4625,7 +4628,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4639,7 +4642,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4653,7 +4656,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4667,7 +4670,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4681,7 +4684,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4695,7 +4698,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4709,7 +4712,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4723,7 +4726,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4737,7 +4740,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4751,7 +4754,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4765,7 +4768,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4779,7 +4782,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4793,7 +4796,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4807,7 +4810,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4821,7 +4824,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4835,7 +4838,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4849,7 +4852,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4863,7 +4866,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4877,7 +4880,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4891,7 +4894,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4905,7 +4908,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4919,7 +4922,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4933,7 +4936,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4947,7 +4950,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4961,7 +4964,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4975,7 +4978,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4989,7 +4992,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5003,7 +5006,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5017,7 +5020,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5031,7 +5034,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5045,7 +5048,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5059,7 +5062,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5073,7 +5076,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5087,7 +5090,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5101,7 +5104,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5115,7 +5118,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5129,7 +5132,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5143,7 +5146,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5157,7 +5160,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5171,7 +5174,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5185,7 +5188,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5199,7 +5202,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5213,7 +5216,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5227,7 +5230,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5241,7 +5244,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5255,7 +5258,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5269,7 +5272,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5283,7 +5286,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5297,7 +5300,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5311,7 +5314,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5325,7 +5328,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5339,7 +5342,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5353,7 +5356,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5367,7 +5370,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5381,7 +5384,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5395,7 +5398,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5409,7 +5412,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5423,7 +5426,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5437,7 +5440,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5451,7 +5454,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5465,7 +5468,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5479,7 +5482,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5493,7 +5496,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5507,7 +5510,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5521,7 +5524,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5535,7 +5538,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5549,7 +5552,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5563,7 +5566,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5577,7 +5580,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5591,7 +5594,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5605,7 +5608,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5619,7 +5622,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5633,7 +5636,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5647,7 +5650,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5661,7 +5664,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5675,7 +5678,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5689,7 +5692,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5703,7 +5706,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5717,7 +5720,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5731,7 +5734,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5745,7 +5748,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5759,7 +5762,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5773,7 +5776,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5787,7 +5790,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5801,7 +5804,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5815,7 +5818,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5829,7 +5832,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5843,7 +5846,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5857,7 +5860,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5871,7 +5874,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5885,7 +5888,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5899,7 +5902,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5913,7 +5916,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5927,7 +5930,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5941,7 +5944,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5955,7 +5958,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5969,7 +5972,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5983,7 +5986,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -5997,7 +6000,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6011,7 +6014,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6025,7 +6028,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6039,7 +6042,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6053,7 +6056,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6067,7 +6070,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6081,7 +6084,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6095,7 +6098,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6109,7 +6112,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6123,7 +6126,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6137,7 +6140,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6151,7 +6154,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6165,7 +6168,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6179,7 +6182,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6193,7 +6196,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6207,7 +6210,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6221,7 +6224,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6235,7 +6238,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6249,7 +6252,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6263,7 +6266,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6277,7 +6280,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6291,7 +6294,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6305,7 +6308,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6319,7 +6322,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6333,7 +6336,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6347,7 +6350,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6361,7 +6364,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6375,7 +6378,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6389,7 +6392,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6403,7 +6406,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6417,7 +6420,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6431,7 +6434,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6445,7 +6448,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6459,7 +6462,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6473,7 +6476,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6487,7 +6490,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6501,7 +6504,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6515,7 +6518,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6529,7 +6532,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6543,7 +6546,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6557,7 +6560,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6571,7 +6574,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6585,7 +6588,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6599,7 +6602,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6613,7 +6616,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6627,7 +6630,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6641,7 +6644,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6655,7 +6658,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6669,7 +6672,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6683,7 +6686,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6697,7 +6700,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6711,7 +6714,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6725,7 +6728,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6739,7 +6742,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6753,7 +6756,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6767,7 +6770,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6781,7 +6784,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6795,7 +6798,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6809,7 +6812,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6823,7 +6826,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6837,7 +6840,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6851,7 +6854,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6865,7 +6868,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6879,7 +6882,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6893,7 +6896,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6907,7 +6910,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6921,7 +6924,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6935,7 +6938,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6949,7 +6952,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6963,7 +6966,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6977,7 +6980,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6991,7 +6994,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7005,7 +7008,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7019,7 +7022,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7033,7 +7036,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7047,7 +7050,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7061,7 +7064,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7075,7 +7078,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7089,7 +7092,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7103,7 +7106,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7117,7 +7120,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7131,7 +7134,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7145,7 +7148,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7159,7 +7162,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7173,7 +7176,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7187,7 +7190,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7201,7 +7204,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7215,7 +7218,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7229,7 +7232,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7243,7 +7246,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7257,7 +7260,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7271,7 +7274,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7285,7 +7288,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7299,7 +7302,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7313,7 +7316,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7327,7 +7330,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7341,7 +7344,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7355,7 +7358,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7369,7 +7372,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7383,7 +7386,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7397,7 +7400,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7411,7 +7414,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7425,7 +7428,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7439,7 +7442,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7453,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7467,7 +7470,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7481,7 +7484,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7495,7 +7498,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7509,7 +7512,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7523,7 +7526,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7537,7 +7540,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7551,7 +7554,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7565,7 +7568,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7579,7 +7582,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7593,7 +7596,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7607,7 +7610,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7621,7 +7624,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7635,7 +7638,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7649,7 +7652,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7663,7 +7666,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7677,7 +7680,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7691,7 +7694,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7705,7 +7708,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7719,7 +7722,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7733,7 +7736,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7747,7 +7750,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7761,7 +7764,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7775,7 +7778,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7789,7 +7792,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7803,7 +7806,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7817,7 +7820,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7831,7 +7834,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7845,7 +7848,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7859,7 +7862,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7873,7 +7876,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7887,7 +7890,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7901,7 +7904,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7915,7 +7918,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7929,7 +7932,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7943,7 +7946,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7957,7 +7960,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7971,7 +7974,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7985,7 +7988,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -7999,7 +8002,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8013,7 +8016,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8027,7 +8030,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8041,7 +8044,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8055,7 +8058,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8069,7 +8072,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8083,7 +8086,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8097,7 +8100,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8111,7 +8114,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8125,7 +8128,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8139,7 +8142,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8153,7 +8156,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8167,7 +8170,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8181,7 +8184,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8195,7 +8198,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8209,7 +8212,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8223,7 +8226,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8237,7 +8240,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8251,7 +8254,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8265,7 +8268,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8279,7 +8282,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8293,7 +8296,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8307,7 +8310,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8321,7 +8324,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8335,7 +8338,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8349,7 +8352,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8363,7 +8366,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8377,7 +8380,21 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" t="s">
+        <v>472</v>
+      </c>
+      <c r="B470">
+        <v>0.4</v>
+      </c>
+      <c r="C470">
+        <v>0.4</v>
+      </c>
+      <c r="D470" t="s">
+        <v>473</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="482">
   <si>
     <t>Data</t>
   </si>
@@ -1433,6 +1433,12 @@
   </si>
   <si>
     <t>06/24/2021</t>
+  </si>
+  <si>
+    <t>06/25/2021</t>
+  </si>
+  <si>
+    <t>06/26/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1811,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D470"/>
+  <dimension ref="A1:D472"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1842,7 +1848,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1856,7 +1862,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1870,7 +1876,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1884,7 +1890,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1898,7 +1904,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1912,7 +1918,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1926,7 +1932,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1940,7 +1946,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1954,7 +1960,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1968,7 +1974,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1982,7 +1988,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1996,7 +2002,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2010,7 +2016,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2024,7 +2030,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2038,7 +2044,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2052,7 +2058,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2066,7 +2072,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2080,7 +2086,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2094,7 +2100,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2108,7 +2114,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2122,7 +2128,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2136,7 +2142,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2150,7 +2156,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2164,7 +2170,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2178,7 +2184,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2192,7 +2198,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2206,7 +2212,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2220,7 +2226,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2234,7 +2240,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2248,7 +2254,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2262,7 +2268,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2276,7 +2282,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2290,7 +2296,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2304,7 +2310,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2318,7 +2324,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2332,7 +2338,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2346,7 +2352,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2360,7 +2366,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2374,7 +2380,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2388,7 +2394,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2402,7 +2408,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2416,7 +2422,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2430,7 +2436,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2444,7 +2450,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2458,7 +2464,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2472,7 +2478,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2486,7 +2492,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2500,7 +2506,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2514,7 +2520,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2528,7 +2534,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2542,7 +2548,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2556,7 +2562,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2570,7 +2576,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2584,7 +2590,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2598,7 +2604,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2612,7 +2618,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2626,7 +2632,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2640,7 +2646,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2654,7 +2660,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2668,7 +2674,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2682,7 +2688,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2696,7 +2702,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2710,7 +2716,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2724,7 +2730,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2738,7 +2744,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2752,7 +2758,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2766,7 +2772,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2780,7 +2786,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2794,7 +2800,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2808,7 +2814,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2822,7 +2828,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2836,7 +2842,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2850,7 +2856,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2864,7 +2870,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2878,7 +2884,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2892,7 +2898,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2906,7 +2912,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2920,7 +2926,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2934,7 +2940,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2948,7 +2954,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2962,7 +2968,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2976,7 +2982,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2990,7 +2996,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3004,7 +3010,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3018,7 +3024,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3032,7 +3038,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3046,7 +3052,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3060,7 +3066,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3074,7 +3080,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3088,7 +3094,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3102,7 +3108,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3116,7 +3122,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3130,7 +3136,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3144,7 +3150,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3158,7 +3164,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3172,7 +3178,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3186,7 +3192,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3200,7 +3206,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3214,7 +3220,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3228,7 +3234,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3242,7 +3248,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3256,7 +3262,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3270,7 +3276,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3284,7 +3290,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3298,7 +3304,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3312,7 +3318,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3326,7 +3332,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3340,7 +3346,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3354,7 +3360,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3368,7 +3374,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3382,7 +3388,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3396,7 +3402,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3410,7 +3416,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3424,7 +3430,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3438,7 +3444,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3452,7 +3458,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3466,7 +3472,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3480,7 +3486,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3494,7 +3500,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3508,7 +3514,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3522,7 +3528,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3536,7 +3542,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3550,7 +3556,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3564,7 +3570,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3578,7 +3584,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3592,7 +3598,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3606,7 +3612,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3620,7 +3626,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3634,7 +3640,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3648,7 +3654,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3662,7 +3668,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3676,7 +3682,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3690,7 +3696,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3704,7 +3710,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3718,7 +3724,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3732,7 +3738,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3746,7 +3752,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3760,7 +3766,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3774,7 +3780,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3788,7 +3794,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3802,7 +3808,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3816,7 +3822,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3830,7 +3836,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3844,7 +3850,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3858,7 +3864,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3872,7 +3878,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3886,7 +3892,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3900,7 +3906,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3914,7 +3920,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3928,7 +3934,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3942,7 +3948,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3956,7 +3962,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3970,7 +3976,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3984,7 +3990,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3998,7 +4004,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4012,7 +4018,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4026,7 +4032,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4040,7 +4046,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4054,7 +4060,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4068,7 +4074,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4082,7 +4088,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4096,7 +4102,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4110,7 +4116,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4124,7 +4130,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4138,7 +4144,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4152,7 +4158,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4166,7 +4172,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4180,7 +4186,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4194,7 +4200,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4208,7 +4214,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4222,7 +4228,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4236,7 +4242,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4250,7 +4256,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4264,7 +4270,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4278,7 +4284,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4292,7 +4298,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4306,7 +4312,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4320,7 +4326,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4334,7 +4340,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4348,7 +4354,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4362,7 +4368,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4376,7 +4382,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4390,7 +4396,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4404,7 +4410,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4418,7 +4424,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4432,7 +4438,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4446,7 +4452,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4460,7 +4466,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4474,7 +4480,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4488,7 +4494,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4502,7 +4508,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4516,7 +4522,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4530,7 +4536,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4544,7 +4550,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4558,7 +4564,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4572,7 +4578,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4586,7 +4592,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4600,7 +4606,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4614,7 +4620,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4628,7 +4634,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4642,7 +4648,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4656,7 +4662,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4670,7 +4676,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4684,7 +4690,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4698,7 +4704,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4712,7 +4718,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4726,7 +4732,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4740,7 +4746,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4754,7 +4760,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4768,7 +4774,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4782,7 +4788,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4796,7 +4802,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4810,7 +4816,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4824,7 +4830,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4838,7 +4844,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4852,7 +4858,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4866,7 +4872,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4880,7 +4886,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4894,7 +4900,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4908,7 +4914,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4922,7 +4928,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4936,7 +4942,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4950,7 +4956,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4964,7 +4970,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4978,7 +4984,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4992,7 +4998,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5006,7 +5012,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5020,7 +5026,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5034,7 +5040,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5048,7 +5054,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5062,7 +5068,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5076,7 +5082,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5090,7 +5096,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5104,7 +5110,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5118,7 +5124,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5132,7 +5138,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5146,7 +5152,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5160,7 +5166,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5174,7 +5180,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5188,7 +5194,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5202,7 +5208,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5216,7 +5222,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5230,7 +5236,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5244,7 +5250,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5258,7 +5264,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5272,7 +5278,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5286,7 +5292,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5300,7 +5306,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5314,7 +5320,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5328,7 +5334,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5342,7 +5348,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5356,7 +5362,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5370,7 +5376,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5384,7 +5390,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5398,7 +5404,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5412,7 +5418,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5426,7 +5432,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5440,7 +5446,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5454,7 +5460,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5468,7 +5474,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5482,7 +5488,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5496,7 +5502,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5510,7 +5516,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5524,7 +5530,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5538,7 +5544,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5552,7 +5558,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5566,7 +5572,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5580,7 +5586,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5594,7 +5600,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5608,7 +5614,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5622,7 +5628,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5636,7 +5642,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5650,7 +5656,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5664,7 +5670,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5678,7 +5684,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5692,7 +5698,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5706,7 +5712,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5720,7 +5726,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5734,7 +5740,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5748,7 +5754,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5762,7 +5768,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5776,7 +5782,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5790,7 +5796,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5804,7 +5810,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5818,7 +5824,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5832,7 +5838,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5846,7 +5852,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5860,7 +5866,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5874,7 +5880,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5888,7 +5894,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5902,7 +5908,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5916,7 +5922,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5930,7 +5936,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5944,7 +5950,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5958,7 +5964,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5972,7 +5978,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5986,7 +5992,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6000,7 +6006,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6014,7 +6020,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6028,7 +6034,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6042,7 +6048,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6056,7 +6062,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6070,7 +6076,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6084,7 +6090,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6098,7 +6104,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6112,7 +6118,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6126,7 +6132,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6140,7 +6146,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6154,7 +6160,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6168,7 +6174,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6182,7 +6188,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6196,7 +6202,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6210,7 +6216,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6224,7 +6230,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6238,7 +6244,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6252,7 +6258,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6266,7 +6272,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6280,7 +6286,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6294,7 +6300,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6308,7 +6314,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6322,7 +6328,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6336,7 +6342,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6350,7 +6356,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6364,7 +6370,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6378,7 +6384,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6392,7 +6398,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6406,7 +6412,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6420,7 +6426,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6434,7 +6440,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6448,7 +6454,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6462,7 +6468,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6476,7 +6482,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6490,7 +6496,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6504,7 +6510,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6518,7 +6524,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6532,7 +6538,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6546,7 +6552,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6560,7 +6566,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6574,7 +6580,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6588,7 +6594,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6602,7 +6608,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6616,7 +6622,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6630,7 +6636,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6644,7 +6650,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6658,7 +6664,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6672,7 +6678,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6686,7 +6692,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6700,7 +6706,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6714,7 +6720,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6728,7 +6734,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6742,7 +6748,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6756,7 +6762,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6770,7 +6776,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6784,7 +6790,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6798,7 +6804,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6812,7 +6818,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6826,7 +6832,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6840,7 +6846,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6854,7 +6860,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6868,7 +6874,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6882,7 +6888,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6896,7 +6902,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6910,7 +6916,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6924,7 +6930,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6938,7 +6944,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6952,7 +6958,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6966,7 +6972,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6980,7 +6986,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -6994,7 +7000,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7008,7 +7014,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7022,7 +7028,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7036,7 +7042,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7050,7 +7056,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7064,7 +7070,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7078,7 +7084,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7092,7 +7098,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7106,7 +7112,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7120,7 +7126,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7134,7 +7140,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7148,7 +7154,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7162,7 +7168,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7176,7 +7182,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7190,7 +7196,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7204,7 +7210,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7218,7 +7224,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7232,7 +7238,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7246,7 +7252,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7260,7 +7266,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7274,7 +7280,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7288,7 +7294,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7302,7 +7308,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7316,7 +7322,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7330,7 +7336,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7344,7 +7350,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7358,7 +7364,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7372,7 +7378,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7386,7 +7392,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7400,7 +7406,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7414,7 +7420,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7428,7 +7434,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7442,7 +7448,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7456,7 +7462,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7470,7 +7476,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7484,7 +7490,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7498,7 +7504,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7512,7 +7518,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7526,7 +7532,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7540,7 +7546,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7554,7 +7560,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7568,7 +7574,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7582,7 +7588,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7596,7 +7602,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7610,7 +7616,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7624,7 +7630,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7638,7 +7644,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7652,7 +7658,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7666,7 +7672,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7680,7 +7686,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7694,7 +7700,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7708,7 +7714,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7722,7 +7728,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7736,7 +7742,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7750,7 +7756,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7764,7 +7770,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7778,7 +7784,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7792,7 +7798,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7806,7 +7812,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7820,7 +7826,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7834,7 +7840,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7848,7 +7854,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7862,7 +7868,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7876,7 +7882,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7890,7 +7896,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7904,7 +7910,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7918,7 +7924,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7932,7 +7938,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7946,7 +7952,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7960,7 +7966,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7974,7 +7980,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7988,7 +7994,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8002,7 +8008,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8016,7 +8022,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8030,7 +8036,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8044,7 +8050,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8058,7 +8064,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8072,7 +8078,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8086,7 +8092,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8100,7 +8106,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8114,7 +8120,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8128,7 +8134,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8142,7 +8148,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8156,7 +8162,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8170,7 +8176,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8184,7 +8190,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8198,7 +8204,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8212,7 +8218,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8226,7 +8232,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8240,7 +8246,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8254,7 +8260,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8268,7 +8274,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8282,7 +8288,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8296,7 +8302,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8310,7 +8316,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8324,7 +8330,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8338,7 +8344,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8352,7 +8358,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8366,7 +8372,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8380,7 +8386,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8394,7 +8400,35 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" t="s">
         <v>473</v>
+      </c>
+      <c r="B471">
+        <v>0.39</v>
+      </c>
+      <c r="C471">
+        <v>0.4</v>
+      </c>
+      <c r="D471" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" t="s">
+        <v>474</v>
+      </c>
+      <c r="B472">
+        <v>0.43</v>
+      </c>
+      <c r="C472">
+        <v>0.45</v>
+      </c>
+      <c r="D472" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="483">
   <si>
     <t>Data</t>
   </si>
@@ -1439,6 +1439,9 @@
   </si>
   <si>
     <t>06/26/2021</t>
+  </si>
+  <si>
+    <t>06/27/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1817,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D472"/>
+  <dimension ref="A1:D473"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1848,7 +1851,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1862,7 +1865,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1876,7 +1879,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1890,7 +1893,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1904,7 +1907,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1918,7 +1921,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1932,7 +1935,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1946,7 +1949,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1960,7 +1963,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1974,7 +1977,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1988,7 +1991,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2002,7 +2005,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2016,7 +2019,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2030,7 +2033,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2044,7 +2047,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2058,7 +2061,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2072,7 +2075,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2086,7 +2089,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2100,7 +2103,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2114,7 +2117,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2128,7 +2131,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2142,7 +2145,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2156,7 +2159,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2170,7 +2173,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2184,7 +2187,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2198,7 +2201,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2212,7 +2215,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2226,7 +2229,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2240,7 +2243,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2254,7 +2257,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2268,7 +2271,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2282,7 +2285,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2296,7 +2299,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2310,7 +2313,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2324,7 +2327,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2338,7 +2341,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2352,7 +2355,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2366,7 +2369,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2380,7 +2383,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2394,7 +2397,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2408,7 +2411,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2422,7 +2425,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2436,7 +2439,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2450,7 +2453,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2464,7 +2467,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2478,7 +2481,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2492,7 +2495,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2506,7 +2509,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2520,7 +2523,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2534,7 +2537,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2548,7 +2551,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2562,7 +2565,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2576,7 +2579,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2590,7 +2593,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2604,7 +2607,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2618,7 +2621,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2632,7 +2635,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2646,7 +2649,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2660,7 +2663,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2674,7 +2677,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2688,7 +2691,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2702,7 +2705,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2716,7 +2719,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2730,7 +2733,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2744,7 +2747,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2758,7 +2761,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2772,7 +2775,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2786,7 +2789,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2800,7 +2803,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2814,7 +2817,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2828,7 +2831,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2842,7 +2845,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2856,7 +2859,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2870,7 +2873,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2884,7 +2887,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2898,7 +2901,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2912,7 +2915,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2926,7 +2929,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2940,7 +2943,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2954,7 +2957,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2968,7 +2971,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2982,7 +2985,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2996,7 +2999,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3010,7 +3013,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3024,7 +3027,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3038,7 +3041,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3052,7 +3055,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3066,7 +3069,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3080,7 +3083,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3094,7 +3097,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3108,7 +3111,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3122,7 +3125,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3136,7 +3139,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3150,7 +3153,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3164,7 +3167,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3178,7 +3181,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3192,7 +3195,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3206,7 +3209,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3220,7 +3223,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3234,7 +3237,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3248,7 +3251,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3262,7 +3265,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3276,7 +3279,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3290,7 +3293,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3304,7 +3307,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3318,7 +3321,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3332,7 +3335,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3346,7 +3349,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3360,7 +3363,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3374,7 +3377,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3388,7 +3391,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3402,7 +3405,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3416,7 +3419,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3430,7 +3433,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3444,7 +3447,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3458,7 +3461,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3472,7 +3475,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3486,7 +3489,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3500,7 +3503,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3514,7 +3517,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3528,7 +3531,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3542,7 +3545,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3556,7 +3559,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3570,7 +3573,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3584,7 +3587,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3598,7 +3601,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3612,7 +3615,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3626,7 +3629,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3640,7 +3643,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3654,7 +3657,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3668,7 +3671,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3682,7 +3685,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3696,7 +3699,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3710,7 +3713,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3724,7 +3727,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3738,7 +3741,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3752,7 +3755,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3766,7 +3769,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3780,7 +3783,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3794,7 +3797,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3808,7 +3811,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3822,7 +3825,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3836,7 +3839,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3850,7 +3853,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3864,7 +3867,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3878,7 +3881,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3892,7 +3895,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3906,7 +3909,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3920,7 +3923,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3934,7 +3937,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3948,7 +3951,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3962,7 +3965,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3976,7 +3979,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3990,7 +3993,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4004,7 +4007,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4018,7 +4021,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4032,7 +4035,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4046,7 +4049,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4060,7 +4063,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4074,7 +4077,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4088,7 +4091,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4102,7 +4105,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4116,7 +4119,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4130,7 +4133,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4144,7 +4147,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4158,7 +4161,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4172,7 +4175,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4186,7 +4189,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4200,7 +4203,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4214,7 +4217,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4228,7 +4231,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4242,7 +4245,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4256,7 +4259,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4270,7 +4273,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4284,7 +4287,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4298,7 +4301,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4312,7 +4315,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4326,7 +4329,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4340,7 +4343,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4354,7 +4357,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4368,7 +4371,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4382,7 +4385,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4396,7 +4399,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4410,7 +4413,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4424,7 +4427,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4438,7 +4441,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4452,7 +4455,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4466,7 +4469,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4480,7 +4483,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4494,7 +4497,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4508,7 +4511,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4522,7 +4525,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4536,7 +4539,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4550,7 +4553,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4564,7 +4567,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4578,7 +4581,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4592,7 +4595,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4606,7 +4609,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4620,7 +4623,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4634,7 +4637,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4648,7 +4651,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4662,7 +4665,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4676,7 +4679,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4690,7 +4693,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4704,7 +4707,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4718,7 +4721,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4732,7 +4735,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4746,7 +4749,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4760,7 +4763,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4774,7 +4777,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4788,7 +4791,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4802,7 +4805,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4816,7 +4819,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4830,7 +4833,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4844,7 +4847,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4858,7 +4861,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4872,7 +4875,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4886,7 +4889,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4900,7 +4903,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4914,7 +4917,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4928,7 +4931,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4942,7 +4945,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4956,7 +4959,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4970,7 +4973,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4984,7 +4987,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -4998,7 +5001,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5012,7 +5015,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5026,7 +5029,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5040,7 +5043,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5054,7 +5057,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5068,7 +5071,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5082,7 +5085,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5096,7 +5099,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5110,7 +5113,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5124,7 +5127,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5138,7 +5141,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5152,7 +5155,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5166,7 +5169,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5180,7 +5183,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5194,7 +5197,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5208,7 +5211,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5222,7 +5225,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5236,7 +5239,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5250,7 +5253,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5264,7 +5267,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5278,7 +5281,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5292,7 +5295,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5306,7 +5309,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5320,7 +5323,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5334,7 +5337,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5348,7 +5351,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5362,7 +5365,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5376,7 +5379,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5390,7 +5393,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5404,7 +5407,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5418,7 +5421,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5432,7 +5435,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5446,7 +5449,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5460,7 +5463,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5474,7 +5477,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5488,7 +5491,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5502,7 +5505,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5516,7 +5519,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5530,7 +5533,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5544,7 +5547,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5558,7 +5561,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5572,7 +5575,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5586,7 +5589,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5600,7 +5603,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5614,7 +5617,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5628,7 +5631,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5642,7 +5645,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5656,7 +5659,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5670,7 +5673,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5684,7 +5687,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5698,7 +5701,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5712,7 +5715,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5726,7 +5729,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5740,7 +5743,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5754,7 +5757,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5768,7 +5771,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5782,7 +5785,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5796,7 +5799,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5810,7 +5813,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5824,7 +5827,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5838,7 +5841,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5852,7 +5855,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5866,7 +5869,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5880,7 +5883,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5894,7 +5897,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5908,7 +5911,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5922,7 +5925,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5936,7 +5939,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5950,7 +5953,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5964,7 +5967,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5978,7 +5981,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5992,7 +5995,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6006,7 +6009,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6020,7 +6023,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6034,7 +6037,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6048,7 +6051,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6062,7 +6065,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6076,7 +6079,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6090,7 +6093,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6104,7 +6107,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6118,7 +6121,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6132,7 +6135,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6146,7 +6149,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6160,7 +6163,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6174,7 +6177,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6188,7 +6191,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6202,7 +6205,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6216,7 +6219,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6230,7 +6233,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6244,7 +6247,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6258,7 +6261,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6272,7 +6275,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6286,7 +6289,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6300,7 +6303,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6314,7 +6317,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6328,7 +6331,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6342,7 +6345,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6356,7 +6359,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6370,7 +6373,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6384,7 +6387,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6398,7 +6401,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6412,7 +6415,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6426,7 +6429,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6440,7 +6443,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6454,7 +6457,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6468,7 +6471,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6482,7 +6485,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6496,7 +6499,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6510,7 +6513,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6524,7 +6527,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6538,7 +6541,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6552,7 +6555,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6566,7 +6569,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6580,7 +6583,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6594,7 +6597,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6608,7 +6611,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6622,7 +6625,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6636,7 +6639,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6650,7 +6653,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6664,7 +6667,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6678,7 +6681,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6692,7 +6695,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6706,7 +6709,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6720,7 +6723,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6734,7 +6737,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6748,7 +6751,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6762,7 +6765,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6776,7 +6779,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6790,7 +6793,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6804,7 +6807,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6818,7 +6821,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6832,7 +6835,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6846,7 +6849,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6860,7 +6863,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6874,7 +6877,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6888,7 +6891,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6902,7 +6905,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6916,7 +6919,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6930,7 +6933,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6944,7 +6947,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6958,7 +6961,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6972,7 +6975,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6986,7 +6989,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7000,7 +7003,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7014,7 +7017,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7028,7 +7031,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7042,7 +7045,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7056,7 +7059,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7070,7 +7073,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7084,7 +7087,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7098,7 +7101,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7112,7 +7115,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7126,7 +7129,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7140,7 +7143,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7154,7 +7157,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7168,7 +7171,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7182,7 +7185,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7196,7 +7199,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7210,7 +7213,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7224,7 +7227,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7238,7 +7241,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7252,7 +7255,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7266,7 +7269,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7280,7 +7283,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7294,7 +7297,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7308,7 +7311,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7322,7 +7325,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7336,7 +7339,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7350,7 +7353,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7364,7 +7367,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7378,7 +7381,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7392,7 +7395,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7406,7 +7409,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7420,7 +7423,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7434,7 +7437,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7448,7 +7451,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7462,7 +7465,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7476,7 +7479,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7490,7 +7493,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7504,7 +7507,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7518,7 +7521,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7532,7 +7535,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7546,7 +7549,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7560,7 +7563,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7574,7 +7577,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7588,7 +7591,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7602,7 +7605,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7616,7 +7619,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7630,7 +7633,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7644,7 +7647,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7658,7 +7661,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7672,7 +7675,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7686,7 +7689,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7700,7 +7703,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7714,7 +7717,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7728,7 +7731,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7742,7 +7745,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7756,7 +7759,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7770,7 +7773,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7784,7 +7787,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7798,7 +7801,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7812,7 +7815,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7826,7 +7829,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7840,7 +7843,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7854,7 +7857,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7868,7 +7871,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7882,7 +7885,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7896,7 +7899,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7910,7 +7913,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7924,7 +7927,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7938,7 +7941,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7952,7 +7955,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7966,7 +7969,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7980,7 +7983,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7994,7 +7997,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8008,7 +8011,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8022,7 +8025,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8036,7 +8039,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8050,7 +8053,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8064,7 +8067,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8078,7 +8081,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8092,7 +8095,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8106,7 +8109,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8120,7 +8123,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8134,7 +8137,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8148,7 +8151,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8162,7 +8165,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8176,7 +8179,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8190,7 +8193,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8204,7 +8207,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8218,7 +8221,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8232,7 +8235,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8246,7 +8249,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8260,7 +8263,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8274,7 +8277,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8288,7 +8291,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8302,7 +8305,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8316,7 +8319,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8330,7 +8333,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8344,7 +8347,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8358,7 +8361,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8372,7 +8375,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8386,7 +8389,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8400,7 +8403,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8414,7 +8417,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8428,7 +8431,21 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>479</v>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" t="s">
+        <v>475</v>
+      </c>
+      <c r="B473">
+        <v>0.46</v>
+      </c>
+      <c r="C473">
+        <v>0.49</v>
+      </c>
+      <c r="D473" t="s">
+        <v>481</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="484">
   <si>
     <t>Data</t>
   </si>
@@ -1442,6 +1442,9 @@
   </si>
   <si>
     <t>06/27/2021</t>
+  </si>
+  <si>
+    <t>06/28/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1820,7 +1823,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D473"/>
+  <dimension ref="A1:D474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1851,7 +1854,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1865,7 +1868,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1879,7 +1882,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1893,7 +1896,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1907,7 +1910,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1921,7 +1924,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1935,7 +1938,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1949,7 +1952,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1963,7 +1966,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1977,7 +1980,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1991,7 +1994,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2005,7 +2008,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2019,7 +2022,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2033,7 +2036,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2047,7 +2050,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2061,7 +2064,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2075,7 +2078,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2089,7 +2092,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2103,7 +2106,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2117,7 +2120,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2131,7 +2134,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2145,7 +2148,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2159,7 +2162,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2173,7 +2176,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2187,7 +2190,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2201,7 +2204,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2215,7 +2218,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2229,7 +2232,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2243,7 +2246,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2257,7 +2260,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2271,7 +2274,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2285,7 +2288,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2299,7 +2302,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2313,7 +2316,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2327,7 +2330,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2341,7 +2344,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2355,7 +2358,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2369,7 +2372,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2383,7 +2386,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2397,7 +2400,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2411,7 +2414,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2425,7 +2428,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2439,7 +2442,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2453,7 +2456,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2467,7 +2470,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2481,7 +2484,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2495,7 +2498,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2509,7 +2512,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2523,7 +2526,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2537,7 +2540,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2551,7 +2554,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2565,7 +2568,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2579,7 +2582,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2593,7 +2596,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2607,7 +2610,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2621,7 +2624,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2635,7 +2638,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2649,7 +2652,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2663,7 +2666,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2677,7 +2680,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2691,7 +2694,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2705,7 +2708,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2719,7 +2722,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2733,7 +2736,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2747,7 +2750,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2761,7 +2764,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2775,7 +2778,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2789,7 +2792,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2803,7 +2806,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2817,7 +2820,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2831,7 +2834,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2845,7 +2848,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2859,7 +2862,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2873,7 +2876,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2887,7 +2890,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2901,7 +2904,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2915,7 +2918,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2929,7 +2932,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2943,7 +2946,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2957,7 +2960,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2971,7 +2974,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2985,7 +2988,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2999,7 +3002,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3013,7 +3016,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3027,7 +3030,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3041,7 +3044,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3055,7 +3058,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3069,7 +3072,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3083,7 +3086,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3097,7 +3100,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3111,7 +3114,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3125,7 +3128,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3139,7 +3142,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3153,7 +3156,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3167,7 +3170,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3181,7 +3184,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3195,7 +3198,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3209,7 +3212,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3223,7 +3226,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3237,7 +3240,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3251,7 +3254,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3265,7 +3268,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3279,7 +3282,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3293,7 +3296,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3307,7 +3310,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3321,7 +3324,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3335,7 +3338,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3349,7 +3352,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3363,7 +3366,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3377,7 +3380,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3391,7 +3394,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3405,7 +3408,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3419,7 +3422,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3433,7 +3436,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3447,7 +3450,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3461,7 +3464,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3475,7 +3478,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3489,7 +3492,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3503,7 +3506,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3517,7 +3520,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3531,7 +3534,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3545,7 +3548,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3559,7 +3562,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3573,7 +3576,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3587,7 +3590,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3601,7 +3604,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3615,7 +3618,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3629,7 +3632,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3643,7 +3646,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3657,7 +3660,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3671,7 +3674,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3685,7 +3688,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3699,7 +3702,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3713,7 +3716,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3727,7 +3730,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3741,7 +3744,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3755,7 +3758,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3769,7 +3772,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3783,7 +3786,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3797,7 +3800,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3811,7 +3814,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3825,7 +3828,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3839,7 +3842,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3853,7 +3856,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3867,7 +3870,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3881,7 +3884,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3895,7 +3898,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3909,7 +3912,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3923,7 +3926,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3937,7 +3940,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3951,7 +3954,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3965,7 +3968,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3979,7 +3982,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3993,7 +3996,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4007,7 +4010,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4021,7 +4024,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4035,7 +4038,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4049,7 +4052,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4063,7 +4066,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4077,7 +4080,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4091,7 +4094,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4105,7 +4108,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4119,7 +4122,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4133,7 +4136,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4147,7 +4150,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4161,7 +4164,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4175,7 +4178,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4189,7 +4192,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4203,7 +4206,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4217,7 +4220,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4231,7 +4234,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4245,7 +4248,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4259,7 +4262,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4273,7 +4276,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4287,7 +4290,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4301,7 +4304,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4315,7 +4318,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4329,7 +4332,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4343,7 +4346,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4357,7 +4360,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4371,7 +4374,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4385,7 +4388,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4399,7 +4402,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4413,7 +4416,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4427,7 +4430,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4441,7 +4444,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4455,7 +4458,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4469,7 +4472,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4483,7 +4486,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4497,7 +4500,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4511,7 +4514,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4525,7 +4528,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4539,7 +4542,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4553,7 +4556,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4567,7 +4570,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4581,7 +4584,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4595,7 +4598,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4609,7 +4612,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4623,7 +4626,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4637,7 +4640,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4651,7 +4654,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4665,7 +4668,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4679,7 +4682,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4693,7 +4696,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4707,7 +4710,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4721,7 +4724,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4735,7 +4738,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4749,7 +4752,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4763,7 +4766,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4777,7 +4780,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4791,7 +4794,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4805,7 +4808,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4819,7 +4822,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4833,7 +4836,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4847,7 +4850,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4861,7 +4864,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4875,7 +4878,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4889,7 +4892,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4903,7 +4906,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4917,7 +4920,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4931,7 +4934,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4945,7 +4948,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4959,7 +4962,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4973,7 +4976,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4987,7 +4990,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5001,7 +5004,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5015,7 +5018,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5029,7 +5032,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5043,7 +5046,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5057,7 +5060,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5071,7 +5074,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5085,7 +5088,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5099,7 +5102,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5113,7 +5116,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5127,7 +5130,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5141,7 +5144,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5155,7 +5158,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5169,7 +5172,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5183,7 +5186,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5197,7 +5200,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5211,7 +5214,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5225,7 +5228,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5239,7 +5242,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5253,7 +5256,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5267,7 +5270,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5281,7 +5284,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5295,7 +5298,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5309,7 +5312,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5323,7 +5326,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5337,7 +5340,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5351,7 +5354,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5365,7 +5368,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5379,7 +5382,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5393,7 +5396,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5407,7 +5410,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5421,7 +5424,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5435,7 +5438,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5449,7 +5452,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5463,7 +5466,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5477,7 +5480,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5491,7 +5494,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5505,7 +5508,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5519,7 +5522,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5533,7 +5536,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5547,7 +5550,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5561,7 +5564,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5575,7 +5578,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5589,7 +5592,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5603,7 +5606,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5617,7 +5620,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5631,7 +5634,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5645,7 +5648,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5659,7 +5662,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5673,7 +5676,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5687,7 +5690,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5701,7 +5704,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5715,7 +5718,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5729,7 +5732,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5743,7 +5746,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5757,7 +5760,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5771,7 +5774,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5785,7 +5788,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5799,7 +5802,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5813,7 +5816,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5827,7 +5830,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5841,7 +5844,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5855,7 +5858,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5869,7 +5872,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5883,7 +5886,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5897,7 +5900,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5911,7 +5914,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5925,7 +5928,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5939,7 +5942,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5953,7 +5956,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5967,7 +5970,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5981,7 +5984,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5995,7 +5998,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6009,7 +6012,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6023,7 +6026,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6037,7 +6040,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6051,7 +6054,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6065,7 +6068,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6079,7 +6082,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6093,7 +6096,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6107,7 +6110,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6121,7 +6124,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6135,7 +6138,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6149,7 +6152,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6163,7 +6166,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6177,7 +6180,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6191,7 +6194,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6205,7 +6208,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6219,7 +6222,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6233,7 +6236,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6247,7 +6250,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6261,7 +6264,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6275,7 +6278,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6289,7 +6292,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6303,7 +6306,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6317,7 +6320,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6331,7 +6334,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6345,7 +6348,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6359,7 +6362,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6373,7 +6376,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6387,7 +6390,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6401,7 +6404,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6415,7 +6418,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6429,7 +6432,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6443,7 +6446,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6457,7 +6460,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6471,7 +6474,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6485,7 +6488,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6499,7 +6502,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6513,7 +6516,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6527,7 +6530,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6541,7 +6544,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6555,7 +6558,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6569,7 +6572,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6583,7 +6586,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6597,7 +6600,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6611,7 +6614,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6625,7 +6628,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6639,7 +6642,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6653,7 +6656,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6667,7 +6670,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6681,7 +6684,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6695,7 +6698,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6709,7 +6712,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6723,7 +6726,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6737,7 +6740,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6751,7 +6754,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6765,7 +6768,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6779,7 +6782,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6793,7 +6796,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6807,7 +6810,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6821,7 +6824,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6835,7 +6838,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6849,7 +6852,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6863,7 +6866,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6877,7 +6880,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6891,7 +6894,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6905,7 +6908,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6919,7 +6922,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6933,7 +6936,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6947,7 +6950,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6961,7 +6964,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6975,7 +6978,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6989,7 +6992,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7003,7 +7006,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7017,7 +7020,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7031,7 +7034,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7045,7 +7048,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7059,7 +7062,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7073,7 +7076,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7087,7 +7090,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7101,7 +7104,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7115,7 +7118,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7129,7 +7132,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7143,7 +7146,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7157,7 +7160,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7171,7 +7174,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7185,7 +7188,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7199,7 +7202,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7213,7 +7216,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7227,7 +7230,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7241,7 +7244,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7255,7 +7258,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7269,7 +7272,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7283,7 +7286,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7297,7 +7300,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7311,7 +7314,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7325,7 +7328,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7339,7 +7342,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7353,7 +7356,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7367,7 +7370,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7381,7 +7384,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7395,7 +7398,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7409,7 +7412,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7423,7 +7426,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7437,7 +7440,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7451,7 +7454,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7465,7 +7468,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7479,7 +7482,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7493,7 +7496,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7507,7 +7510,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7521,7 +7524,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7535,7 +7538,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7549,7 +7552,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7563,7 +7566,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7577,7 +7580,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7591,7 +7594,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7605,7 +7608,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7619,7 +7622,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7633,7 +7636,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7647,7 +7650,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7661,7 +7664,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7675,7 +7678,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7689,7 +7692,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7703,7 +7706,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7717,7 +7720,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7731,7 +7734,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7745,7 +7748,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7759,7 +7762,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7773,7 +7776,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7787,7 +7790,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7801,7 +7804,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7815,7 +7818,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7829,7 +7832,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7843,7 +7846,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7857,7 +7860,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7871,7 +7874,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7885,7 +7888,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7899,7 +7902,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7913,7 +7916,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7927,7 +7930,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7941,7 +7944,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7955,7 +7958,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7969,7 +7972,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7983,7 +7986,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -7997,7 +8000,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8011,7 +8014,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8025,7 +8028,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8039,7 +8042,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8053,7 +8056,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8067,7 +8070,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8081,7 +8084,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8095,7 +8098,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8109,7 +8112,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8123,7 +8126,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8137,7 +8140,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8151,7 +8154,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8165,7 +8168,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8179,7 +8182,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8193,7 +8196,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8207,7 +8210,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8221,7 +8224,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8235,7 +8238,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8249,7 +8252,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8263,7 +8266,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8277,7 +8280,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8291,7 +8294,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8305,7 +8308,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8319,7 +8322,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8333,7 +8336,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8347,7 +8350,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8361,7 +8364,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8375,7 +8378,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8389,7 +8392,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8403,7 +8406,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8417,7 +8420,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8431,7 +8434,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8445,7 +8448,21 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" t="s">
+        <v>476</v>
+      </c>
+      <c r="B474">
+        <v>0.39</v>
+      </c>
+      <c r="C474">
+        <v>0.4</v>
+      </c>
+      <c r="D474" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="485">
   <si>
     <t>Data</t>
   </si>
@@ -1445,6 +1445,9 @@
   </si>
   <si>
     <t>06/28/2021</t>
+  </si>
+  <si>
+    <t>06/29/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1823,7 +1826,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D474"/>
+  <dimension ref="A1:D475"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1854,7 +1857,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1868,7 +1871,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1882,7 +1885,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1896,7 +1899,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1910,7 +1913,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1924,7 +1927,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1938,7 +1941,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1952,7 +1955,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1966,7 +1969,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1980,7 +1983,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1994,7 +1997,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2008,7 +2011,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2022,7 +2025,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2036,7 +2039,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2050,7 +2053,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2064,7 +2067,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2078,7 +2081,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2092,7 +2095,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2106,7 +2109,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2120,7 +2123,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2134,7 +2137,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2148,7 +2151,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2162,7 +2165,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2176,7 +2179,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2190,7 +2193,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2204,7 +2207,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2218,7 +2221,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2232,7 +2235,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2246,7 +2249,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2260,7 +2263,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2274,7 +2277,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2288,7 +2291,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2302,7 +2305,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2316,7 +2319,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2330,7 +2333,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2344,7 +2347,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2358,7 +2361,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2372,7 +2375,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2386,7 +2389,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2400,7 +2403,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2414,7 +2417,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2428,7 +2431,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2442,7 +2445,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2456,7 +2459,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2470,7 +2473,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2484,7 +2487,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2498,7 +2501,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2512,7 +2515,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2526,7 +2529,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2540,7 +2543,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2554,7 +2557,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2568,7 +2571,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2582,7 +2585,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2596,7 +2599,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2610,7 +2613,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2624,7 +2627,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2638,7 +2641,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2652,7 +2655,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2666,7 +2669,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2680,7 +2683,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2694,7 +2697,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2708,7 +2711,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2722,7 +2725,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2736,7 +2739,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2750,7 +2753,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2764,7 +2767,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2778,7 +2781,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2792,7 +2795,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2806,7 +2809,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2820,7 +2823,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2834,7 +2837,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2848,7 +2851,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2862,7 +2865,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2876,7 +2879,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2890,7 +2893,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2904,7 +2907,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2918,7 +2921,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2932,7 +2935,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2946,7 +2949,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2960,7 +2963,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2974,7 +2977,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2988,7 +2991,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3002,7 +3005,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3016,7 +3019,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3030,7 +3033,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3044,7 +3047,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3058,7 +3061,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3072,7 +3075,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3086,7 +3089,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3100,7 +3103,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3114,7 +3117,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3128,7 +3131,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3142,7 +3145,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3156,7 +3159,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3170,7 +3173,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3184,7 +3187,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3198,7 +3201,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3212,7 +3215,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3226,7 +3229,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3240,7 +3243,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3254,7 +3257,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3268,7 +3271,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3282,7 +3285,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3296,7 +3299,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3310,7 +3313,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3324,7 +3327,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3338,7 +3341,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3352,7 +3355,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3366,7 +3369,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3380,7 +3383,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3394,7 +3397,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3408,7 +3411,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3422,7 +3425,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3436,7 +3439,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3450,7 +3453,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3464,7 +3467,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3478,7 +3481,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3492,7 +3495,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3506,7 +3509,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3520,7 +3523,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3534,7 +3537,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3548,7 +3551,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3562,7 +3565,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3576,7 +3579,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3590,7 +3593,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3604,7 +3607,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3618,7 +3621,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3632,7 +3635,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3646,7 +3649,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3660,7 +3663,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3674,7 +3677,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3688,7 +3691,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3702,7 +3705,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3716,7 +3719,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3730,7 +3733,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3744,7 +3747,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3758,7 +3761,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3772,7 +3775,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3786,7 +3789,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3800,7 +3803,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3814,7 +3817,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3828,7 +3831,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3842,7 +3845,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3856,7 +3859,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3870,7 +3873,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3884,7 +3887,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3898,7 +3901,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3912,7 +3915,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3926,7 +3929,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3940,7 +3943,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3954,7 +3957,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3968,7 +3971,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3982,7 +3985,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3996,7 +3999,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4010,7 +4013,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4024,7 +4027,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4038,7 +4041,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4052,7 +4055,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4066,7 +4069,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4080,7 +4083,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4094,7 +4097,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4108,7 +4111,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4122,7 +4125,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4136,7 +4139,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4150,7 +4153,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4164,7 +4167,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4178,7 +4181,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4192,7 +4195,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4206,7 +4209,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4220,7 +4223,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4234,7 +4237,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4248,7 +4251,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4262,7 +4265,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4276,7 +4279,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4290,7 +4293,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4304,7 +4307,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4318,7 +4321,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4332,7 +4335,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4346,7 +4349,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4360,7 +4363,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4374,7 +4377,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4388,7 +4391,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4402,7 +4405,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4416,7 +4419,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4430,7 +4433,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4444,7 +4447,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4458,7 +4461,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4472,7 +4475,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4486,7 +4489,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4500,7 +4503,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4514,7 +4517,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4528,7 +4531,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4542,7 +4545,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4556,7 +4559,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4570,7 +4573,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4584,7 +4587,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4598,7 +4601,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4612,7 +4615,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4626,7 +4629,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4640,7 +4643,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4654,7 +4657,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4668,7 +4671,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4682,7 +4685,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4696,7 +4699,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4710,7 +4713,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4724,7 +4727,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4738,7 +4741,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4752,7 +4755,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4766,7 +4769,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4780,7 +4783,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4794,7 +4797,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4808,7 +4811,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4822,7 +4825,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4836,7 +4839,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4850,7 +4853,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4864,7 +4867,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4878,7 +4881,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4892,7 +4895,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4906,7 +4909,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4920,7 +4923,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4934,7 +4937,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4948,7 +4951,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4962,7 +4965,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4976,7 +4979,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4990,7 +4993,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5004,7 +5007,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5018,7 +5021,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5032,7 +5035,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5046,7 +5049,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5060,7 +5063,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5074,7 +5077,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5088,7 +5091,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5102,7 +5105,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5116,7 +5119,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5130,7 +5133,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5144,7 +5147,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5158,7 +5161,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5172,7 +5175,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5186,7 +5189,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5200,7 +5203,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5214,7 +5217,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5228,7 +5231,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5242,7 +5245,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5256,7 +5259,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5270,7 +5273,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5284,7 +5287,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5298,7 +5301,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5312,7 +5315,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5326,7 +5329,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5340,7 +5343,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5354,7 +5357,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5368,7 +5371,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5382,7 +5385,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5396,7 +5399,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5410,7 +5413,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5424,7 +5427,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5438,7 +5441,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5452,7 +5455,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5466,7 +5469,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5480,7 +5483,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5494,7 +5497,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5508,7 +5511,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5522,7 +5525,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5536,7 +5539,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5550,7 +5553,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5564,7 +5567,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5578,7 +5581,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5592,7 +5595,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5606,7 +5609,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5620,7 +5623,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5634,7 +5637,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5648,7 +5651,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5662,7 +5665,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5676,7 +5679,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5690,7 +5693,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5704,7 +5707,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5718,7 +5721,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5732,7 +5735,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5746,7 +5749,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5760,7 +5763,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5774,7 +5777,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5788,7 +5791,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5802,7 +5805,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5816,7 +5819,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5830,7 +5833,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5844,7 +5847,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5858,7 +5861,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5872,7 +5875,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5886,7 +5889,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5900,7 +5903,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5914,7 +5917,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5928,7 +5931,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5942,7 +5945,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5956,7 +5959,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5970,7 +5973,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5984,7 +5987,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -5998,7 +6001,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6012,7 +6015,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6026,7 +6029,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6040,7 +6043,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6054,7 +6057,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6068,7 +6071,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6082,7 +6085,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6096,7 +6099,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6110,7 +6113,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6124,7 +6127,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6138,7 +6141,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6152,7 +6155,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6166,7 +6169,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6180,7 +6183,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6194,7 +6197,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6208,7 +6211,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6222,7 +6225,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6236,7 +6239,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6250,7 +6253,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6264,7 +6267,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6278,7 +6281,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6292,7 +6295,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6306,7 +6309,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6320,7 +6323,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6334,7 +6337,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6348,7 +6351,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6362,7 +6365,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6376,7 +6379,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6390,7 +6393,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6404,7 +6407,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6418,7 +6421,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6432,7 +6435,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6446,7 +6449,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6460,7 +6463,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6474,7 +6477,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6488,7 +6491,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6502,7 +6505,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6516,7 +6519,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6530,7 +6533,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6544,7 +6547,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6558,7 +6561,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6572,7 +6575,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6586,7 +6589,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6600,7 +6603,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6614,7 +6617,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6628,7 +6631,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6642,7 +6645,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6656,7 +6659,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6670,7 +6673,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6684,7 +6687,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6698,7 +6701,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6712,7 +6715,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6726,7 +6729,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6740,7 +6743,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6754,7 +6757,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6768,7 +6771,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6782,7 +6785,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6796,7 +6799,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6810,7 +6813,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6824,7 +6827,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6838,7 +6841,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6852,7 +6855,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6866,7 +6869,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6880,7 +6883,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6894,7 +6897,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6908,7 +6911,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6922,7 +6925,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6936,7 +6939,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6950,7 +6953,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6964,7 +6967,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6978,7 +6981,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6992,7 +6995,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7006,7 +7009,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7020,7 +7023,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7034,7 +7037,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7048,7 +7051,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7062,7 +7065,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7076,7 +7079,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7090,7 +7093,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7104,7 +7107,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7118,7 +7121,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7132,7 +7135,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7146,7 +7149,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7160,7 +7163,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7174,7 +7177,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7188,7 +7191,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7202,7 +7205,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7216,7 +7219,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7230,7 +7233,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7244,7 +7247,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7258,7 +7261,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7272,7 +7275,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7286,7 +7289,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7300,7 +7303,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7314,7 +7317,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7328,7 +7331,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7342,7 +7345,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7356,7 +7359,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7370,7 +7373,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7384,7 +7387,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7398,7 +7401,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7412,7 +7415,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7426,7 +7429,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7440,7 +7443,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7454,7 +7457,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7468,7 +7471,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7482,7 +7485,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7496,7 +7499,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7510,7 +7513,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7524,7 +7527,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7538,7 +7541,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7552,7 +7555,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7566,7 +7569,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7580,7 +7583,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7594,7 +7597,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7608,7 +7611,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7622,7 +7625,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7636,7 +7639,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7650,7 +7653,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7664,7 +7667,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7678,7 +7681,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7692,7 +7695,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7706,7 +7709,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7720,7 +7723,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7734,7 +7737,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7748,7 +7751,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7762,7 +7765,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7776,7 +7779,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7790,7 +7793,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7804,7 +7807,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7818,7 +7821,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7832,7 +7835,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7846,7 +7849,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7860,7 +7863,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7874,7 +7877,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7888,7 +7891,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7902,7 +7905,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7916,7 +7919,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7930,7 +7933,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7944,7 +7947,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7958,7 +7961,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7972,7 +7975,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7986,7 +7989,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8000,7 +8003,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8014,7 +8017,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8028,7 +8031,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8042,7 +8045,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8056,7 +8059,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8070,7 +8073,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8084,7 +8087,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8098,7 +8101,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8112,7 +8115,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8126,7 +8129,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8140,7 +8143,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8154,7 +8157,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8168,7 +8171,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8182,7 +8185,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8196,7 +8199,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8210,7 +8213,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8224,7 +8227,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8238,7 +8241,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8252,7 +8255,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8266,7 +8269,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8280,7 +8283,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8294,7 +8297,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8308,7 +8311,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8322,7 +8325,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8336,7 +8339,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8350,7 +8353,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8364,7 +8367,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8378,7 +8381,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8392,7 +8395,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8406,7 +8409,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8420,7 +8423,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8434,7 +8437,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8448,7 +8451,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8462,7 +8465,21 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>483</v>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" t="s">
+        <v>477</v>
+      </c>
+      <c r="B475">
+        <v>0.4</v>
+      </c>
+      <c r="C475">
+        <v>0.41</v>
+      </c>
+      <c r="D475" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="489">
   <si>
     <t>Data</t>
   </si>
@@ -1448,6 +1448,18 @@
   </si>
   <si>
     <t>06/29/2021</t>
+  </si>
+  <si>
+    <t>06/30/2021</t>
+  </si>
+  <si>
+    <t>07/01/2021</t>
+  </si>
+  <si>
+    <t>07/02/2021</t>
+  </si>
+  <si>
+    <t>07/03/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1826,7 +1838,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D475"/>
+  <dimension ref="A1:D479"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1857,7 +1869,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1871,7 +1883,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1885,7 +1897,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1899,7 +1911,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1913,7 +1925,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1927,7 +1939,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1941,7 +1953,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1955,7 +1967,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1969,7 +1981,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1983,7 +1995,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1997,7 +2009,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2011,7 +2023,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2025,7 +2037,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2039,7 +2051,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2053,7 +2065,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2067,7 +2079,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2081,7 +2093,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2095,7 +2107,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2109,7 +2121,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2123,7 +2135,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2137,7 +2149,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2151,7 +2163,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2165,7 +2177,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2179,7 +2191,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2193,7 +2205,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2207,7 +2219,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2221,7 +2233,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2235,7 +2247,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2249,7 +2261,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2263,7 +2275,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2277,7 +2289,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2291,7 +2303,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2305,7 +2317,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2319,7 +2331,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2333,7 +2345,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2347,7 +2359,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2361,7 +2373,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2375,7 +2387,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2389,7 +2401,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2403,7 +2415,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2417,7 +2429,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2431,7 +2443,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2445,7 +2457,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2459,7 +2471,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2473,7 +2485,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2487,7 +2499,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2501,7 +2513,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2515,7 +2527,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2529,7 +2541,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2543,7 +2555,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2557,7 +2569,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2571,7 +2583,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2585,7 +2597,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2599,7 +2611,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2613,7 +2625,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2627,7 +2639,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2641,7 +2653,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2655,7 +2667,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2669,7 +2681,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2683,7 +2695,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2697,7 +2709,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2711,7 +2723,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2725,7 +2737,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2739,7 +2751,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2753,7 +2765,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2767,7 +2779,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2781,7 +2793,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2795,7 +2807,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2809,7 +2821,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2823,7 +2835,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2837,7 +2849,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2851,7 +2863,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2865,7 +2877,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2879,7 +2891,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2893,7 +2905,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2907,7 +2919,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2921,7 +2933,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2935,7 +2947,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2949,7 +2961,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2963,7 +2975,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2977,7 +2989,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2991,7 +3003,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3005,7 +3017,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3019,7 +3031,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3033,7 +3045,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3047,7 +3059,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3061,7 +3073,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3075,7 +3087,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3089,7 +3101,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3103,7 +3115,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3117,7 +3129,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3131,7 +3143,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3145,7 +3157,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3159,7 +3171,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3173,7 +3185,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3187,7 +3199,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3201,7 +3213,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3215,7 +3227,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3229,7 +3241,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3243,7 +3255,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3257,7 +3269,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3271,7 +3283,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3285,7 +3297,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3299,7 +3311,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3313,7 +3325,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3327,7 +3339,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3341,7 +3353,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3355,7 +3367,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3369,7 +3381,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3383,7 +3395,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3397,7 +3409,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3411,7 +3423,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3425,7 +3437,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3439,7 +3451,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3453,7 +3465,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3467,7 +3479,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3481,7 +3493,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3495,7 +3507,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3509,7 +3521,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3523,7 +3535,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3537,7 +3549,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3551,7 +3563,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3565,7 +3577,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3579,7 +3591,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3593,7 +3605,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3607,7 +3619,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3621,7 +3633,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3635,7 +3647,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3649,7 +3661,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3663,7 +3675,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3677,7 +3689,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3691,7 +3703,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3705,7 +3717,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3719,7 +3731,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3733,7 +3745,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3747,7 +3759,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3761,7 +3773,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3775,7 +3787,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3789,7 +3801,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3803,7 +3815,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3817,7 +3829,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3831,7 +3843,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3845,7 +3857,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3859,7 +3871,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3873,7 +3885,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3887,7 +3899,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3901,7 +3913,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3915,7 +3927,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3929,7 +3941,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3943,7 +3955,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3957,7 +3969,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3971,7 +3983,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3985,7 +3997,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3999,7 +4011,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4013,7 +4025,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4027,7 +4039,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4041,7 +4053,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4055,7 +4067,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4069,7 +4081,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4083,7 +4095,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4097,7 +4109,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4111,7 +4123,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4125,7 +4137,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4139,7 +4151,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4153,7 +4165,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4167,7 +4179,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4181,7 +4193,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4195,7 +4207,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4209,7 +4221,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4223,7 +4235,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4237,7 +4249,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4251,7 +4263,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4265,7 +4277,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4279,7 +4291,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4293,7 +4305,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4307,7 +4319,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4321,7 +4333,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4335,7 +4347,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4349,7 +4361,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4363,7 +4375,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4377,7 +4389,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4391,7 +4403,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4405,7 +4417,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4419,7 +4431,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4433,7 +4445,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4447,7 +4459,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4461,7 +4473,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4475,7 +4487,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4489,7 +4501,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4503,7 +4515,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4517,7 +4529,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4531,7 +4543,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4545,7 +4557,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4559,7 +4571,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4573,7 +4585,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4587,7 +4599,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4601,7 +4613,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4615,7 +4627,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4629,7 +4641,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4643,7 +4655,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4657,7 +4669,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4671,7 +4683,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4685,7 +4697,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4699,7 +4711,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4713,7 +4725,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4727,7 +4739,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4741,7 +4753,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4755,7 +4767,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4769,7 +4781,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4783,7 +4795,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4797,7 +4809,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4811,7 +4823,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4825,7 +4837,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4839,7 +4851,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4853,7 +4865,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4867,7 +4879,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4881,7 +4893,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4895,7 +4907,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4909,7 +4921,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4923,7 +4935,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4937,7 +4949,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4951,7 +4963,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4965,7 +4977,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4979,7 +4991,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -4993,7 +5005,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5007,7 +5019,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5021,7 +5033,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5035,7 +5047,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5049,7 +5061,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5063,7 +5075,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5077,7 +5089,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5091,7 +5103,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5105,7 +5117,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5119,7 +5131,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5133,7 +5145,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5147,7 +5159,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5161,7 +5173,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5175,7 +5187,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5189,7 +5201,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5203,7 +5215,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5217,7 +5229,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5231,7 +5243,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5245,7 +5257,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5259,7 +5271,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5273,7 +5285,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5287,7 +5299,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5301,7 +5313,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5315,7 +5327,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5329,7 +5341,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5343,7 +5355,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5357,7 +5369,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5371,7 +5383,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5385,7 +5397,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5399,7 +5411,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5413,7 +5425,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5427,7 +5439,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5441,7 +5453,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5455,7 +5467,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5469,7 +5481,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5483,7 +5495,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5497,7 +5509,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5511,7 +5523,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5525,7 +5537,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5539,7 +5551,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5553,7 +5565,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5567,7 +5579,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5581,7 +5593,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5595,7 +5607,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5609,7 +5621,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5623,7 +5635,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5637,7 +5649,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5651,7 +5663,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5665,7 +5677,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5679,7 +5691,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5693,7 +5705,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5707,7 +5719,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5721,7 +5733,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5735,7 +5747,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5749,7 +5761,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5763,7 +5775,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5777,7 +5789,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5791,7 +5803,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5805,7 +5817,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5819,7 +5831,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5833,7 +5845,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5847,7 +5859,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5861,7 +5873,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5875,7 +5887,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5889,7 +5901,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5903,7 +5915,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5917,7 +5929,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5931,7 +5943,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5945,7 +5957,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5959,7 +5971,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5973,7 +5985,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5987,7 +5999,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6001,7 +6013,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6015,7 +6027,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6029,7 +6041,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6043,7 +6055,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6057,7 +6069,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6071,7 +6083,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6085,7 +6097,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6099,7 +6111,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6113,7 +6125,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6127,7 +6139,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6141,7 +6153,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6155,7 +6167,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6169,7 +6181,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6183,7 +6195,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6197,7 +6209,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6211,7 +6223,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6225,7 +6237,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6239,7 +6251,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6253,7 +6265,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6267,7 +6279,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6281,7 +6293,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6295,7 +6307,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6309,7 +6321,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6323,7 +6335,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6337,7 +6349,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6351,7 +6363,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6365,7 +6377,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6379,7 +6391,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6393,7 +6405,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6407,7 +6419,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6421,7 +6433,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6435,7 +6447,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6449,7 +6461,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6463,7 +6475,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6477,7 +6489,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6491,7 +6503,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6505,7 +6517,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6519,7 +6531,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6533,7 +6545,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6547,7 +6559,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6561,7 +6573,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6575,7 +6587,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6589,7 +6601,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6603,7 +6615,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6617,7 +6629,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6631,7 +6643,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6645,7 +6657,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6659,7 +6671,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6673,7 +6685,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6687,7 +6699,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6701,7 +6713,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6715,7 +6727,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6729,7 +6741,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6743,7 +6755,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6757,7 +6769,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6771,7 +6783,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6785,7 +6797,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6799,7 +6811,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6813,7 +6825,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6827,7 +6839,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6841,7 +6853,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6855,7 +6867,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6869,7 +6881,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6883,7 +6895,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6897,7 +6909,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6911,7 +6923,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6925,7 +6937,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6939,7 +6951,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6953,7 +6965,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6967,7 +6979,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6981,7 +6993,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -6995,7 +7007,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7009,7 +7021,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7023,7 +7035,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7037,7 +7049,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7051,7 +7063,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7065,7 +7077,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7079,7 +7091,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7093,7 +7105,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7107,7 +7119,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7121,7 +7133,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7135,7 +7147,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7149,7 +7161,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7163,7 +7175,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7177,7 +7189,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7191,7 +7203,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7205,7 +7217,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7219,7 +7231,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7233,7 +7245,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7247,7 +7259,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7261,7 +7273,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7275,7 +7287,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7289,7 +7301,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7303,7 +7315,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7317,7 +7329,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7331,7 +7343,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7345,7 +7357,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7359,7 +7371,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7373,7 +7385,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7387,7 +7399,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7401,7 +7413,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7415,7 +7427,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7429,7 +7441,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7443,7 +7455,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7457,7 +7469,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7471,7 +7483,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7485,7 +7497,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7499,7 +7511,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7513,7 +7525,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7527,7 +7539,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7541,7 +7553,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7555,7 +7567,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7569,7 +7581,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7583,7 +7595,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7597,7 +7609,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7611,7 +7623,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7625,7 +7637,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7639,7 +7651,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7653,7 +7665,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7667,7 +7679,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7681,7 +7693,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7695,7 +7707,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7709,7 +7721,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7723,7 +7735,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7737,7 +7749,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7751,7 +7763,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7765,7 +7777,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7779,7 +7791,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7793,7 +7805,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7807,7 +7819,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7821,7 +7833,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7835,7 +7847,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7849,7 +7861,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7863,7 +7875,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7877,7 +7889,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7891,7 +7903,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7905,7 +7917,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7919,7 +7931,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7933,7 +7945,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7947,7 +7959,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7961,7 +7973,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7975,7 +7987,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -7989,7 +8001,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8003,7 +8015,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8017,7 +8029,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8031,7 +8043,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8045,7 +8057,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8059,7 +8071,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8073,7 +8085,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8087,7 +8099,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8101,7 +8113,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8115,7 +8127,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8129,7 +8141,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8143,7 +8155,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8157,7 +8169,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8171,7 +8183,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8185,7 +8197,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8199,7 +8211,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8213,7 +8225,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8227,7 +8239,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8241,7 +8253,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8255,7 +8267,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8269,7 +8281,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8283,7 +8295,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8297,7 +8309,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8311,7 +8323,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8325,7 +8337,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8339,7 +8351,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8353,7 +8365,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8367,7 +8379,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8381,7 +8393,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8395,7 +8407,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8409,7 +8421,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8423,7 +8435,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8437,7 +8449,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8451,7 +8463,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8465,7 +8477,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8479,7 +8491,63 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" t="s">
+        <v>478</v>
+      </c>
+      <c r="B476">
+        <v>0.4</v>
+      </c>
+      <c r="C476">
+        <v>0.4</v>
+      </c>
+      <c r="D476" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" t="s">
+        <v>479</v>
+      </c>
+      <c r="B477">
+        <v>0.4</v>
+      </c>
+      <c r="C477">
+        <v>0.41</v>
+      </c>
+      <c r="D477" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" t="s">
         <v>480</v>
+      </c>
+      <c r="B478">
+        <v>0.39</v>
+      </c>
+      <c r="C478">
+        <v>0.39</v>
+      </c>
+      <c r="D478" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" t="s">
+        <v>481</v>
+      </c>
+      <c r="B479">
+        <v>0.41</v>
+      </c>
+      <c r="C479">
+        <v>0.43</v>
+      </c>
+      <c r="D479" t="s">
+        <v>486</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="490">
   <si>
     <t>Data</t>
   </si>
@@ -1460,6 +1460,9 @@
   </si>
   <si>
     <t>07/03/2021</t>
+  </si>
+  <si>
+    <t>07/04/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1838,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D479"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1869,7 +1872,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1883,7 +1886,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1897,7 +1900,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1911,7 +1914,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1925,7 +1928,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1939,7 +1942,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1953,7 +1956,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1967,7 +1970,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1981,7 +1984,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1995,7 +1998,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2009,7 +2012,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2023,7 +2026,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2037,7 +2040,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2051,7 +2054,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2065,7 +2068,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2079,7 +2082,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2093,7 +2096,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2107,7 +2110,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2121,7 +2124,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2135,7 +2138,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2149,7 +2152,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2163,7 +2166,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2177,7 +2180,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2191,7 +2194,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2205,7 +2208,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2219,7 +2222,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2233,7 +2236,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2247,7 +2250,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2261,7 +2264,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2275,7 +2278,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2289,7 +2292,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2303,7 +2306,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2317,7 +2320,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2331,7 +2334,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2345,7 +2348,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2359,7 +2362,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2373,7 +2376,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2387,7 +2390,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2401,7 +2404,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2415,7 +2418,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2429,7 +2432,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2443,7 +2446,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2457,7 +2460,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2471,7 +2474,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2485,7 +2488,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2499,7 +2502,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2513,7 +2516,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2527,7 +2530,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2541,7 +2544,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2555,7 +2558,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2569,7 +2572,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2583,7 +2586,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2597,7 +2600,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2611,7 +2614,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2625,7 +2628,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2639,7 +2642,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2653,7 +2656,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2667,7 +2670,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2681,7 +2684,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2695,7 +2698,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2709,7 +2712,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2723,7 +2726,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2737,7 +2740,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2751,7 +2754,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2765,7 +2768,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2779,7 +2782,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2793,7 +2796,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2807,7 +2810,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2821,7 +2824,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2835,7 +2838,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2849,7 +2852,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2863,7 +2866,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2877,7 +2880,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2891,7 +2894,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2905,7 +2908,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2919,7 +2922,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2933,7 +2936,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2947,7 +2950,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2961,7 +2964,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2975,7 +2978,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2989,7 +2992,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3003,7 +3006,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3017,7 +3020,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3031,7 +3034,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3045,7 +3048,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3059,7 +3062,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3073,7 +3076,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3087,7 +3090,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3101,7 +3104,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3115,7 +3118,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3129,7 +3132,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3143,7 +3146,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3157,7 +3160,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3171,7 +3174,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3185,7 +3188,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3199,7 +3202,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3213,7 +3216,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3227,7 +3230,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3241,7 +3244,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3255,7 +3258,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3269,7 +3272,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3283,7 +3286,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3297,7 +3300,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3311,7 +3314,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3325,7 +3328,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3339,7 +3342,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3353,7 +3356,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3367,7 +3370,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3381,7 +3384,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3395,7 +3398,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3409,7 +3412,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3423,7 +3426,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3437,7 +3440,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3451,7 +3454,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3465,7 +3468,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3479,7 +3482,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3493,7 +3496,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3507,7 +3510,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3521,7 +3524,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3535,7 +3538,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3549,7 +3552,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3563,7 +3566,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3577,7 +3580,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3591,7 +3594,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3605,7 +3608,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3619,7 +3622,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3633,7 +3636,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3647,7 +3650,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3661,7 +3664,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3675,7 +3678,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3689,7 +3692,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3703,7 +3706,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3717,7 +3720,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3731,7 +3734,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3745,7 +3748,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3759,7 +3762,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3773,7 +3776,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3787,7 +3790,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3801,7 +3804,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3815,7 +3818,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3829,7 +3832,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3843,7 +3846,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3857,7 +3860,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3871,7 +3874,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3885,7 +3888,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3899,7 +3902,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3913,7 +3916,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3927,7 +3930,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3941,7 +3944,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3955,7 +3958,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3969,7 +3972,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3983,7 +3986,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3997,7 +4000,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4011,7 +4014,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4025,7 +4028,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4039,7 +4042,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4053,7 +4056,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4067,7 +4070,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4081,7 +4084,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4095,7 +4098,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4109,7 +4112,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4123,7 +4126,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4137,7 +4140,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4151,7 +4154,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4165,7 +4168,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4179,7 +4182,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4193,7 +4196,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4207,7 +4210,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4221,7 +4224,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4235,7 +4238,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4249,7 +4252,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4263,7 +4266,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4277,7 +4280,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4291,7 +4294,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4305,7 +4308,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4319,7 +4322,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4333,7 +4336,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4347,7 +4350,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4361,7 +4364,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4375,7 +4378,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4389,7 +4392,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4403,7 +4406,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4417,7 +4420,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4431,7 +4434,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4445,7 +4448,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4459,7 +4462,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4473,7 +4476,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4487,7 +4490,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4501,7 +4504,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4515,7 +4518,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4529,7 +4532,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4543,7 +4546,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4557,7 +4560,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4571,7 +4574,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4585,7 +4588,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4599,7 +4602,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4613,7 +4616,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4627,7 +4630,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4641,7 +4644,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4655,7 +4658,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4669,7 +4672,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4683,7 +4686,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4697,7 +4700,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4711,7 +4714,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4725,7 +4728,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4739,7 +4742,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4753,7 +4756,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4767,7 +4770,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4781,7 +4784,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4795,7 +4798,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4809,7 +4812,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4823,7 +4826,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4837,7 +4840,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4851,7 +4854,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4865,7 +4868,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4879,7 +4882,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4893,7 +4896,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4907,7 +4910,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4921,7 +4924,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4935,7 +4938,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4949,7 +4952,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4963,7 +4966,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4977,7 +4980,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4991,7 +4994,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5005,7 +5008,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5019,7 +5022,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5033,7 +5036,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5047,7 +5050,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5061,7 +5064,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5075,7 +5078,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5089,7 +5092,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5103,7 +5106,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5117,7 +5120,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5131,7 +5134,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5145,7 +5148,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5159,7 +5162,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5173,7 +5176,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5187,7 +5190,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5201,7 +5204,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5215,7 +5218,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5229,7 +5232,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5243,7 +5246,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5257,7 +5260,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5271,7 +5274,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5285,7 +5288,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5299,7 +5302,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5313,7 +5316,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5327,7 +5330,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5341,7 +5344,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5355,7 +5358,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5369,7 +5372,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5383,7 +5386,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5397,7 +5400,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5411,7 +5414,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5425,7 +5428,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5439,7 +5442,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5453,7 +5456,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5467,7 +5470,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5481,7 +5484,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5495,7 +5498,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5509,7 +5512,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5523,7 +5526,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5537,7 +5540,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5551,7 +5554,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5565,7 +5568,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5579,7 +5582,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5593,7 +5596,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5607,7 +5610,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5621,7 +5624,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5635,7 +5638,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5649,7 +5652,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5663,7 +5666,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5677,7 +5680,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5691,7 +5694,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5705,7 +5708,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5719,7 +5722,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5733,7 +5736,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5747,7 +5750,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5761,7 +5764,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5775,7 +5778,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5789,7 +5792,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5803,7 +5806,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5817,7 +5820,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5831,7 +5834,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5845,7 +5848,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5859,7 +5862,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5873,7 +5876,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5887,7 +5890,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5901,7 +5904,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5915,7 +5918,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5929,7 +5932,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5943,7 +5946,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5957,7 +5960,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5971,7 +5974,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5985,7 +5988,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -5999,7 +6002,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6013,7 +6016,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6027,7 +6030,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6041,7 +6044,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6055,7 +6058,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6069,7 +6072,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6083,7 +6086,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6097,7 +6100,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6111,7 +6114,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6125,7 +6128,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6139,7 +6142,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6153,7 +6156,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6167,7 +6170,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6181,7 +6184,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6195,7 +6198,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6209,7 +6212,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6223,7 +6226,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6237,7 +6240,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6251,7 +6254,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6265,7 +6268,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6279,7 +6282,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6293,7 +6296,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6307,7 +6310,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6321,7 +6324,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6335,7 +6338,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6349,7 +6352,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6363,7 +6366,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6377,7 +6380,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6391,7 +6394,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6405,7 +6408,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6419,7 +6422,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6433,7 +6436,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6447,7 +6450,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6461,7 +6464,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6475,7 +6478,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6489,7 +6492,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6503,7 +6506,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6517,7 +6520,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6531,7 +6534,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6545,7 +6548,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6559,7 +6562,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6573,7 +6576,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6587,7 +6590,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6601,7 +6604,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6615,7 +6618,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6629,7 +6632,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6643,7 +6646,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6657,7 +6660,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6671,7 +6674,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6685,7 +6688,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6699,7 +6702,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6713,7 +6716,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6727,7 +6730,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6741,7 +6744,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6755,7 +6758,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6769,7 +6772,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6783,7 +6786,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6797,7 +6800,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6811,7 +6814,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6825,7 +6828,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6839,7 +6842,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6853,7 +6856,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6867,7 +6870,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6881,7 +6884,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6895,7 +6898,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6909,7 +6912,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6923,7 +6926,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6937,7 +6940,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6951,7 +6954,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6965,7 +6968,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6979,7 +6982,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6993,7 +6996,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7007,7 +7010,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7021,7 +7024,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7035,7 +7038,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7049,7 +7052,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7063,7 +7066,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7077,7 +7080,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7091,7 +7094,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7105,7 +7108,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7119,7 +7122,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7133,7 +7136,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7147,7 +7150,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7161,7 +7164,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7175,7 +7178,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7189,7 +7192,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7203,7 +7206,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7217,7 +7220,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7231,7 +7234,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7245,7 +7248,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7259,7 +7262,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7273,7 +7276,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7287,7 +7290,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7301,7 +7304,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7315,7 +7318,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7329,7 +7332,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7343,7 +7346,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7357,7 +7360,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7371,7 +7374,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7385,7 +7388,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7399,7 +7402,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7413,7 +7416,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7427,7 +7430,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7441,7 +7444,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7455,7 +7458,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7469,7 +7472,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7483,7 +7486,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7497,7 +7500,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7511,7 +7514,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7525,7 +7528,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7539,7 +7542,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7553,7 +7556,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7567,7 +7570,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7581,7 +7584,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7595,7 +7598,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7609,7 +7612,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7623,7 +7626,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7637,7 +7640,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7651,7 +7654,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7665,7 +7668,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7679,7 +7682,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7693,7 +7696,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7707,7 +7710,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7721,7 +7724,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7735,7 +7738,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7749,7 +7752,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7763,7 +7766,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7777,7 +7780,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7791,7 +7794,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7805,7 +7808,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7819,7 +7822,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7833,7 +7836,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7847,7 +7850,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7861,7 +7864,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7875,7 +7878,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7889,7 +7892,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7903,7 +7906,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7917,7 +7920,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7931,7 +7934,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7945,7 +7948,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7959,7 +7962,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7973,7 +7976,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7987,7 +7990,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8001,7 +8004,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8015,7 +8018,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8029,7 +8032,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8043,7 +8046,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8057,7 +8060,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8071,7 +8074,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8085,7 +8088,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8099,7 +8102,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8113,7 +8116,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8127,7 +8130,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8141,7 +8144,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8155,7 +8158,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8169,7 +8172,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8183,7 +8186,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8197,7 +8200,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8211,7 +8214,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8225,7 +8228,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8239,7 +8242,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8253,7 +8256,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8267,7 +8270,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8281,7 +8284,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8295,7 +8298,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8309,7 +8312,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8323,7 +8326,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8337,7 +8340,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8351,7 +8354,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8365,7 +8368,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8379,7 +8382,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8393,7 +8396,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8407,7 +8410,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8421,7 +8424,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8435,7 +8438,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8449,7 +8452,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8463,7 +8466,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8477,7 +8480,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8491,7 +8494,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8505,7 +8508,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8519,7 +8522,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8533,7 +8536,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8547,7 +8550,21 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>486</v>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" t="s">
+        <v>482</v>
+      </c>
+      <c r="B480">
+        <v>0.47</v>
+      </c>
+      <c r="C480">
+        <v>0.48</v>
+      </c>
+      <c r="D480" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="490">
   <si>
     <t>Data</t>
   </si>
@@ -1841,7 +1841,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8567,6 +8567,20 @@
         <v>488</v>
       </c>
     </row>
+    <row r="481" spans="1:4">
+      <c r="A481" t="s">
+        <v>482</v>
+      </c>
+      <c r="B481">
+        <v>0.4</v>
+      </c>
+      <c r="C481">
+        <v>0.4</v>
+      </c>
+      <c r="D481" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="492">
   <si>
     <t>Data</t>
   </si>
@@ -1463,6 +1463,12 @@
   </si>
   <si>
     <t>07/04/2021</t>
+  </si>
+  <si>
+    <t>07/05/2021</t>
+  </si>
+  <si>
+    <t>07/06/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1841,7 +1847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D481"/>
+  <dimension ref="A1:D482"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1872,7 +1878,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1886,7 +1892,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1900,7 +1906,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1914,7 +1920,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1928,7 +1934,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1942,7 +1948,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1956,7 +1962,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1970,7 +1976,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1984,7 +1990,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1998,7 +2004,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2012,7 +2018,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2026,7 +2032,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2040,7 +2046,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2054,7 +2060,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2068,7 +2074,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2082,7 +2088,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2096,7 +2102,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2110,7 +2116,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2124,7 +2130,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2138,7 +2144,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2152,7 +2158,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2166,7 +2172,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2180,7 +2186,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2194,7 +2200,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2208,7 +2214,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2222,7 +2228,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2236,7 +2242,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2250,7 +2256,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2264,7 +2270,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2278,7 +2284,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2292,7 +2298,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2306,7 +2312,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2320,7 +2326,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2334,7 +2340,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2348,7 +2354,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2362,7 +2368,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2376,7 +2382,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2390,7 +2396,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2404,7 +2410,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2418,7 +2424,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2432,7 +2438,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2446,7 +2452,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2460,7 +2466,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2474,7 +2480,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2488,7 +2494,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2502,7 +2508,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2516,7 +2522,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2530,7 +2536,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2544,7 +2550,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2558,7 +2564,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2572,7 +2578,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2586,7 +2592,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2600,7 +2606,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2614,7 +2620,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2628,7 +2634,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2642,7 +2648,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2656,7 +2662,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2670,7 +2676,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2684,7 +2690,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2698,7 +2704,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2712,7 +2718,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2726,7 +2732,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2740,7 +2746,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2754,7 +2760,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2768,7 +2774,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2782,7 +2788,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2796,7 +2802,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2810,7 +2816,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2824,7 +2830,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2838,7 +2844,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2852,7 +2858,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2866,7 +2872,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2880,7 +2886,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2894,7 +2900,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2908,7 +2914,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2922,7 +2928,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2936,7 +2942,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2950,7 +2956,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2964,7 +2970,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2978,7 +2984,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2992,7 +2998,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3006,7 +3012,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3020,7 +3026,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3034,7 +3040,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3048,7 +3054,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3062,7 +3068,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3076,7 +3082,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3090,7 +3096,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3104,7 +3110,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3118,7 +3124,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3132,7 +3138,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3146,7 +3152,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3160,7 +3166,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3174,7 +3180,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3188,7 +3194,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3202,7 +3208,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3216,7 +3222,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3230,7 +3236,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3244,7 +3250,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3258,7 +3264,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3272,7 +3278,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3286,7 +3292,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3300,7 +3306,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3314,7 +3320,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3328,7 +3334,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3342,7 +3348,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3356,7 +3362,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3370,7 +3376,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3384,7 +3390,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3398,7 +3404,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3412,7 +3418,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3426,7 +3432,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3440,7 +3446,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3454,7 +3460,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3468,7 +3474,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3482,7 +3488,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3496,7 +3502,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3510,7 +3516,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3524,7 +3530,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3538,7 +3544,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3552,7 +3558,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3566,7 +3572,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3580,7 +3586,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3594,7 +3600,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3608,7 +3614,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3622,7 +3628,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3636,7 +3642,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3650,7 +3656,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3664,7 +3670,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3678,7 +3684,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3692,7 +3698,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3706,7 +3712,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3720,7 +3726,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3734,7 +3740,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3748,7 +3754,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3762,7 +3768,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3776,7 +3782,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3790,7 +3796,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3804,7 +3810,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3818,7 +3824,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3832,7 +3838,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3846,7 +3852,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3860,7 +3866,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3874,7 +3880,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3888,7 +3894,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3902,7 +3908,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3916,7 +3922,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3930,7 +3936,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3944,7 +3950,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3958,7 +3964,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3972,7 +3978,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3986,7 +3992,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4000,7 +4006,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4014,7 +4020,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4028,7 +4034,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4042,7 +4048,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4056,7 +4062,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4070,7 +4076,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4084,7 +4090,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4098,7 +4104,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4112,7 +4118,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4126,7 +4132,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4140,7 +4146,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4154,7 +4160,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4168,7 +4174,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4182,7 +4188,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4196,7 +4202,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4210,7 +4216,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4224,7 +4230,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4238,7 +4244,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4252,7 +4258,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4266,7 +4272,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4280,7 +4286,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4294,7 +4300,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4308,7 +4314,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4322,7 +4328,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4336,7 +4342,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4350,7 +4356,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4364,7 +4370,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4378,7 +4384,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4392,7 +4398,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4406,7 +4412,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4420,7 +4426,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4434,7 +4440,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4448,7 +4454,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4462,7 +4468,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4476,7 +4482,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4490,7 +4496,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4504,7 +4510,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4518,7 +4524,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4532,7 +4538,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4546,7 +4552,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4560,7 +4566,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4574,7 +4580,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4588,7 +4594,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4602,7 +4608,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4616,7 +4622,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4630,7 +4636,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4644,7 +4650,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4658,7 +4664,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4672,7 +4678,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4686,7 +4692,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4700,7 +4706,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4714,7 +4720,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4728,7 +4734,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4742,7 +4748,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4756,7 +4762,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4770,7 +4776,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4784,7 +4790,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4798,7 +4804,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4812,7 +4818,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4826,7 +4832,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4840,7 +4846,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4854,7 +4860,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4868,7 +4874,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4882,7 +4888,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4896,7 +4902,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4910,7 +4916,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4924,7 +4930,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4938,7 +4944,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4952,7 +4958,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4966,7 +4972,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4980,7 +4986,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -4994,7 +5000,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5008,7 +5014,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5022,7 +5028,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5036,7 +5042,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5050,7 +5056,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5064,7 +5070,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5078,7 +5084,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5092,7 +5098,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5106,7 +5112,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5120,7 +5126,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5134,7 +5140,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5148,7 +5154,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5162,7 +5168,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5176,7 +5182,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5190,7 +5196,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5204,7 +5210,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5218,7 +5224,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5232,7 +5238,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5246,7 +5252,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5260,7 +5266,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5274,7 +5280,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5288,7 +5294,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5302,7 +5308,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5316,7 +5322,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5330,7 +5336,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5344,7 +5350,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5358,7 +5364,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5372,7 +5378,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5386,7 +5392,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5400,7 +5406,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5414,7 +5420,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5428,7 +5434,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5442,7 +5448,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5456,7 +5462,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5470,7 +5476,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5484,7 +5490,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5498,7 +5504,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5512,7 +5518,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5526,7 +5532,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5540,7 +5546,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5554,7 +5560,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5568,7 +5574,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5582,7 +5588,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5596,7 +5602,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5610,7 +5616,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5624,7 +5630,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5638,7 +5644,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5652,7 +5658,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5666,7 +5672,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5680,7 +5686,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5694,7 +5700,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5708,7 +5714,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5722,7 +5728,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5736,7 +5742,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5750,7 +5756,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5764,7 +5770,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5778,7 +5784,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5792,7 +5798,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5806,7 +5812,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5820,7 +5826,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5834,7 +5840,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5848,7 +5854,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5862,7 +5868,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5876,7 +5882,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5890,7 +5896,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5904,7 +5910,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5918,7 +5924,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5932,7 +5938,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5946,7 +5952,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5960,7 +5966,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5974,7 +5980,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5988,7 +5994,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6002,7 +6008,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6016,7 +6022,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6030,7 +6036,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6044,7 +6050,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6058,7 +6064,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6072,7 +6078,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6086,7 +6092,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6100,7 +6106,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6114,7 +6120,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6128,7 +6134,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6142,7 +6148,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6156,7 +6162,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6170,7 +6176,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6184,7 +6190,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6198,7 +6204,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6212,7 +6218,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6226,7 +6232,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6240,7 +6246,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6254,7 +6260,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6268,7 +6274,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6282,7 +6288,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6296,7 +6302,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6310,7 +6316,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6324,7 +6330,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6338,7 +6344,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6352,7 +6358,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6366,7 +6372,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6380,7 +6386,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6394,7 +6400,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6408,7 +6414,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6422,7 +6428,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6436,7 +6442,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6450,7 +6456,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6464,7 +6470,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6478,7 +6484,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6492,7 +6498,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6506,7 +6512,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6520,7 +6526,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6534,7 +6540,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6548,7 +6554,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6562,7 +6568,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6576,7 +6582,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6590,7 +6596,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6604,7 +6610,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6618,7 +6624,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6632,7 +6638,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6646,7 +6652,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6660,7 +6666,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6674,7 +6680,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6688,7 +6694,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6702,7 +6708,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6716,7 +6722,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6730,7 +6736,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6744,7 +6750,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6758,7 +6764,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6772,7 +6778,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6786,7 +6792,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6800,7 +6806,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6814,7 +6820,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6828,7 +6834,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6842,7 +6848,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6856,7 +6862,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6870,7 +6876,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6884,7 +6890,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6898,7 +6904,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6912,7 +6918,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6926,7 +6932,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6940,7 +6946,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6954,7 +6960,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6968,7 +6974,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6982,7 +6988,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -6996,7 +7002,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7010,7 +7016,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7024,7 +7030,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7038,7 +7044,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7052,7 +7058,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7066,7 +7072,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7080,7 +7086,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7094,7 +7100,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7108,7 +7114,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7122,7 +7128,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7136,7 +7142,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7150,7 +7156,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7164,7 +7170,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7178,7 +7184,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7192,7 +7198,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7206,7 +7212,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7220,7 +7226,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7234,7 +7240,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7248,7 +7254,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7262,7 +7268,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7276,7 +7282,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7290,7 +7296,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7304,7 +7310,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7318,7 +7324,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7332,7 +7338,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7346,7 +7352,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7360,7 +7366,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7374,7 +7380,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7388,7 +7394,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7402,7 +7408,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7416,7 +7422,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7430,7 +7436,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7444,7 +7450,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7458,7 +7464,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7472,7 +7478,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7486,7 +7492,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7500,7 +7506,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7514,7 +7520,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7528,7 +7534,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7542,7 +7548,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7556,7 +7562,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7570,7 +7576,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7584,7 +7590,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7598,7 +7604,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7612,7 +7618,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7626,7 +7632,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7640,7 +7646,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7654,7 +7660,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7668,7 +7674,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7682,7 +7688,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7696,7 +7702,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7710,7 +7716,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7724,7 +7730,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7738,7 +7744,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7752,7 +7758,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7766,7 +7772,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7780,7 +7786,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7794,7 +7800,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7808,7 +7814,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7822,7 +7828,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7836,7 +7842,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7850,7 +7856,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7864,7 +7870,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7878,7 +7884,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7892,7 +7898,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7906,7 +7912,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7920,7 +7926,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7934,7 +7940,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7948,7 +7954,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7962,7 +7968,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7976,7 +7982,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7990,7 +7996,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8004,7 +8010,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8018,7 +8024,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8032,7 +8038,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8046,7 +8052,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8060,7 +8066,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8074,7 +8080,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8088,7 +8094,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8102,7 +8108,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8116,7 +8122,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8130,7 +8136,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8144,7 +8150,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8158,7 +8164,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8172,7 +8178,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8186,7 +8192,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8200,7 +8206,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8214,7 +8220,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8228,7 +8234,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8242,7 +8248,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8256,7 +8262,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8270,7 +8276,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8284,7 +8290,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8298,7 +8304,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8312,7 +8318,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8326,7 +8332,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8340,7 +8346,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8354,7 +8360,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8368,7 +8374,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8382,7 +8388,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8396,7 +8402,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8410,7 +8416,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8424,7 +8430,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8438,7 +8444,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8452,7 +8458,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8466,7 +8472,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8480,7 +8486,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8494,7 +8500,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8508,7 +8514,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8522,7 +8528,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8536,7 +8542,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8550,7 +8556,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8564,12 +8570,12 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B481">
         <v>0.4</v>
@@ -8578,7 +8584,21 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>488</v>
+        <v>491</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" t="s">
+        <v>484</v>
+      </c>
+      <c r="B482">
+        <v>0.4</v>
+      </c>
+      <c r="C482">
+        <v>0.4</v>
+      </c>
+      <c r="D482" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="493">
   <si>
     <t>Data</t>
   </si>
@@ -1469,6 +1469,9 @@
   </si>
   <si>
     <t>07/06/2021</t>
+  </si>
+  <si>
+    <t>07/07/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1847,7 +1850,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D482"/>
+  <dimension ref="A1:D483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1878,7 +1881,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1892,7 +1895,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1906,7 +1909,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1920,7 +1923,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1934,7 +1937,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1948,7 +1951,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1962,7 +1965,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1976,7 +1979,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1990,7 +1993,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2004,7 +2007,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2018,7 +2021,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2032,7 +2035,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2046,7 +2049,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2060,7 +2063,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2074,7 +2077,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2088,7 +2091,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2102,7 +2105,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2116,7 +2119,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2130,7 +2133,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2144,7 +2147,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2158,7 +2161,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2172,7 +2175,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2186,7 +2189,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2200,7 +2203,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2214,7 +2217,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2228,7 +2231,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2242,7 +2245,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2256,7 +2259,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2270,7 +2273,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2284,7 +2287,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2298,7 +2301,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2312,7 +2315,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2326,7 +2329,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2340,7 +2343,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2354,7 +2357,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2368,7 +2371,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2382,7 +2385,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2396,7 +2399,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2410,7 +2413,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2424,7 +2427,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2438,7 +2441,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2452,7 +2455,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2466,7 +2469,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2480,7 +2483,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2494,7 +2497,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2508,7 +2511,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2522,7 +2525,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2536,7 +2539,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2550,7 +2553,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2564,7 +2567,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2578,7 +2581,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2592,7 +2595,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2606,7 +2609,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2620,7 +2623,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2634,7 +2637,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2648,7 +2651,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2662,7 +2665,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2676,7 +2679,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2690,7 +2693,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2704,7 +2707,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2718,7 +2721,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2732,7 +2735,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2746,7 +2749,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2760,7 +2763,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2774,7 +2777,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2788,7 +2791,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2802,7 +2805,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2816,7 +2819,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2830,7 +2833,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2844,7 +2847,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2858,7 +2861,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2872,7 +2875,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2886,7 +2889,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2900,7 +2903,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2914,7 +2917,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2928,7 +2931,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2942,7 +2945,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2956,7 +2959,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2970,7 +2973,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2984,7 +2987,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2998,7 +3001,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3012,7 +3015,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3026,7 +3029,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3040,7 +3043,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3054,7 +3057,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3068,7 +3071,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3082,7 +3085,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3096,7 +3099,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3110,7 +3113,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3124,7 +3127,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3138,7 +3141,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3152,7 +3155,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3166,7 +3169,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3180,7 +3183,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3194,7 +3197,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3208,7 +3211,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3222,7 +3225,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3236,7 +3239,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3250,7 +3253,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3264,7 +3267,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3278,7 +3281,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3292,7 +3295,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3306,7 +3309,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3320,7 +3323,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3334,7 +3337,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3348,7 +3351,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3362,7 +3365,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3376,7 +3379,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3390,7 +3393,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3404,7 +3407,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3418,7 +3421,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3432,7 +3435,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3446,7 +3449,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3460,7 +3463,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3474,7 +3477,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3488,7 +3491,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3502,7 +3505,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3516,7 +3519,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3530,7 +3533,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3544,7 +3547,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3558,7 +3561,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3572,7 +3575,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3586,7 +3589,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3600,7 +3603,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3614,7 +3617,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3628,7 +3631,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3642,7 +3645,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3656,7 +3659,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3670,7 +3673,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3684,7 +3687,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3698,7 +3701,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3712,7 +3715,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3726,7 +3729,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3740,7 +3743,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3754,7 +3757,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3768,7 +3771,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3782,7 +3785,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3796,7 +3799,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3810,7 +3813,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3824,7 +3827,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3838,7 +3841,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3852,7 +3855,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3866,7 +3869,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3880,7 +3883,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3894,7 +3897,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3908,7 +3911,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3922,7 +3925,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3936,7 +3939,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3950,7 +3953,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3964,7 +3967,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3978,7 +3981,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3992,7 +3995,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4006,7 +4009,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4020,7 +4023,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4034,7 +4037,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4048,7 +4051,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4062,7 +4065,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4076,7 +4079,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4090,7 +4093,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4104,7 +4107,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4118,7 +4121,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4132,7 +4135,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4146,7 +4149,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4160,7 +4163,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4174,7 +4177,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4188,7 +4191,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4202,7 +4205,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4216,7 +4219,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4230,7 +4233,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4244,7 +4247,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4258,7 +4261,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4272,7 +4275,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4286,7 +4289,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4300,7 +4303,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4314,7 +4317,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4328,7 +4331,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4342,7 +4345,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4356,7 +4359,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4370,7 +4373,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4384,7 +4387,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4398,7 +4401,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4412,7 +4415,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4426,7 +4429,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4440,7 +4443,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4454,7 +4457,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4468,7 +4471,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4482,7 +4485,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4496,7 +4499,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4510,7 +4513,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4524,7 +4527,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4538,7 +4541,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4552,7 +4555,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4566,7 +4569,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4580,7 +4583,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4594,7 +4597,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4608,7 +4611,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4622,7 +4625,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4636,7 +4639,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4650,7 +4653,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4664,7 +4667,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4678,7 +4681,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4692,7 +4695,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4706,7 +4709,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4720,7 +4723,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4734,7 +4737,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4748,7 +4751,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4762,7 +4765,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4776,7 +4779,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4790,7 +4793,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4804,7 +4807,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4818,7 +4821,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4832,7 +4835,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4846,7 +4849,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4860,7 +4863,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4874,7 +4877,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4888,7 +4891,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4902,7 +4905,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4916,7 +4919,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4930,7 +4933,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4944,7 +4947,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4958,7 +4961,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4972,7 +4975,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4986,7 +4989,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5000,7 +5003,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5014,7 +5017,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5028,7 +5031,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5042,7 +5045,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5056,7 +5059,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5070,7 +5073,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5084,7 +5087,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5098,7 +5101,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5112,7 +5115,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5126,7 +5129,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5140,7 +5143,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5154,7 +5157,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5168,7 +5171,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5182,7 +5185,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5196,7 +5199,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5210,7 +5213,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5224,7 +5227,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5238,7 +5241,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5252,7 +5255,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5266,7 +5269,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5280,7 +5283,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5294,7 +5297,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5308,7 +5311,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5322,7 +5325,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5336,7 +5339,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5350,7 +5353,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5364,7 +5367,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5378,7 +5381,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5392,7 +5395,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5406,7 +5409,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5420,7 +5423,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5434,7 +5437,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5448,7 +5451,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5462,7 +5465,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5476,7 +5479,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5490,7 +5493,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5504,7 +5507,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5518,7 +5521,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5532,7 +5535,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5546,7 +5549,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5560,7 +5563,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5574,7 +5577,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5588,7 +5591,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5602,7 +5605,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5616,7 +5619,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5630,7 +5633,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5644,7 +5647,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5658,7 +5661,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5672,7 +5675,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5686,7 +5689,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5700,7 +5703,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5714,7 +5717,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5728,7 +5731,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5742,7 +5745,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5756,7 +5759,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5770,7 +5773,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5784,7 +5787,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5798,7 +5801,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5812,7 +5815,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5826,7 +5829,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5840,7 +5843,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5854,7 +5857,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5868,7 +5871,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5882,7 +5885,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5896,7 +5899,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5910,7 +5913,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5924,7 +5927,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5938,7 +5941,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5952,7 +5955,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5966,7 +5969,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5980,7 +5983,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5994,7 +5997,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6008,7 +6011,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6022,7 +6025,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6036,7 +6039,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6050,7 +6053,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6064,7 +6067,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6078,7 +6081,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6092,7 +6095,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6106,7 +6109,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6120,7 +6123,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6134,7 +6137,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6148,7 +6151,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6162,7 +6165,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6176,7 +6179,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6190,7 +6193,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6204,7 +6207,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6218,7 +6221,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6232,7 +6235,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6246,7 +6249,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6260,7 +6263,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6274,7 +6277,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6288,7 +6291,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6302,7 +6305,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6316,7 +6319,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6330,7 +6333,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6344,7 +6347,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6358,7 +6361,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6372,7 +6375,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6386,7 +6389,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6400,7 +6403,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6414,7 +6417,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6428,7 +6431,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6442,7 +6445,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6456,7 +6459,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6470,7 +6473,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6484,7 +6487,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6498,7 +6501,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6512,7 +6515,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6526,7 +6529,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6540,7 +6543,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6554,7 +6557,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6568,7 +6571,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6582,7 +6585,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6596,7 +6599,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6610,7 +6613,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6624,7 +6627,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6638,7 +6641,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6652,7 +6655,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6666,7 +6669,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6680,7 +6683,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6694,7 +6697,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6708,7 +6711,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6722,7 +6725,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6736,7 +6739,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6750,7 +6753,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6764,7 +6767,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6778,7 +6781,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6792,7 +6795,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6806,7 +6809,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6820,7 +6823,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6834,7 +6837,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6848,7 +6851,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6862,7 +6865,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6876,7 +6879,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6890,7 +6893,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6904,7 +6907,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6918,7 +6921,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6932,7 +6935,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6946,7 +6949,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6960,7 +6963,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6974,7 +6977,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6988,7 +6991,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7002,7 +7005,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7016,7 +7019,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7030,7 +7033,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7044,7 +7047,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7058,7 +7061,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7072,7 +7075,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7086,7 +7089,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7100,7 +7103,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7114,7 +7117,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7128,7 +7131,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7142,7 +7145,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7156,7 +7159,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7170,7 +7173,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7184,7 +7187,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7198,7 +7201,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7212,7 +7215,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7226,7 +7229,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7240,7 +7243,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7254,7 +7257,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7268,7 +7271,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7282,7 +7285,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7296,7 +7299,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7310,7 +7313,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7324,7 +7327,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7338,7 +7341,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7352,7 +7355,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7366,7 +7369,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7380,7 +7383,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7394,7 +7397,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7408,7 +7411,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7422,7 +7425,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7436,7 +7439,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7450,7 +7453,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7464,7 +7467,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7478,7 +7481,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7492,7 +7495,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7506,7 +7509,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7520,7 +7523,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7534,7 +7537,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7548,7 +7551,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7562,7 +7565,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7576,7 +7579,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7590,7 +7593,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7604,7 +7607,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7618,7 +7621,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7632,7 +7635,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7646,7 +7649,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7660,7 +7663,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7674,7 +7677,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7688,7 +7691,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7702,7 +7705,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7716,7 +7719,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7730,7 +7733,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7744,7 +7747,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7758,7 +7761,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7772,7 +7775,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7786,7 +7789,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7800,7 +7803,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7814,7 +7817,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7828,7 +7831,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7842,7 +7845,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7856,7 +7859,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7870,7 +7873,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7884,7 +7887,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7898,7 +7901,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7912,7 +7915,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7926,7 +7929,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7940,7 +7943,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7954,7 +7957,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7968,7 +7971,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7982,7 +7985,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7996,7 +7999,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8010,7 +8013,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8024,7 +8027,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8038,7 +8041,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8052,7 +8055,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8066,7 +8069,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8080,7 +8083,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8094,7 +8097,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8108,7 +8111,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8122,7 +8125,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8136,7 +8139,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8150,7 +8153,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8164,7 +8167,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8178,7 +8181,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8192,7 +8195,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8206,7 +8209,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8220,7 +8223,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8234,7 +8237,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8248,7 +8251,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8262,7 +8265,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8276,7 +8279,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8290,7 +8293,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8304,7 +8307,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8318,7 +8321,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8332,7 +8335,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8346,7 +8349,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8360,7 +8363,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8374,7 +8377,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8388,7 +8391,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8402,7 +8405,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8416,7 +8419,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8430,7 +8433,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8444,7 +8447,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8458,7 +8461,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8472,7 +8475,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8486,7 +8489,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8500,7 +8503,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8514,7 +8517,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8528,7 +8531,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8542,7 +8545,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8556,7 +8559,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8570,7 +8573,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8584,7 +8587,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8598,7 +8601,21 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>487</v>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" t="s">
+        <v>485</v>
+      </c>
+      <c r="B483">
+        <v>0.39</v>
+      </c>
+      <c r="C483">
+        <v>0.39</v>
+      </c>
+      <c r="D483" t="s">
+        <v>489</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="494">
   <si>
     <t>Data</t>
   </si>
@@ -1472,6 +1472,9 @@
   </si>
   <si>
     <t>07/07/2021</t>
+  </si>
+  <si>
+    <t>07/08/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1850,7 +1853,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D483"/>
+  <dimension ref="A1:D484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1881,7 +1884,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1895,7 +1898,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1909,7 +1912,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1923,7 +1926,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1937,7 +1940,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1951,7 +1954,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1965,7 +1968,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1979,7 +1982,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1993,7 +1996,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2007,7 +2010,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2021,7 +2024,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2035,7 +2038,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2049,7 +2052,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2063,7 +2066,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2077,7 +2080,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2091,7 +2094,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2105,7 +2108,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2119,7 +2122,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2133,7 +2136,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2147,7 +2150,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2161,7 +2164,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2175,7 +2178,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2189,7 +2192,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2203,7 +2206,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2217,7 +2220,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2231,7 +2234,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2245,7 +2248,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2259,7 +2262,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2273,7 +2276,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2287,7 +2290,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2301,7 +2304,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2315,7 +2318,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2329,7 +2332,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2343,7 +2346,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2357,7 +2360,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2371,7 +2374,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2385,7 +2388,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2399,7 +2402,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2413,7 +2416,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2427,7 +2430,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2441,7 +2444,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2455,7 +2458,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2469,7 +2472,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2483,7 +2486,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2497,7 +2500,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2511,7 +2514,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2525,7 +2528,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2539,7 +2542,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2553,7 +2556,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2567,7 +2570,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2581,7 +2584,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2595,7 +2598,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2609,7 +2612,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2623,7 +2626,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2637,7 +2640,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2651,7 +2654,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2665,7 +2668,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2679,7 +2682,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2693,7 +2696,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2707,7 +2710,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2721,7 +2724,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2735,7 +2738,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2749,7 +2752,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2763,7 +2766,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2777,7 +2780,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2791,7 +2794,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2805,7 +2808,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2819,7 +2822,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2833,7 +2836,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2847,7 +2850,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2861,7 +2864,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2875,7 +2878,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2889,7 +2892,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2903,7 +2906,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2917,7 +2920,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2931,7 +2934,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2945,7 +2948,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2959,7 +2962,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2973,7 +2976,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2987,7 +2990,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3001,7 +3004,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3015,7 +3018,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3029,7 +3032,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3043,7 +3046,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3057,7 +3060,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3071,7 +3074,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3085,7 +3088,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3099,7 +3102,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3113,7 +3116,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3127,7 +3130,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3141,7 +3144,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3155,7 +3158,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3169,7 +3172,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3183,7 +3186,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3197,7 +3200,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3211,7 +3214,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3225,7 +3228,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3239,7 +3242,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3253,7 +3256,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3267,7 +3270,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3281,7 +3284,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3295,7 +3298,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3309,7 +3312,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3323,7 +3326,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3337,7 +3340,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3351,7 +3354,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3365,7 +3368,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3379,7 +3382,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3393,7 +3396,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3407,7 +3410,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3421,7 +3424,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3435,7 +3438,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3449,7 +3452,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3463,7 +3466,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3477,7 +3480,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3491,7 +3494,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3505,7 +3508,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3519,7 +3522,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3533,7 +3536,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3547,7 +3550,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3561,7 +3564,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3575,7 +3578,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3589,7 +3592,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3603,7 +3606,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3617,7 +3620,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3631,7 +3634,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3645,7 +3648,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3659,7 +3662,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3673,7 +3676,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3687,7 +3690,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3701,7 +3704,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3715,7 +3718,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3729,7 +3732,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3743,7 +3746,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3757,7 +3760,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3771,7 +3774,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3785,7 +3788,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3799,7 +3802,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3813,7 +3816,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3827,7 +3830,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3841,7 +3844,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3855,7 +3858,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3869,7 +3872,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3883,7 +3886,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3897,7 +3900,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3911,7 +3914,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3925,7 +3928,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3939,7 +3942,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3953,7 +3956,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3967,7 +3970,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3981,7 +3984,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3995,7 +3998,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4009,7 +4012,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4023,7 +4026,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4037,7 +4040,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4051,7 +4054,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4065,7 +4068,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4079,7 +4082,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4093,7 +4096,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4107,7 +4110,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4121,7 +4124,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4135,7 +4138,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4149,7 +4152,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4163,7 +4166,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4177,7 +4180,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4191,7 +4194,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4205,7 +4208,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4219,7 +4222,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4233,7 +4236,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4247,7 +4250,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4261,7 +4264,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4275,7 +4278,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4289,7 +4292,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4303,7 +4306,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4317,7 +4320,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4331,7 +4334,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4345,7 +4348,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4359,7 +4362,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4373,7 +4376,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4387,7 +4390,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4401,7 +4404,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4415,7 +4418,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4429,7 +4432,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4443,7 +4446,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4457,7 +4460,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4471,7 +4474,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4485,7 +4488,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4499,7 +4502,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4513,7 +4516,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4527,7 +4530,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4541,7 +4544,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4555,7 +4558,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4569,7 +4572,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4583,7 +4586,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4597,7 +4600,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4611,7 +4614,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4625,7 +4628,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4639,7 +4642,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4653,7 +4656,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4667,7 +4670,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4681,7 +4684,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4695,7 +4698,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4709,7 +4712,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4723,7 +4726,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4737,7 +4740,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4751,7 +4754,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4765,7 +4768,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4779,7 +4782,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4793,7 +4796,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4807,7 +4810,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4821,7 +4824,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4835,7 +4838,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4849,7 +4852,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4863,7 +4866,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4877,7 +4880,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4891,7 +4894,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4905,7 +4908,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4919,7 +4922,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4933,7 +4936,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4947,7 +4950,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4961,7 +4964,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4975,7 +4978,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4989,7 +4992,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5003,7 +5006,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5017,7 +5020,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5031,7 +5034,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5045,7 +5048,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5059,7 +5062,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5073,7 +5076,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5087,7 +5090,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5101,7 +5104,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5115,7 +5118,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5129,7 +5132,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5143,7 +5146,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5157,7 +5160,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5171,7 +5174,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5185,7 +5188,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5199,7 +5202,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5213,7 +5216,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5227,7 +5230,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5241,7 +5244,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5255,7 +5258,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5269,7 +5272,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5283,7 +5286,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5297,7 +5300,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5311,7 +5314,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5325,7 +5328,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5339,7 +5342,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5353,7 +5356,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5367,7 +5370,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5381,7 +5384,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5395,7 +5398,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5409,7 +5412,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5423,7 +5426,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5437,7 +5440,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5451,7 +5454,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5465,7 +5468,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5479,7 +5482,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5493,7 +5496,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5507,7 +5510,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5521,7 +5524,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5535,7 +5538,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5549,7 +5552,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5563,7 +5566,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5577,7 +5580,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5591,7 +5594,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5605,7 +5608,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5619,7 +5622,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5633,7 +5636,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5647,7 +5650,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5661,7 +5664,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5675,7 +5678,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5689,7 +5692,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5703,7 +5706,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5717,7 +5720,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5731,7 +5734,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5745,7 +5748,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5759,7 +5762,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5773,7 +5776,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5787,7 +5790,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5801,7 +5804,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5815,7 +5818,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5829,7 +5832,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5843,7 +5846,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5857,7 +5860,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5871,7 +5874,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5885,7 +5888,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5899,7 +5902,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5913,7 +5916,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5927,7 +5930,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5941,7 +5944,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5955,7 +5958,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5969,7 +5972,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5983,7 +5986,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -5997,7 +6000,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6011,7 +6014,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6025,7 +6028,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6039,7 +6042,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6053,7 +6056,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6067,7 +6070,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6081,7 +6084,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6095,7 +6098,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6109,7 +6112,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6123,7 +6126,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6137,7 +6140,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6151,7 +6154,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6165,7 +6168,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6179,7 +6182,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6193,7 +6196,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6207,7 +6210,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6221,7 +6224,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6235,7 +6238,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6249,7 +6252,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6263,7 +6266,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6277,7 +6280,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6291,7 +6294,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6305,7 +6308,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6319,7 +6322,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6333,7 +6336,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6347,7 +6350,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6361,7 +6364,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6375,7 +6378,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6389,7 +6392,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6403,7 +6406,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6417,7 +6420,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6431,7 +6434,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6445,7 +6448,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6459,7 +6462,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6473,7 +6476,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6487,7 +6490,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6501,7 +6504,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6515,7 +6518,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6529,7 +6532,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6543,7 +6546,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6557,7 +6560,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6571,7 +6574,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6585,7 +6588,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6599,7 +6602,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6613,7 +6616,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6627,7 +6630,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6641,7 +6644,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6655,7 +6658,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6669,7 +6672,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6683,7 +6686,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6697,7 +6700,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6711,7 +6714,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6725,7 +6728,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6739,7 +6742,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6753,7 +6756,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6767,7 +6770,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6781,7 +6784,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6795,7 +6798,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6809,7 +6812,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6823,7 +6826,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6837,7 +6840,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6851,7 +6854,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6865,7 +6868,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6879,7 +6882,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6893,7 +6896,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6907,7 +6910,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6921,7 +6924,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6935,7 +6938,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6949,7 +6952,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6963,7 +6966,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6977,7 +6980,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6991,7 +6994,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7005,7 +7008,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7019,7 +7022,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7033,7 +7036,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7047,7 +7050,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7061,7 +7064,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7075,7 +7078,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7089,7 +7092,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7103,7 +7106,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7117,7 +7120,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7131,7 +7134,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7145,7 +7148,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7159,7 +7162,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7173,7 +7176,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7187,7 +7190,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7201,7 +7204,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7215,7 +7218,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7229,7 +7232,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7243,7 +7246,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7257,7 +7260,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7271,7 +7274,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7285,7 +7288,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7299,7 +7302,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7313,7 +7316,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7327,7 +7330,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7341,7 +7344,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7355,7 +7358,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7369,7 +7372,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7383,7 +7386,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7397,7 +7400,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7411,7 +7414,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7425,7 +7428,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7439,7 +7442,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7453,7 +7456,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7467,7 +7470,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7481,7 +7484,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7495,7 +7498,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7509,7 +7512,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7523,7 +7526,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7537,7 +7540,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7551,7 +7554,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7565,7 +7568,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7579,7 +7582,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7593,7 +7596,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7607,7 +7610,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7621,7 +7624,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7635,7 +7638,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7649,7 +7652,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7663,7 +7666,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7677,7 +7680,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7691,7 +7694,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7705,7 +7708,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7719,7 +7722,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7733,7 +7736,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7747,7 +7750,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7761,7 +7764,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7775,7 +7778,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7789,7 +7792,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7803,7 +7806,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7817,7 +7820,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7831,7 +7834,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7845,7 +7848,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7859,7 +7862,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7873,7 +7876,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7887,7 +7890,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7901,7 +7904,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7915,7 +7918,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7929,7 +7932,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7943,7 +7946,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7957,7 +7960,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7971,7 +7974,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7985,7 +7988,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -7999,7 +8002,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8013,7 +8016,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8027,7 +8030,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8041,7 +8044,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8055,7 +8058,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8069,7 +8072,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8083,7 +8086,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8097,7 +8100,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8111,7 +8114,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8125,7 +8128,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8139,7 +8142,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8153,7 +8156,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8167,7 +8170,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8181,7 +8184,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8195,7 +8198,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8209,7 +8212,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8223,7 +8226,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8237,7 +8240,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8251,7 +8254,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8265,7 +8268,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8279,7 +8282,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8293,7 +8296,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8307,7 +8310,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8321,7 +8324,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8335,7 +8338,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8349,7 +8352,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8363,7 +8366,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8377,7 +8380,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8391,7 +8394,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8405,7 +8408,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8419,7 +8422,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8433,7 +8436,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8447,7 +8450,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8461,7 +8464,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8475,7 +8478,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8489,7 +8492,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8503,7 +8506,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8517,7 +8520,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8531,7 +8534,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8545,7 +8548,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8559,7 +8562,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8573,7 +8576,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8587,7 +8590,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8601,7 +8604,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8615,7 +8618,21 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>489</v>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" t="s">
+        <v>486</v>
+      </c>
+      <c r="B484">
+        <v>0.39</v>
+      </c>
+      <c r="C484">
+        <v>0.38</v>
+      </c>
+      <c r="D484" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="495">
   <si>
     <t>Data</t>
   </si>
@@ -1475,6 +1475,9 @@
   </si>
   <si>
     <t>07/08/2021</t>
+  </si>
+  <si>
+    <t>07/10/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1853,7 +1856,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D484"/>
+  <dimension ref="A1:D485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1884,7 +1887,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1898,7 +1901,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1912,7 +1915,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1926,7 +1929,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1940,7 +1943,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1954,7 +1957,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1968,7 +1971,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1982,7 +1985,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1996,7 +1999,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2010,7 +2013,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2024,7 +2027,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2038,7 +2041,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2052,7 +2055,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2066,7 +2069,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2080,7 +2083,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2094,7 +2097,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2108,7 +2111,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2122,7 +2125,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2136,7 +2139,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2150,7 +2153,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2164,7 +2167,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2178,7 +2181,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2192,7 +2195,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2206,7 +2209,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2220,7 +2223,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2234,7 +2237,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2248,7 +2251,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2262,7 +2265,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2276,7 +2279,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2290,7 +2293,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2304,7 +2307,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2318,7 +2321,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2332,7 +2335,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2346,7 +2349,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2360,7 +2363,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2374,7 +2377,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2388,7 +2391,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2402,7 +2405,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2416,7 +2419,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2430,7 +2433,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2444,7 +2447,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2458,7 +2461,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2472,7 +2475,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2486,7 +2489,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2500,7 +2503,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2514,7 +2517,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2528,7 +2531,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2542,7 +2545,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2556,7 +2559,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2570,7 +2573,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2584,7 +2587,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2598,7 +2601,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2612,7 +2615,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2626,7 +2629,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2640,7 +2643,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2654,7 +2657,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2668,7 +2671,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2682,7 +2685,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2696,7 +2699,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2710,7 +2713,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2724,7 +2727,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2738,7 +2741,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2752,7 +2755,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2766,7 +2769,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2780,7 +2783,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2794,7 +2797,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2808,7 +2811,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2822,7 +2825,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2836,7 +2839,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2850,7 +2853,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2864,7 +2867,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2878,7 +2881,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2892,7 +2895,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2906,7 +2909,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2920,7 +2923,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2934,7 +2937,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2948,7 +2951,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2962,7 +2965,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2976,7 +2979,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2990,7 +2993,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3004,7 +3007,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3018,7 +3021,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3032,7 +3035,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3046,7 +3049,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3060,7 +3063,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3074,7 +3077,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3088,7 +3091,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3102,7 +3105,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3116,7 +3119,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3130,7 +3133,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3144,7 +3147,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3158,7 +3161,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3172,7 +3175,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3186,7 +3189,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3200,7 +3203,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3214,7 +3217,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3228,7 +3231,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3242,7 +3245,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3256,7 +3259,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3270,7 +3273,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3284,7 +3287,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3298,7 +3301,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3312,7 +3315,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3326,7 +3329,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3340,7 +3343,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3354,7 +3357,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3368,7 +3371,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3382,7 +3385,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3396,7 +3399,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3410,7 +3413,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3424,7 +3427,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3438,7 +3441,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3452,7 +3455,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3466,7 +3469,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3480,7 +3483,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3494,7 +3497,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3508,7 +3511,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3522,7 +3525,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3536,7 +3539,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3550,7 +3553,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3564,7 +3567,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3578,7 +3581,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3592,7 +3595,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3606,7 +3609,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3620,7 +3623,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3634,7 +3637,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3648,7 +3651,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3662,7 +3665,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3676,7 +3679,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3690,7 +3693,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3704,7 +3707,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3718,7 +3721,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3732,7 +3735,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3746,7 +3749,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3760,7 +3763,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3774,7 +3777,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3788,7 +3791,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3802,7 +3805,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3816,7 +3819,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3830,7 +3833,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3844,7 +3847,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3858,7 +3861,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3872,7 +3875,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3886,7 +3889,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3900,7 +3903,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3914,7 +3917,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3928,7 +3931,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3942,7 +3945,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3956,7 +3959,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3970,7 +3973,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3984,7 +3987,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3998,7 +4001,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4012,7 +4015,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4026,7 +4029,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4040,7 +4043,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4054,7 +4057,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4068,7 +4071,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4082,7 +4085,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4096,7 +4099,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4110,7 +4113,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4124,7 +4127,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4138,7 +4141,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4152,7 +4155,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4166,7 +4169,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4180,7 +4183,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4194,7 +4197,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4208,7 +4211,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4222,7 +4225,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4236,7 +4239,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4250,7 +4253,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4264,7 +4267,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4278,7 +4281,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4292,7 +4295,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4306,7 +4309,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4320,7 +4323,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4334,7 +4337,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4348,7 +4351,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4362,7 +4365,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4376,7 +4379,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4390,7 +4393,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4404,7 +4407,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4418,7 +4421,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4432,7 +4435,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4446,7 +4449,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4460,7 +4463,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4474,7 +4477,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4488,7 +4491,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4502,7 +4505,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4516,7 +4519,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4530,7 +4533,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4544,7 +4547,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4558,7 +4561,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4572,7 +4575,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4586,7 +4589,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4600,7 +4603,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4614,7 +4617,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4628,7 +4631,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4642,7 +4645,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4656,7 +4659,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4670,7 +4673,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4684,7 +4687,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4698,7 +4701,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4712,7 +4715,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4726,7 +4729,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4740,7 +4743,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4754,7 +4757,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4768,7 +4771,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4782,7 +4785,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4796,7 +4799,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4810,7 +4813,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4824,7 +4827,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4838,7 +4841,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4852,7 +4855,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4866,7 +4869,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4880,7 +4883,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4894,7 +4897,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4908,7 +4911,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4922,7 +4925,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4936,7 +4939,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4950,7 +4953,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4964,7 +4967,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4978,7 +4981,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4992,7 +4995,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5006,7 +5009,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5020,7 +5023,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5034,7 +5037,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5048,7 +5051,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5062,7 +5065,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5076,7 +5079,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5090,7 +5093,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5104,7 +5107,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5118,7 +5121,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5132,7 +5135,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5146,7 +5149,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5160,7 +5163,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5174,7 +5177,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5188,7 +5191,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5202,7 +5205,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5216,7 +5219,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5230,7 +5233,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5244,7 +5247,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5258,7 +5261,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5272,7 +5275,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5286,7 +5289,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5300,7 +5303,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5314,7 +5317,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5328,7 +5331,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5342,7 +5345,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5356,7 +5359,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5370,7 +5373,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5384,7 +5387,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5398,7 +5401,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5412,7 +5415,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5426,7 +5429,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5440,7 +5443,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5454,7 +5457,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5468,7 +5471,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5482,7 +5485,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5496,7 +5499,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5510,7 +5513,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5524,7 +5527,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5538,7 +5541,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5552,7 +5555,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5566,7 +5569,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5580,7 +5583,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5594,7 +5597,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5608,7 +5611,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5622,7 +5625,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5636,7 +5639,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5650,7 +5653,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5664,7 +5667,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5678,7 +5681,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5692,7 +5695,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5706,7 +5709,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5720,7 +5723,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5734,7 +5737,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5748,7 +5751,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5762,7 +5765,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5776,7 +5779,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5790,7 +5793,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5804,7 +5807,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5818,7 +5821,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5832,7 +5835,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5846,7 +5849,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5860,7 +5863,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5874,7 +5877,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5888,7 +5891,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5902,7 +5905,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5916,7 +5919,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5930,7 +5933,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5944,7 +5947,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5958,7 +5961,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5972,7 +5975,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5986,7 +5989,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6000,7 +6003,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6014,7 +6017,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6028,7 +6031,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6042,7 +6045,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6056,7 +6059,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6070,7 +6073,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6084,7 +6087,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6098,7 +6101,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6112,7 +6115,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6126,7 +6129,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6140,7 +6143,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6154,7 +6157,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6168,7 +6171,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6182,7 +6185,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6196,7 +6199,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6210,7 +6213,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6224,7 +6227,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6238,7 +6241,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6252,7 +6255,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6266,7 +6269,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6280,7 +6283,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6294,7 +6297,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6308,7 +6311,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6322,7 +6325,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6336,7 +6339,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6350,7 +6353,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6364,7 +6367,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6378,7 +6381,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6392,7 +6395,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6406,7 +6409,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6420,7 +6423,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6434,7 +6437,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6448,7 +6451,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6462,7 +6465,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6476,7 +6479,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6490,7 +6493,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6504,7 +6507,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6518,7 +6521,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6532,7 +6535,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6546,7 +6549,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6560,7 +6563,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6574,7 +6577,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6588,7 +6591,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6602,7 +6605,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6616,7 +6619,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6630,7 +6633,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6644,7 +6647,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6658,7 +6661,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6672,7 +6675,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6686,7 +6689,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6700,7 +6703,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6714,7 +6717,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6728,7 +6731,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6742,7 +6745,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6756,7 +6759,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6770,7 +6773,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6784,7 +6787,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6798,7 +6801,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6812,7 +6815,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6826,7 +6829,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6840,7 +6843,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6854,7 +6857,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6868,7 +6871,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6882,7 +6885,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6896,7 +6899,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6910,7 +6913,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6924,7 +6927,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6938,7 +6941,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6952,7 +6955,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6966,7 +6969,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6980,7 +6983,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6994,7 +6997,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7008,7 +7011,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7022,7 +7025,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7036,7 +7039,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7050,7 +7053,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7064,7 +7067,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7078,7 +7081,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7092,7 +7095,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7106,7 +7109,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7120,7 +7123,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7134,7 +7137,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7148,7 +7151,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7162,7 +7165,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7176,7 +7179,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7190,7 +7193,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7204,7 +7207,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7218,7 +7221,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7232,7 +7235,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7246,7 +7249,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7260,7 +7263,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7274,7 +7277,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7288,7 +7291,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7302,7 +7305,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7316,7 +7319,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7330,7 +7333,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7344,7 +7347,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7358,7 +7361,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7372,7 +7375,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7386,7 +7389,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7400,7 +7403,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7414,7 +7417,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7428,7 +7431,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7442,7 +7445,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7456,7 +7459,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7470,7 +7473,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7484,7 +7487,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7498,7 +7501,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7512,7 +7515,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7526,7 +7529,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7540,7 +7543,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7554,7 +7557,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7568,7 +7571,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7582,7 +7585,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7596,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7610,7 +7613,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7624,7 +7627,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7638,7 +7641,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7652,7 +7655,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7666,7 +7669,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7680,7 +7683,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7694,7 +7697,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7708,7 +7711,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7722,7 +7725,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7736,7 +7739,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7750,7 +7753,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7764,7 +7767,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7778,7 +7781,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7792,7 +7795,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7806,7 +7809,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7820,7 +7823,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7834,7 +7837,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7848,7 +7851,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7862,7 +7865,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7876,7 +7879,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7890,7 +7893,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7904,7 +7907,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7918,7 +7921,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7932,7 +7935,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7946,7 +7949,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7960,7 +7963,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7974,7 +7977,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7988,7 +7991,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8002,7 +8005,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8016,7 +8019,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8030,7 +8033,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8044,7 +8047,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8058,7 +8061,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8072,7 +8075,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8086,7 +8089,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8100,7 +8103,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8114,7 +8117,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8128,7 +8131,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8142,7 +8145,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8156,7 +8159,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8170,7 +8173,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8184,7 +8187,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8198,7 +8201,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8212,7 +8215,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8226,7 +8229,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8240,7 +8243,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8254,7 +8257,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8268,7 +8271,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8282,7 +8285,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8296,7 +8299,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8310,7 +8313,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8324,7 +8327,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8338,7 +8341,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8352,7 +8355,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8366,7 +8369,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8380,7 +8383,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8394,7 +8397,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8408,7 +8411,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8422,7 +8425,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8436,7 +8439,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8450,7 +8453,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8464,7 +8467,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8478,7 +8481,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8492,7 +8495,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8506,7 +8509,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8520,7 +8523,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8534,7 +8537,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8548,7 +8551,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8562,7 +8565,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8576,7 +8579,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8590,7 +8593,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8604,7 +8607,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8618,7 +8621,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8632,7 +8635,21 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" t="s">
         <v>487</v>
+      </c>
+      <c r="B485">
+        <v>0.41</v>
+      </c>
+      <c r="C485">
+        <v>0.41</v>
+      </c>
+      <c r="D485" t="s">
+        <v>492</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="495">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="496">
   <si>
     <t>Data</t>
   </si>
@@ -1478,6 +1478,9 @@
   </si>
   <si>
     <t>07/10/2021</t>
+  </si>
+  <si>
+    <t>07/11/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1856,7 +1859,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D485"/>
+  <dimension ref="A1:D486"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1887,7 +1890,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1901,7 +1904,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1915,7 +1918,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1929,7 +1932,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1943,7 +1946,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1957,7 +1960,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1971,7 +1974,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1985,7 +1988,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1999,7 +2002,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2013,7 +2016,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2027,7 +2030,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2041,7 +2044,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2055,7 +2058,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2069,7 +2072,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2083,7 +2086,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2097,7 +2100,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2111,7 +2114,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2125,7 +2128,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2139,7 +2142,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2153,7 +2156,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2167,7 +2170,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2181,7 +2184,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2195,7 +2198,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2209,7 +2212,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2223,7 +2226,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2237,7 +2240,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2251,7 +2254,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2265,7 +2268,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2279,7 +2282,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2293,7 +2296,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2307,7 +2310,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2321,7 +2324,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2335,7 +2338,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2349,7 +2352,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2363,7 +2366,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2377,7 +2380,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2391,7 +2394,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2405,7 +2408,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2419,7 +2422,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2433,7 +2436,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2447,7 +2450,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2461,7 +2464,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2475,7 +2478,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2489,7 +2492,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2503,7 +2506,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2517,7 +2520,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2531,7 +2534,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2545,7 +2548,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2559,7 +2562,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2573,7 +2576,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2587,7 +2590,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2601,7 +2604,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2615,7 +2618,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2629,7 +2632,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2643,7 +2646,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2657,7 +2660,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2671,7 +2674,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2685,7 +2688,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2699,7 +2702,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2713,7 +2716,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2727,7 +2730,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2741,7 +2744,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2755,7 +2758,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2769,7 +2772,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2783,7 +2786,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2797,7 +2800,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2811,7 +2814,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2825,7 +2828,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2839,7 +2842,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2853,7 +2856,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2867,7 +2870,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2881,7 +2884,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2895,7 +2898,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2909,7 +2912,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2923,7 +2926,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2937,7 +2940,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2951,7 +2954,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2965,7 +2968,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2979,7 +2982,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2993,7 +2996,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3007,7 +3010,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3021,7 +3024,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3035,7 +3038,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3049,7 +3052,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3063,7 +3066,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3077,7 +3080,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3091,7 +3094,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3105,7 +3108,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3119,7 +3122,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3133,7 +3136,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3147,7 +3150,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3161,7 +3164,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3175,7 +3178,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3189,7 +3192,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3203,7 +3206,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3217,7 +3220,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3231,7 +3234,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3245,7 +3248,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3259,7 +3262,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3273,7 +3276,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3287,7 +3290,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3301,7 +3304,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3315,7 +3318,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3329,7 +3332,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3343,7 +3346,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3357,7 +3360,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3371,7 +3374,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3385,7 +3388,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3399,7 +3402,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3413,7 +3416,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3427,7 +3430,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3441,7 +3444,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3455,7 +3458,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3469,7 +3472,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3483,7 +3486,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3497,7 +3500,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3511,7 +3514,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3525,7 +3528,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3539,7 +3542,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3553,7 +3556,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3567,7 +3570,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3581,7 +3584,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3595,7 +3598,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3609,7 +3612,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3623,7 +3626,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3637,7 +3640,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3651,7 +3654,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3665,7 +3668,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3679,7 +3682,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3693,7 +3696,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3707,7 +3710,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3721,7 +3724,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3735,7 +3738,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3749,7 +3752,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3763,7 +3766,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3777,7 +3780,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3791,7 +3794,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3805,7 +3808,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3819,7 +3822,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3833,7 +3836,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3847,7 +3850,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3861,7 +3864,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3875,7 +3878,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3889,7 +3892,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3903,7 +3906,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3917,7 +3920,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3931,7 +3934,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3945,7 +3948,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3959,7 +3962,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3973,7 +3976,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3987,7 +3990,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4001,7 +4004,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4015,7 +4018,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4029,7 +4032,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4043,7 +4046,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4057,7 +4060,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4071,7 +4074,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4085,7 +4088,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4099,7 +4102,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4113,7 +4116,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4127,7 +4130,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4141,7 +4144,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4155,7 +4158,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4169,7 +4172,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4183,7 +4186,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4197,7 +4200,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4211,7 +4214,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4225,7 +4228,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4239,7 +4242,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4253,7 +4256,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4267,7 +4270,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4281,7 +4284,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4295,7 +4298,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4309,7 +4312,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4323,7 +4326,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4337,7 +4340,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4351,7 +4354,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4365,7 +4368,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4379,7 +4382,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4393,7 +4396,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4407,7 +4410,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4421,7 +4424,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4435,7 +4438,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4449,7 +4452,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4463,7 +4466,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4477,7 +4480,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4491,7 +4494,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4505,7 +4508,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4519,7 +4522,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4533,7 +4536,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4547,7 +4550,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4561,7 +4564,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4575,7 +4578,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4589,7 +4592,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4603,7 +4606,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4617,7 +4620,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4631,7 +4634,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4645,7 +4648,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4659,7 +4662,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4673,7 +4676,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4687,7 +4690,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4701,7 +4704,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4715,7 +4718,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4729,7 +4732,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4743,7 +4746,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4757,7 +4760,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4771,7 +4774,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4785,7 +4788,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4799,7 +4802,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4813,7 +4816,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4827,7 +4830,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4841,7 +4844,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4855,7 +4858,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4869,7 +4872,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4883,7 +4886,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4897,7 +4900,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4911,7 +4914,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4925,7 +4928,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4939,7 +4942,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4953,7 +4956,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4967,7 +4970,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4981,7 +4984,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4995,7 +4998,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5009,7 +5012,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5023,7 +5026,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5037,7 +5040,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5051,7 +5054,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5065,7 +5068,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5079,7 +5082,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5093,7 +5096,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5107,7 +5110,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5121,7 +5124,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5135,7 +5138,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5149,7 +5152,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5163,7 +5166,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5177,7 +5180,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5191,7 +5194,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5205,7 +5208,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5219,7 +5222,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5233,7 +5236,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5247,7 +5250,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5261,7 +5264,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5275,7 +5278,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5289,7 +5292,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5303,7 +5306,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5317,7 +5320,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5331,7 +5334,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5345,7 +5348,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5359,7 +5362,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5373,7 +5376,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5387,7 +5390,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5401,7 +5404,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5415,7 +5418,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5429,7 +5432,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5443,7 +5446,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5457,7 +5460,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5471,7 +5474,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5485,7 +5488,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5499,7 +5502,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5513,7 +5516,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5527,7 +5530,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5541,7 +5544,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5555,7 +5558,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5569,7 +5572,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5583,7 +5586,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5597,7 +5600,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5611,7 +5614,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5625,7 +5628,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5639,7 +5642,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5653,7 +5656,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5667,7 +5670,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5681,7 +5684,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5695,7 +5698,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5709,7 +5712,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5723,7 +5726,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5737,7 +5740,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5751,7 +5754,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5765,7 +5768,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5779,7 +5782,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5793,7 +5796,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5807,7 +5810,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5821,7 +5824,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5835,7 +5838,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5849,7 +5852,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5863,7 +5866,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5877,7 +5880,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5891,7 +5894,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5905,7 +5908,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5919,7 +5922,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5933,7 +5936,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5947,7 +5950,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5961,7 +5964,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5975,7 +5978,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5989,7 +5992,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6003,7 +6006,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6017,7 +6020,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6031,7 +6034,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6045,7 +6048,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6059,7 +6062,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6073,7 +6076,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6087,7 +6090,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6101,7 +6104,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6115,7 +6118,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6129,7 +6132,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6143,7 +6146,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6157,7 +6160,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6171,7 +6174,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6185,7 +6188,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6199,7 +6202,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6213,7 +6216,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6227,7 +6230,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6241,7 +6244,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6255,7 +6258,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6269,7 +6272,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6283,7 +6286,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6297,7 +6300,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6311,7 +6314,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6325,7 +6328,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6339,7 +6342,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6353,7 +6356,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6367,7 +6370,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6381,7 +6384,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6395,7 +6398,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6409,7 +6412,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6423,7 +6426,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6437,7 +6440,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6451,7 +6454,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6465,7 +6468,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6479,7 +6482,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6493,7 +6496,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6507,7 +6510,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6521,7 +6524,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6535,7 +6538,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6549,7 +6552,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6563,7 +6566,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6577,7 +6580,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6591,7 +6594,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6605,7 +6608,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6619,7 +6622,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6633,7 +6636,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6647,7 +6650,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6661,7 +6664,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6675,7 +6678,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6689,7 +6692,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6703,7 +6706,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6717,7 +6720,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6731,7 +6734,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6745,7 +6748,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6759,7 +6762,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6773,7 +6776,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6787,7 +6790,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6801,7 +6804,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6815,7 +6818,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6829,7 +6832,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6843,7 +6846,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6857,7 +6860,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6871,7 +6874,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6885,7 +6888,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6899,7 +6902,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6913,7 +6916,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6927,7 +6930,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6941,7 +6944,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6955,7 +6958,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6969,7 +6972,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6983,7 +6986,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -6997,7 +7000,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7011,7 +7014,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7025,7 +7028,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7039,7 +7042,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7053,7 +7056,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7067,7 +7070,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7081,7 +7084,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7095,7 +7098,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7109,7 +7112,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7123,7 +7126,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7137,7 +7140,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7151,7 +7154,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7165,7 +7168,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7179,7 +7182,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7193,7 +7196,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7207,7 +7210,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7221,7 +7224,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7235,7 +7238,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7249,7 +7252,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7263,7 +7266,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7277,7 +7280,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7291,7 +7294,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7305,7 +7308,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7319,7 +7322,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7333,7 +7336,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7347,7 +7350,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7361,7 +7364,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7375,7 +7378,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7389,7 +7392,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7403,7 +7406,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7417,7 +7420,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7431,7 +7434,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7445,7 +7448,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7459,7 +7462,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7473,7 +7476,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7487,7 +7490,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7501,7 +7504,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7515,7 +7518,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7529,7 +7532,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7543,7 +7546,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7557,7 +7560,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7571,7 +7574,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7585,7 +7588,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7599,7 +7602,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7613,7 +7616,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7627,7 +7630,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7641,7 +7644,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7655,7 +7658,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7669,7 +7672,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7683,7 +7686,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7697,7 +7700,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7711,7 +7714,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7725,7 +7728,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7739,7 +7742,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7753,7 +7756,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7767,7 +7770,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7781,7 +7784,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7795,7 +7798,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7809,7 +7812,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7823,7 +7826,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7837,7 +7840,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7851,7 +7854,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7865,7 +7868,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7879,7 +7882,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7893,7 +7896,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7907,7 +7910,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7921,7 +7924,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7935,7 +7938,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7949,7 +7952,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7963,7 +7966,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7977,7 +7980,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7991,7 +7994,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8005,7 +8008,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8019,7 +8022,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8033,7 +8036,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8047,7 +8050,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8061,7 +8064,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8075,7 +8078,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8089,7 +8092,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8103,7 +8106,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8117,7 +8120,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8131,7 +8134,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8145,7 +8148,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8159,7 +8162,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8173,7 +8176,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8187,7 +8190,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8201,7 +8204,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8215,7 +8218,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8229,7 +8232,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8243,7 +8246,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8257,7 +8260,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8271,7 +8274,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8285,7 +8288,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8299,7 +8302,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8313,7 +8316,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8327,7 +8330,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8341,7 +8344,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8355,7 +8358,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8369,7 +8372,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8383,7 +8386,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8397,7 +8400,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8411,7 +8414,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8425,7 +8428,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8439,7 +8442,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8453,7 +8456,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8467,7 +8470,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8481,7 +8484,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8495,7 +8498,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8509,7 +8512,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8523,7 +8526,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8537,7 +8540,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8551,7 +8554,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8565,7 +8568,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8579,7 +8582,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8593,7 +8596,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8607,7 +8610,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8621,7 +8624,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8635,7 +8638,7 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8649,7 +8652,21 @@
         <v>0.41</v>
       </c>
       <c r="D485" t="s">
-        <v>492</v>
+        <v>493</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" t="s">
+        <v>488</v>
+      </c>
+      <c r="B486">
+        <v>0.46</v>
+      </c>
+      <c r="C486">
+        <v>0.47</v>
+      </c>
+      <c r="D486" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="497">
   <si>
     <t>Data</t>
   </si>
@@ -1481,6 +1481,9 @@
   </si>
   <si>
     <t>07/11/2021</t>
+  </si>
+  <si>
+    <t>07/12/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1859,7 +1862,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D486"/>
+  <dimension ref="A1:D487"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1890,7 +1893,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1904,7 +1907,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1918,7 +1921,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1932,7 +1935,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1946,7 +1949,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1960,7 +1963,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1974,7 +1977,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1988,7 +1991,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2002,7 +2005,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2016,7 +2019,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2030,7 +2033,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2044,7 +2047,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2058,7 +2061,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2072,7 +2075,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2086,7 +2089,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2100,7 +2103,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2114,7 +2117,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2128,7 +2131,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2142,7 +2145,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2156,7 +2159,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2170,7 +2173,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2184,7 +2187,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2198,7 +2201,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2212,7 +2215,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2226,7 +2229,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2240,7 +2243,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2254,7 +2257,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2268,7 +2271,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2282,7 +2285,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2296,7 +2299,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2310,7 +2313,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2324,7 +2327,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2338,7 +2341,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2352,7 +2355,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2366,7 +2369,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2380,7 +2383,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2394,7 +2397,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2408,7 +2411,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2422,7 +2425,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2436,7 +2439,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2450,7 +2453,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2464,7 +2467,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2478,7 +2481,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2492,7 +2495,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2506,7 +2509,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2520,7 +2523,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2534,7 +2537,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2548,7 +2551,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2562,7 +2565,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2576,7 +2579,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2590,7 +2593,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2604,7 +2607,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2618,7 +2621,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2632,7 +2635,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2646,7 +2649,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2660,7 +2663,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2674,7 +2677,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2688,7 +2691,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2702,7 +2705,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2716,7 +2719,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2730,7 +2733,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2744,7 +2747,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2758,7 +2761,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2772,7 +2775,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2786,7 +2789,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2800,7 +2803,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2814,7 +2817,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2828,7 +2831,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2842,7 +2845,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2856,7 +2859,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2870,7 +2873,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2884,7 +2887,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2898,7 +2901,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2912,7 +2915,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2926,7 +2929,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2940,7 +2943,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2954,7 +2957,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2968,7 +2971,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2982,7 +2985,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2996,7 +2999,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3010,7 +3013,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3024,7 +3027,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3038,7 +3041,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3052,7 +3055,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3066,7 +3069,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3080,7 +3083,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3094,7 +3097,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3108,7 +3111,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3122,7 +3125,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3136,7 +3139,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3150,7 +3153,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3164,7 +3167,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3178,7 +3181,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3192,7 +3195,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3206,7 +3209,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3220,7 +3223,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3234,7 +3237,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3248,7 +3251,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3262,7 +3265,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3276,7 +3279,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3290,7 +3293,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3304,7 +3307,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3318,7 +3321,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3332,7 +3335,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3346,7 +3349,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3360,7 +3363,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3374,7 +3377,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3388,7 +3391,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3402,7 +3405,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3416,7 +3419,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3430,7 +3433,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3444,7 +3447,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3458,7 +3461,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3472,7 +3475,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3486,7 +3489,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3500,7 +3503,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3514,7 +3517,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3528,7 +3531,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3542,7 +3545,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3556,7 +3559,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3570,7 +3573,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3584,7 +3587,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3598,7 +3601,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3612,7 +3615,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3626,7 +3629,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3640,7 +3643,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3654,7 +3657,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3668,7 +3671,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3682,7 +3685,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3696,7 +3699,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3710,7 +3713,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3724,7 +3727,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3738,7 +3741,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3752,7 +3755,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3766,7 +3769,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3780,7 +3783,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3794,7 +3797,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3808,7 +3811,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3822,7 +3825,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3836,7 +3839,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3850,7 +3853,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3864,7 +3867,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3878,7 +3881,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3892,7 +3895,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3906,7 +3909,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3920,7 +3923,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3934,7 +3937,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3948,7 +3951,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3962,7 +3965,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3976,7 +3979,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3990,7 +3993,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4004,7 +4007,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4018,7 +4021,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4032,7 +4035,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4046,7 +4049,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4060,7 +4063,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4074,7 +4077,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4088,7 +4091,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4102,7 +4105,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4116,7 +4119,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4130,7 +4133,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4144,7 +4147,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4158,7 +4161,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4172,7 +4175,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4186,7 +4189,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4200,7 +4203,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4214,7 +4217,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4228,7 +4231,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4242,7 +4245,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4256,7 +4259,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4270,7 +4273,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4284,7 +4287,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4298,7 +4301,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4312,7 +4315,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4326,7 +4329,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4340,7 +4343,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4354,7 +4357,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4368,7 +4371,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4382,7 +4385,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4396,7 +4399,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4410,7 +4413,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4424,7 +4427,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4438,7 +4441,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4452,7 +4455,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4466,7 +4469,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4480,7 +4483,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4494,7 +4497,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4508,7 +4511,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4522,7 +4525,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4536,7 +4539,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4550,7 +4553,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4564,7 +4567,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4578,7 +4581,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4592,7 +4595,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4606,7 +4609,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4620,7 +4623,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4634,7 +4637,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4648,7 +4651,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4662,7 +4665,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4676,7 +4679,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4690,7 +4693,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4704,7 +4707,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4718,7 +4721,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4732,7 +4735,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4746,7 +4749,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4760,7 +4763,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4774,7 +4777,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4788,7 +4791,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4802,7 +4805,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4816,7 +4819,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4830,7 +4833,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4844,7 +4847,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4858,7 +4861,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4872,7 +4875,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4886,7 +4889,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4900,7 +4903,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4914,7 +4917,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4928,7 +4931,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4942,7 +4945,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4956,7 +4959,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4970,7 +4973,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4984,7 +4987,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -4998,7 +5001,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5012,7 +5015,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5026,7 +5029,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5040,7 +5043,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5054,7 +5057,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5068,7 +5071,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5082,7 +5085,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5096,7 +5099,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5110,7 +5113,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5124,7 +5127,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5138,7 +5141,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5152,7 +5155,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5166,7 +5169,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5180,7 +5183,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5194,7 +5197,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5208,7 +5211,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5222,7 +5225,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5236,7 +5239,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5250,7 +5253,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5264,7 +5267,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5278,7 +5281,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5292,7 +5295,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5306,7 +5309,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5320,7 +5323,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5334,7 +5337,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5348,7 +5351,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5362,7 +5365,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5376,7 +5379,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5390,7 +5393,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5404,7 +5407,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5418,7 +5421,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5432,7 +5435,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5446,7 +5449,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5460,7 +5463,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5474,7 +5477,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5488,7 +5491,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5502,7 +5505,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5516,7 +5519,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5530,7 +5533,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5544,7 +5547,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5558,7 +5561,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5572,7 +5575,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5586,7 +5589,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5600,7 +5603,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5614,7 +5617,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5628,7 +5631,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5642,7 +5645,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5656,7 +5659,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5670,7 +5673,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5684,7 +5687,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5698,7 +5701,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5712,7 +5715,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5726,7 +5729,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5740,7 +5743,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5754,7 +5757,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5768,7 +5771,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5782,7 +5785,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5796,7 +5799,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5810,7 +5813,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5824,7 +5827,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5838,7 +5841,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5852,7 +5855,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5866,7 +5869,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5880,7 +5883,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5894,7 +5897,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5908,7 +5911,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5922,7 +5925,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5936,7 +5939,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5950,7 +5953,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5964,7 +5967,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5978,7 +5981,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5992,7 +5995,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6006,7 +6009,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6020,7 +6023,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6034,7 +6037,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6048,7 +6051,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6062,7 +6065,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6076,7 +6079,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6090,7 +6093,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6104,7 +6107,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6118,7 +6121,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6132,7 +6135,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6146,7 +6149,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6160,7 +6163,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6174,7 +6177,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6188,7 +6191,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6202,7 +6205,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6216,7 +6219,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6230,7 +6233,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6244,7 +6247,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6258,7 +6261,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6272,7 +6275,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6286,7 +6289,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6300,7 +6303,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6314,7 +6317,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6328,7 +6331,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6342,7 +6345,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6356,7 +6359,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6370,7 +6373,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6384,7 +6387,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6398,7 +6401,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6412,7 +6415,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6426,7 +6429,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6440,7 +6443,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6454,7 +6457,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6468,7 +6471,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6482,7 +6485,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6496,7 +6499,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6510,7 +6513,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6524,7 +6527,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6538,7 +6541,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6552,7 +6555,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6566,7 +6569,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6580,7 +6583,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6594,7 +6597,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6608,7 +6611,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6622,7 +6625,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6636,7 +6639,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6650,7 +6653,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6664,7 +6667,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6678,7 +6681,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6692,7 +6695,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6706,7 +6709,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6720,7 +6723,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6734,7 +6737,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6748,7 +6751,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6762,7 +6765,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6776,7 +6779,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6790,7 +6793,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6804,7 +6807,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6818,7 +6821,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6832,7 +6835,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6846,7 +6849,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6860,7 +6863,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6874,7 +6877,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6888,7 +6891,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6902,7 +6905,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6916,7 +6919,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6930,7 +6933,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6944,7 +6947,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6958,7 +6961,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6972,7 +6975,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6986,7 +6989,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7000,7 +7003,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7014,7 +7017,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7028,7 +7031,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7042,7 +7045,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7056,7 +7059,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7070,7 +7073,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7084,7 +7087,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7098,7 +7101,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7112,7 +7115,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7126,7 +7129,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7140,7 +7143,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7154,7 +7157,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7168,7 +7171,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7182,7 +7185,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7196,7 +7199,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7210,7 +7213,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7224,7 +7227,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7238,7 +7241,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7252,7 +7255,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7266,7 +7269,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7280,7 +7283,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7294,7 +7297,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7308,7 +7311,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7322,7 +7325,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7336,7 +7339,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7350,7 +7353,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7364,7 +7367,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7378,7 +7381,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7392,7 +7395,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7406,7 +7409,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7420,7 +7423,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7434,7 +7437,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7448,7 +7451,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7462,7 +7465,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7476,7 +7479,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7490,7 +7493,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7504,7 +7507,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7518,7 +7521,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7532,7 +7535,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7546,7 +7549,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7560,7 +7563,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7574,7 +7577,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7588,7 +7591,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7602,7 +7605,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7616,7 +7619,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7630,7 +7633,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7644,7 +7647,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7658,7 +7661,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7672,7 +7675,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7686,7 +7689,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7700,7 +7703,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7714,7 +7717,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7728,7 +7731,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7742,7 +7745,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7756,7 +7759,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7770,7 +7773,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7784,7 +7787,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7798,7 +7801,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7812,7 +7815,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7826,7 +7829,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7840,7 +7843,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7854,7 +7857,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7868,7 +7871,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7882,7 +7885,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7896,7 +7899,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7910,7 +7913,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7924,7 +7927,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7938,7 +7941,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7952,7 +7955,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7966,7 +7969,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7980,7 +7983,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7994,7 +7997,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8008,7 +8011,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8022,7 +8025,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8036,7 +8039,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8050,7 +8053,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8064,7 +8067,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8078,7 +8081,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8092,7 +8095,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8106,7 +8109,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8120,7 +8123,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8134,7 +8137,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8148,7 +8151,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8162,7 +8165,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8176,7 +8179,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8190,7 +8193,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8204,7 +8207,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8218,7 +8221,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8232,7 +8235,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8246,7 +8249,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8260,7 +8263,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8274,7 +8277,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8288,7 +8291,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8302,7 +8305,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8316,7 +8319,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8330,7 +8333,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8344,7 +8347,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8358,7 +8361,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8372,7 +8375,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8386,7 +8389,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8400,7 +8403,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8414,7 +8417,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8428,7 +8431,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8442,7 +8445,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8456,7 +8459,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8470,7 +8473,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8484,7 +8487,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8498,7 +8501,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8512,7 +8515,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8526,7 +8529,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8540,7 +8543,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8554,7 +8557,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8568,7 +8571,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8582,7 +8585,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8596,7 +8599,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8610,7 +8613,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8624,7 +8627,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8638,7 +8641,7 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8652,7 +8655,7 @@
         <v>0.41</v>
       </c>
       <c r="D485" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8666,7 +8669,21 @@
         <v>0.47</v>
       </c>
       <c r="D486" t="s">
-        <v>494</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" t="s">
+        <v>489</v>
+      </c>
+      <c r="B487">
+        <v>0.39</v>
+      </c>
+      <c r="C487">
+        <v>0.39</v>
+      </c>
+      <c r="D487" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="498">
   <si>
     <t>Data</t>
   </si>
@@ -1484,6 +1484,9 @@
   </si>
   <si>
     <t>07/12/2021</t>
+  </si>
+  <si>
+    <t>07/13/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1862,7 +1865,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D487"/>
+  <dimension ref="A1:D488"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1893,7 +1896,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1907,7 +1910,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1921,7 +1924,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1935,7 +1938,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1949,7 +1952,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1963,7 +1966,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1977,7 +1980,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1991,7 +1994,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2005,7 +2008,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2019,7 +2022,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2033,7 +2036,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2047,7 +2050,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2061,7 +2064,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2075,7 +2078,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2089,7 +2092,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2103,7 +2106,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2117,7 +2120,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2131,7 +2134,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2145,7 +2148,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2159,7 +2162,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2173,7 +2176,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2187,7 +2190,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2201,7 +2204,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2215,7 +2218,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2229,7 +2232,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2243,7 +2246,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2257,7 +2260,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2271,7 +2274,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2285,7 +2288,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2299,7 +2302,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2313,7 +2316,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2327,7 +2330,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2341,7 +2344,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2355,7 +2358,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2369,7 +2372,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2383,7 +2386,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2397,7 +2400,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2411,7 +2414,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2425,7 +2428,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2439,7 +2442,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2453,7 +2456,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2467,7 +2470,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2481,7 +2484,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2495,7 +2498,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2509,7 +2512,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2523,7 +2526,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2537,7 +2540,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2551,7 +2554,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2565,7 +2568,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2579,7 +2582,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2593,7 +2596,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2607,7 +2610,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2621,7 +2624,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2635,7 +2638,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2649,7 +2652,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2663,7 +2666,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2677,7 +2680,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2691,7 +2694,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2705,7 +2708,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2719,7 +2722,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2733,7 +2736,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2747,7 +2750,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2761,7 +2764,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2775,7 +2778,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2789,7 +2792,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2803,7 +2806,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2817,7 +2820,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2831,7 +2834,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2845,7 +2848,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2859,7 +2862,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2873,7 +2876,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2887,7 +2890,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2901,7 +2904,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2915,7 +2918,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2929,7 +2932,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2943,7 +2946,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2957,7 +2960,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2971,7 +2974,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2985,7 +2988,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2999,7 +3002,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3013,7 +3016,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3027,7 +3030,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3041,7 +3044,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3055,7 +3058,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3069,7 +3072,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3083,7 +3086,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3097,7 +3100,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3111,7 +3114,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3125,7 +3128,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3139,7 +3142,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3153,7 +3156,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3167,7 +3170,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3181,7 +3184,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3195,7 +3198,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3209,7 +3212,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3223,7 +3226,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3237,7 +3240,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3251,7 +3254,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3265,7 +3268,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3279,7 +3282,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3293,7 +3296,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3307,7 +3310,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3321,7 +3324,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3335,7 +3338,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3349,7 +3352,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3363,7 +3366,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3377,7 +3380,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3391,7 +3394,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3405,7 +3408,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3419,7 +3422,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3433,7 +3436,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3447,7 +3450,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3461,7 +3464,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3475,7 +3478,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3489,7 +3492,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3503,7 +3506,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3517,7 +3520,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3531,7 +3534,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3545,7 +3548,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3559,7 +3562,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3573,7 +3576,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3587,7 +3590,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3601,7 +3604,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3615,7 +3618,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3629,7 +3632,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3643,7 +3646,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3657,7 +3660,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3671,7 +3674,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3685,7 +3688,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3699,7 +3702,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3713,7 +3716,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3727,7 +3730,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3741,7 +3744,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3755,7 +3758,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3769,7 +3772,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3783,7 +3786,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3797,7 +3800,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3811,7 +3814,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3825,7 +3828,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3839,7 +3842,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3853,7 +3856,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3867,7 +3870,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3881,7 +3884,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3895,7 +3898,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3909,7 +3912,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3923,7 +3926,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3937,7 +3940,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3951,7 +3954,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3965,7 +3968,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3979,7 +3982,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3993,7 +3996,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4007,7 +4010,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4021,7 +4024,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4035,7 +4038,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4049,7 +4052,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4063,7 +4066,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4077,7 +4080,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4091,7 +4094,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4105,7 +4108,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4119,7 +4122,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4133,7 +4136,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4147,7 +4150,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4161,7 +4164,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4175,7 +4178,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4189,7 +4192,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4203,7 +4206,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4217,7 +4220,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4231,7 +4234,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4245,7 +4248,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4259,7 +4262,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4273,7 +4276,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4287,7 +4290,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4301,7 +4304,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4315,7 +4318,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4329,7 +4332,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4343,7 +4346,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4357,7 +4360,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4371,7 +4374,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4385,7 +4388,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4399,7 +4402,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4413,7 +4416,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4427,7 +4430,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4441,7 +4444,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4455,7 +4458,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4469,7 +4472,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4483,7 +4486,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4497,7 +4500,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4511,7 +4514,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4525,7 +4528,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4539,7 +4542,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4553,7 +4556,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4567,7 +4570,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4581,7 +4584,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4595,7 +4598,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4609,7 +4612,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4623,7 +4626,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4637,7 +4640,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4651,7 +4654,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4665,7 +4668,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4679,7 +4682,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4693,7 +4696,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4707,7 +4710,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4721,7 +4724,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4735,7 +4738,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4749,7 +4752,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4763,7 +4766,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4777,7 +4780,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4791,7 +4794,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4805,7 +4808,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4819,7 +4822,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4833,7 +4836,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4847,7 +4850,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4861,7 +4864,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4875,7 +4878,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4889,7 +4892,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4903,7 +4906,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4917,7 +4920,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4931,7 +4934,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4945,7 +4948,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4959,7 +4962,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4973,7 +4976,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4987,7 +4990,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5001,7 +5004,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5015,7 +5018,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5029,7 +5032,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5043,7 +5046,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5057,7 +5060,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5071,7 +5074,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5085,7 +5088,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5099,7 +5102,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5113,7 +5116,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5127,7 +5130,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5141,7 +5144,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5155,7 +5158,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5169,7 +5172,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5183,7 +5186,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5197,7 +5200,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5211,7 +5214,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5225,7 +5228,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5239,7 +5242,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5253,7 +5256,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5267,7 +5270,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5281,7 +5284,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5295,7 +5298,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5309,7 +5312,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5323,7 +5326,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5337,7 +5340,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5351,7 +5354,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5365,7 +5368,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5379,7 +5382,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5393,7 +5396,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5407,7 +5410,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5421,7 +5424,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5435,7 +5438,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5449,7 +5452,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5463,7 +5466,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5477,7 +5480,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5491,7 +5494,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5505,7 +5508,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5519,7 +5522,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5533,7 +5536,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5547,7 +5550,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5561,7 +5564,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5575,7 +5578,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5589,7 +5592,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5603,7 +5606,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5617,7 +5620,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5631,7 +5634,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5645,7 +5648,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5659,7 +5662,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5673,7 +5676,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5687,7 +5690,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5701,7 +5704,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5715,7 +5718,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5729,7 +5732,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5743,7 +5746,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5757,7 +5760,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5771,7 +5774,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5785,7 +5788,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5799,7 +5802,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5813,7 +5816,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5827,7 +5830,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5841,7 +5844,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5855,7 +5858,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5869,7 +5872,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5883,7 +5886,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5897,7 +5900,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5911,7 +5914,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5925,7 +5928,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5939,7 +5942,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5953,7 +5956,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5967,7 +5970,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5981,7 +5984,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5995,7 +5998,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6009,7 +6012,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6023,7 +6026,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6037,7 +6040,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6051,7 +6054,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6065,7 +6068,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6079,7 +6082,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6093,7 +6096,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6107,7 +6110,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6121,7 +6124,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6135,7 +6138,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6149,7 +6152,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6163,7 +6166,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6177,7 +6180,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6191,7 +6194,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6205,7 +6208,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6219,7 +6222,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6233,7 +6236,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6247,7 +6250,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6261,7 +6264,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6275,7 +6278,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6289,7 +6292,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6303,7 +6306,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6317,7 +6320,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6331,7 +6334,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6345,7 +6348,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6359,7 +6362,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6373,7 +6376,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6387,7 +6390,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6401,7 +6404,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6415,7 +6418,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6429,7 +6432,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6443,7 +6446,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6457,7 +6460,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6471,7 +6474,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6485,7 +6488,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6499,7 +6502,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6513,7 +6516,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6527,7 +6530,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6541,7 +6544,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6555,7 +6558,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6569,7 +6572,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6583,7 +6586,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6597,7 +6600,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6611,7 +6614,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6625,7 +6628,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6639,7 +6642,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6653,7 +6656,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6667,7 +6670,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6681,7 +6684,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6695,7 +6698,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6709,7 +6712,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6723,7 +6726,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6737,7 +6740,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6751,7 +6754,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6765,7 +6768,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6779,7 +6782,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6793,7 +6796,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6807,7 +6810,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6821,7 +6824,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6835,7 +6838,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6849,7 +6852,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6863,7 +6866,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6877,7 +6880,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6891,7 +6894,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6905,7 +6908,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6919,7 +6922,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6933,7 +6936,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6947,7 +6950,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6961,7 +6964,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6975,7 +6978,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6989,7 +6992,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7003,7 +7006,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7017,7 +7020,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7031,7 +7034,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7045,7 +7048,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7059,7 +7062,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7073,7 +7076,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7087,7 +7090,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7101,7 +7104,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7115,7 +7118,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7129,7 +7132,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7143,7 +7146,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7157,7 +7160,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7171,7 +7174,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7185,7 +7188,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7199,7 +7202,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7213,7 +7216,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7227,7 +7230,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7241,7 +7244,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7255,7 +7258,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7269,7 +7272,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7283,7 +7286,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7297,7 +7300,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7311,7 +7314,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7325,7 +7328,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7339,7 +7342,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7353,7 +7356,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7367,7 +7370,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7381,7 +7384,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7395,7 +7398,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7409,7 +7412,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7423,7 +7426,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7437,7 +7440,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7451,7 +7454,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7465,7 +7468,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7479,7 +7482,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7493,7 +7496,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7507,7 +7510,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7521,7 +7524,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7535,7 +7538,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7549,7 +7552,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7563,7 +7566,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7577,7 +7580,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7591,7 +7594,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7605,7 +7608,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7619,7 +7622,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7633,7 +7636,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7647,7 +7650,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7661,7 +7664,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7675,7 +7678,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7689,7 +7692,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7703,7 +7706,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7717,7 +7720,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7731,7 +7734,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7745,7 +7748,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7759,7 +7762,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7773,7 +7776,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7787,7 +7790,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7801,7 +7804,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7815,7 +7818,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7829,7 +7832,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7843,7 +7846,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7857,7 +7860,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7871,7 +7874,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7885,7 +7888,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7899,7 +7902,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7913,7 +7916,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7927,7 +7930,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7941,7 +7944,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7955,7 +7958,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7969,7 +7972,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7983,7 +7986,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -7997,7 +8000,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8011,7 +8014,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8025,7 +8028,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8039,7 +8042,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8053,7 +8056,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8067,7 +8070,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8081,7 +8084,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8095,7 +8098,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8109,7 +8112,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8123,7 +8126,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8137,7 +8140,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8151,7 +8154,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8165,7 +8168,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8179,7 +8182,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8193,7 +8196,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8207,7 +8210,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8221,7 +8224,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8235,7 +8238,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8249,7 +8252,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8263,7 +8266,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8277,7 +8280,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8291,7 +8294,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8305,7 +8308,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8319,7 +8322,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8333,7 +8336,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8347,7 +8350,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8361,7 +8364,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8375,7 +8378,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8389,7 +8392,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8403,7 +8406,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8417,7 +8420,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8431,7 +8434,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8445,7 +8448,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8459,7 +8462,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8473,7 +8476,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8487,7 +8490,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8501,7 +8504,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8515,7 +8518,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8529,7 +8532,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8543,7 +8546,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8557,7 +8560,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8571,7 +8574,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8585,7 +8588,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8599,7 +8602,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8613,7 +8616,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8627,7 +8630,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8641,7 +8644,7 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8655,7 +8658,7 @@
         <v>0.41</v>
       </c>
       <c r="D485" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8669,7 +8672,7 @@
         <v>0.47</v>
       </c>
       <c r="D486" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8683,7 +8686,21 @@
         <v>0.39</v>
       </c>
       <c r="D487" t="s">
-        <v>496</v>
+        <v>497</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" t="s">
+        <v>490</v>
+      </c>
+      <c r="B488">
+        <v>0.4</v>
+      </c>
+      <c r="C488">
+        <v>0.4</v>
+      </c>
+      <c r="D488" t="s">
+        <v>493</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="500">
   <si>
     <t>Data</t>
   </si>
@@ -1487,6 +1487,12 @@
   </si>
   <si>
     <t>07/13/2021</t>
+  </si>
+  <si>
+    <t>07/14/2021</t>
+  </si>
+  <si>
+    <t>07/15/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1865,7 +1871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D488"/>
+  <dimension ref="A1:D490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1896,7 +1902,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1910,7 +1916,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1924,7 +1930,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1938,7 +1944,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1952,7 +1958,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1966,7 +1972,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1980,7 +1986,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1994,7 +2000,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2008,7 +2014,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2022,7 +2028,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2036,7 +2042,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2050,7 +2056,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2064,7 +2070,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2078,7 +2084,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2092,7 +2098,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2106,7 +2112,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2120,7 +2126,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2134,7 +2140,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2148,7 +2154,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2162,7 +2168,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2176,7 +2182,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2190,7 +2196,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2204,7 +2210,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2218,7 +2224,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2232,7 +2238,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2246,7 +2252,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2260,7 +2266,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2274,7 +2280,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2288,7 +2294,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2302,7 +2308,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2316,7 +2322,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2330,7 +2336,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2344,7 +2350,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2358,7 +2364,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2372,7 +2378,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2386,7 +2392,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2400,7 +2406,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2414,7 +2420,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2428,7 +2434,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2442,7 +2448,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2456,7 +2462,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2470,7 +2476,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2484,7 +2490,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2498,7 +2504,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2512,7 +2518,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2526,7 +2532,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2540,7 +2546,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2554,7 +2560,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2568,7 +2574,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2582,7 +2588,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2596,7 +2602,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2610,7 +2616,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2624,7 +2630,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2638,7 +2644,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2652,7 +2658,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2666,7 +2672,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2680,7 +2686,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2694,7 +2700,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2708,7 +2714,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2722,7 +2728,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2736,7 +2742,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2750,7 +2756,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2764,7 +2770,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2778,7 +2784,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2792,7 +2798,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2806,7 +2812,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2820,7 +2826,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2834,7 +2840,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2848,7 +2854,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2862,7 +2868,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2876,7 +2882,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2890,7 +2896,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2904,7 +2910,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2918,7 +2924,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2932,7 +2938,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2946,7 +2952,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2960,7 +2966,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2974,7 +2980,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2988,7 +2994,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3002,7 +3008,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3016,7 +3022,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3030,7 +3036,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3044,7 +3050,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3058,7 +3064,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3072,7 +3078,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3086,7 +3092,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3100,7 +3106,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3114,7 +3120,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3128,7 +3134,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3142,7 +3148,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3156,7 +3162,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3170,7 +3176,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3184,7 +3190,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3198,7 +3204,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3212,7 +3218,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3226,7 +3232,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3240,7 +3246,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3254,7 +3260,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3268,7 +3274,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3282,7 +3288,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3296,7 +3302,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3310,7 +3316,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3324,7 +3330,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3338,7 +3344,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3352,7 +3358,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3366,7 +3372,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3380,7 +3386,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3394,7 +3400,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3408,7 +3414,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3422,7 +3428,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3436,7 +3442,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3450,7 +3456,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3464,7 +3470,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3478,7 +3484,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3492,7 +3498,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3506,7 +3512,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3520,7 +3526,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3534,7 +3540,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3548,7 +3554,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3562,7 +3568,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3576,7 +3582,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3590,7 +3596,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3604,7 +3610,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3618,7 +3624,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3632,7 +3638,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3646,7 +3652,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3660,7 +3666,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3674,7 +3680,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3688,7 +3694,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3702,7 +3708,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3716,7 +3722,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3730,7 +3736,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3744,7 +3750,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3758,7 +3764,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3772,7 +3778,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3786,7 +3792,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3800,7 +3806,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3814,7 +3820,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3828,7 +3834,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3842,7 +3848,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3856,7 +3862,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3870,7 +3876,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3884,7 +3890,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3898,7 +3904,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3912,7 +3918,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3926,7 +3932,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3940,7 +3946,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3954,7 +3960,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3968,7 +3974,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3982,7 +3988,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3996,7 +4002,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4010,7 +4016,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4024,7 +4030,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4038,7 +4044,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4052,7 +4058,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4066,7 +4072,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4080,7 +4086,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4094,7 +4100,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4108,7 +4114,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4122,7 +4128,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4136,7 +4142,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4150,7 +4156,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4164,7 +4170,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4178,7 +4184,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4192,7 +4198,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4206,7 +4212,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4220,7 +4226,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4234,7 +4240,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4248,7 +4254,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4262,7 +4268,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4276,7 +4282,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4290,7 +4296,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4304,7 +4310,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4318,7 +4324,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4332,7 +4338,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4346,7 +4352,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4360,7 +4366,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4374,7 +4380,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4388,7 +4394,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4402,7 +4408,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4416,7 +4422,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4430,7 +4436,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4444,7 +4450,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4458,7 +4464,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4472,7 +4478,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4486,7 +4492,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4500,7 +4506,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4514,7 +4520,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4528,7 +4534,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4542,7 +4548,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4556,7 +4562,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4570,7 +4576,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4584,7 +4590,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4598,7 +4604,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4612,7 +4618,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4626,7 +4632,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4640,7 +4646,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4654,7 +4660,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4668,7 +4674,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4682,7 +4688,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4696,7 +4702,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4710,7 +4716,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4724,7 +4730,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4738,7 +4744,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4752,7 +4758,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4766,7 +4772,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4780,7 +4786,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4794,7 +4800,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4808,7 +4814,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4822,7 +4828,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4836,7 +4842,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4850,7 +4856,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4864,7 +4870,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4878,7 +4884,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4892,7 +4898,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4906,7 +4912,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4920,7 +4926,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4934,7 +4940,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4948,7 +4954,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4962,7 +4968,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4976,7 +4982,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4990,7 +4996,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5004,7 +5010,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5018,7 +5024,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5032,7 +5038,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5046,7 +5052,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5060,7 +5066,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5074,7 +5080,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5088,7 +5094,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5102,7 +5108,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5116,7 +5122,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5130,7 +5136,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5144,7 +5150,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5158,7 +5164,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5172,7 +5178,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5186,7 +5192,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5200,7 +5206,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5214,7 +5220,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5228,7 +5234,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5242,7 +5248,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5256,7 +5262,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5270,7 +5276,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5284,7 +5290,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5298,7 +5304,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5312,7 +5318,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5326,7 +5332,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5340,7 +5346,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5354,7 +5360,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5368,7 +5374,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5382,7 +5388,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5396,7 +5402,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5410,7 +5416,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5424,7 +5430,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5438,7 +5444,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5452,7 +5458,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5466,7 +5472,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5480,7 +5486,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5494,7 +5500,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5508,7 +5514,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5522,7 +5528,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5536,7 +5542,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5550,7 +5556,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5564,7 +5570,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5578,7 +5584,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5592,7 +5598,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5606,7 +5612,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5620,7 +5626,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5634,7 +5640,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5648,7 +5654,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5662,7 +5668,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5676,7 +5682,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5690,7 +5696,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5704,7 +5710,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5718,7 +5724,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5732,7 +5738,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5746,7 +5752,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5760,7 +5766,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5774,7 +5780,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5788,7 +5794,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5802,7 +5808,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5816,7 +5822,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5830,7 +5836,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5844,7 +5850,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5858,7 +5864,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5872,7 +5878,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5886,7 +5892,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5900,7 +5906,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5914,7 +5920,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5928,7 +5934,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5942,7 +5948,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5956,7 +5962,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5970,7 +5976,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5984,7 +5990,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -5998,7 +6004,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6012,7 +6018,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6026,7 +6032,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6040,7 +6046,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6054,7 +6060,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6068,7 +6074,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6082,7 +6088,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6096,7 +6102,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6110,7 +6116,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6124,7 +6130,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6138,7 +6144,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6152,7 +6158,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6166,7 +6172,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6180,7 +6186,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6194,7 +6200,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6208,7 +6214,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6222,7 +6228,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6236,7 +6242,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6250,7 +6256,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6264,7 +6270,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6278,7 +6284,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6292,7 +6298,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6306,7 +6312,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6320,7 +6326,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6334,7 +6340,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6348,7 +6354,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6362,7 +6368,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6376,7 +6382,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6390,7 +6396,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6404,7 +6410,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6418,7 +6424,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6432,7 +6438,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6446,7 +6452,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6460,7 +6466,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6474,7 +6480,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6488,7 +6494,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6502,7 +6508,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6516,7 +6522,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6530,7 +6536,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6544,7 +6550,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6558,7 +6564,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6572,7 +6578,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6586,7 +6592,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6600,7 +6606,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6614,7 +6620,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6628,7 +6634,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6642,7 +6648,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6656,7 +6662,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6670,7 +6676,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6684,7 +6690,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6698,7 +6704,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6712,7 +6718,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6726,7 +6732,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6740,7 +6746,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6754,7 +6760,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6768,7 +6774,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6782,7 +6788,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6796,7 +6802,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6810,7 +6816,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6824,7 +6830,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6838,7 +6844,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6852,7 +6858,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6866,7 +6872,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6880,7 +6886,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6894,7 +6900,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6908,7 +6914,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6922,7 +6928,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6936,7 +6942,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6950,7 +6956,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6964,7 +6970,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6978,7 +6984,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6992,7 +6998,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7006,7 +7012,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7020,7 +7026,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7034,7 +7040,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7048,7 +7054,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7062,7 +7068,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7076,7 +7082,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7090,7 +7096,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7104,7 +7110,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7118,7 +7124,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7132,7 +7138,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7146,7 +7152,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7160,7 +7166,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7174,7 +7180,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7188,7 +7194,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7202,7 +7208,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7216,7 +7222,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7230,7 +7236,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7244,7 +7250,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7258,7 +7264,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7272,7 +7278,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7286,7 +7292,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7300,7 +7306,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7314,7 +7320,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7328,7 +7334,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7342,7 +7348,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7356,7 +7362,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7370,7 +7376,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7384,7 +7390,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7398,7 +7404,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7412,7 +7418,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7426,7 +7432,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7440,7 +7446,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7454,7 +7460,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7468,7 +7474,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7482,7 +7488,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7496,7 +7502,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7510,7 +7516,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7524,7 +7530,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7538,7 +7544,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7552,7 +7558,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7566,7 +7572,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7580,7 +7586,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7594,7 +7600,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7608,7 +7614,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7622,7 +7628,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7636,7 +7642,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7650,7 +7656,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7664,7 +7670,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7678,7 +7684,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7692,7 +7698,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7706,7 +7712,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7720,7 +7726,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7734,7 +7740,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7748,7 +7754,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7762,7 +7768,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7776,7 +7782,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7790,7 +7796,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7804,7 +7810,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7818,7 +7824,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7832,7 +7838,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7846,7 +7852,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7860,7 +7866,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7874,7 +7880,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7888,7 +7894,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7902,7 +7908,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7916,7 +7922,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7930,7 +7936,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7944,7 +7950,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7958,7 +7964,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7972,7 +7978,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7986,7 +7992,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8000,7 +8006,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8014,7 +8020,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8028,7 +8034,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8042,7 +8048,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8056,7 +8062,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8070,7 +8076,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8084,7 +8090,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8098,7 +8104,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8112,7 +8118,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8126,7 +8132,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8140,7 +8146,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8154,7 +8160,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8168,7 +8174,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8182,7 +8188,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8196,7 +8202,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8210,7 +8216,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8224,7 +8230,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8238,7 +8244,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8252,7 +8258,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8266,7 +8272,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8280,7 +8286,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8294,7 +8300,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8308,7 +8314,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8322,7 +8328,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8336,7 +8342,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8350,7 +8356,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8364,7 +8370,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8378,7 +8384,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8392,7 +8398,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8406,7 +8412,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8420,7 +8426,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8434,7 +8440,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8448,7 +8454,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8462,7 +8468,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8476,7 +8482,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8490,7 +8496,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8504,7 +8510,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8518,7 +8524,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8532,7 +8538,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8546,7 +8552,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8560,7 +8566,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8574,7 +8580,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8588,7 +8594,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8602,7 +8608,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8616,7 +8622,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8630,7 +8636,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8644,7 +8650,7 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8658,7 +8664,7 @@
         <v>0.41</v>
       </c>
       <c r="D485" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8672,7 +8678,7 @@
         <v>0.47</v>
       </c>
       <c r="D486" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8686,7 +8692,7 @@
         <v>0.39</v>
       </c>
       <c r="D487" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8700,6 +8706,34 @@
         <v>0.4</v>
       </c>
       <c r="D488" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" t="s">
+        <v>491</v>
+      </c>
+      <c r="B489">
+        <v>0.4</v>
+      </c>
+      <c r="C489">
+        <v>0.4</v>
+      </c>
+      <c r="D489" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" t="s">
+        <v>492</v>
+      </c>
+      <c r="B490">
+        <v>0.41</v>
+      </c>
+      <c r="C490">
+        <v>0.4</v>
+      </c>
+      <c r="D490" t="s">
         <v>493</v>
       </c>
     </row>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="501">
   <si>
     <t>Data</t>
   </si>
@@ -1493,6 +1493,9 @@
   </si>
   <si>
     <t>07/15/2021</t>
+  </si>
+  <si>
+    <t>07/16/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1871,7 +1874,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D490"/>
+  <dimension ref="A1:D491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1902,7 +1905,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1916,7 +1919,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1930,7 +1933,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1944,7 +1947,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1958,7 +1961,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1972,7 +1975,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1986,7 +1989,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2000,7 +2003,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2014,7 +2017,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2028,7 +2031,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2042,7 +2045,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2056,7 +2059,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2070,7 +2073,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2084,7 +2087,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2098,7 +2101,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2112,7 +2115,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2126,7 +2129,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2140,7 +2143,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2154,7 +2157,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2168,7 +2171,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2182,7 +2185,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2196,7 +2199,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2210,7 +2213,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2224,7 +2227,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2238,7 +2241,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2252,7 +2255,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2266,7 +2269,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2280,7 +2283,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2294,7 +2297,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2308,7 +2311,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2322,7 +2325,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2336,7 +2339,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2350,7 +2353,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2364,7 +2367,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2378,7 +2381,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2392,7 +2395,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2406,7 +2409,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2420,7 +2423,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2434,7 +2437,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2448,7 +2451,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2462,7 +2465,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2476,7 +2479,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2490,7 +2493,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2504,7 +2507,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2518,7 +2521,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2532,7 +2535,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2546,7 +2549,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2560,7 +2563,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2574,7 +2577,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2588,7 +2591,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2602,7 +2605,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2616,7 +2619,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2630,7 +2633,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2644,7 +2647,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2658,7 +2661,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2672,7 +2675,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2686,7 +2689,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2700,7 +2703,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2714,7 +2717,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2728,7 +2731,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2742,7 +2745,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2756,7 +2759,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2770,7 +2773,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2784,7 +2787,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2798,7 +2801,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2812,7 +2815,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2826,7 +2829,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2840,7 +2843,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2854,7 +2857,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2868,7 +2871,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2882,7 +2885,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2896,7 +2899,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2910,7 +2913,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2924,7 +2927,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2938,7 +2941,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2952,7 +2955,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2966,7 +2969,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2980,7 +2983,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2994,7 +2997,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3008,7 +3011,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3022,7 +3025,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3036,7 +3039,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3050,7 +3053,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3064,7 +3067,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3078,7 +3081,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3092,7 +3095,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3106,7 +3109,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3120,7 +3123,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3134,7 +3137,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3148,7 +3151,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3162,7 +3165,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3176,7 +3179,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3190,7 +3193,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3204,7 +3207,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3218,7 +3221,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3232,7 +3235,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3246,7 +3249,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3260,7 +3263,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3274,7 +3277,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3288,7 +3291,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3302,7 +3305,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3316,7 +3319,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3330,7 +3333,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3344,7 +3347,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3358,7 +3361,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3372,7 +3375,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3386,7 +3389,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3400,7 +3403,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3414,7 +3417,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3428,7 +3431,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3442,7 +3445,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3456,7 +3459,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3470,7 +3473,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3484,7 +3487,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3498,7 +3501,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3512,7 +3515,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3526,7 +3529,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3540,7 +3543,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3554,7 +3557,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3568,7 +3571,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3582,7 +3585,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3596,7 +3599,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3610,7 +3613,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3624,7 +3627,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3638,7 +3641,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3652,7 +3655,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3666,7 +3669,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3680,7 +3683,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3694,7 +3697,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3708,7 +3711,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3722,7 +3725,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3736,7 +3739,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3750,7 +3753,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3764,7 +3767,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3778,7 +3781,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3792,7 +3795,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3806,7 +3809,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3820,7 +3823,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3834,7 +3837,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3848,7 +3851,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3862,7 +3865,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3876,7 +3879,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3890,7 +3893,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3904,7 +3907,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3918,7 +3921,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3932,7 +3935,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3946,7 +3949,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3960,7 +3963,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3974,7 +3977,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3988,7 +3991,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4002,7 +4005,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4016,7 +4019,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4030,7 +4033,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4044,7 +4047,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4058,7 +4061,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4072,7 +4075,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4086,7 +4089,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4100,7 +4103,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4114,7 +4117,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4128,7 +4131,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4142,7 +4145,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4156,7 +4159,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4170,7 +4173,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4184,7 +4187,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4198,7 +4201,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4212,7 +4215,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4226,7 +4229,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4240,7 +4243,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4254,7 +4257,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4268,7 +4271,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4282,7 +4285,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4296,7 +4299,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4310,7 +4313,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4324,7 +4327,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4338,7 +4341,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4352,7 +4355,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4366,7 +4369,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4380,7 +4383,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4394,7 +4397,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4408,7 +4411,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4422,7 +4425,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4436,7 +4439,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4450,7 +4453,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4464,7 +4467,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4478,7 +4481,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4492,7 +4495,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4506,7 +4509,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4520,7 +4523,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4534,7 +4537,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4548,7 +4551,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4562,7 +4565,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4576,7 +4579,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4590,7 +4593,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4604,7 +4607,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4618,7 +4621,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4632,7 +4635,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4646,7 +4649,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4660,7 +4663,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4674,7 +4677,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4688,7 +4691,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4702,7 +4705,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4716,7 +4719,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4730,7 +4733,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4744,7 +4747,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4758,7 +4761,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4772,7 +4775,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4786,7 +4789,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4800,7 +4803,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4814,7 +4817,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4828,7 +4831,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4842,7 +4845,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4856,7 +4859,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4870,7 +4873,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4884,7 +4887,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4898,7 +4901,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4912,7 +4915,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4926,7 +4929,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4940,7 +4943,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4954,7 +4957,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4968,7 +4971,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4982,7 +4985,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4996,7 +4999,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5010,7 +5013,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5024,7 +5027,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5038,7 +5041,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5052,7 +5055,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5066,7 +5069,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5080,7 +5083,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5094,7 +5097,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5108,7 +5111,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5122,7 +5125,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5136,7 +5139,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5150,7 +5153,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5164,7 +5167,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5178,7 +5181,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5192,7 +5195,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5206,7 +5209,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5220,7 +5223,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5234,7 +5237,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5248,7 +5251,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5262,7 +5265,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5276,7 +5279,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5290,7 +5293,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5304,7 +5307,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5318,7 +5321,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5332,7 +5335,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5346,7 +5349,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5360,7 +5363,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5374,7 +5377,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5388,7 +5391,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5402,7 +5405,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5416,7 +5419,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5430,7 +5433,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5444,7 +5447,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5458,7 +5461,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5472,7 +5475,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5486,7 +5489,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5500,7 +5503,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5514,7 +5517,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5528,7 +5531,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5542,7 +5545,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5556,7 +5559,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5570,7 +5573,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5584,7 +5587,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5598,7 +5601,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5612,7 +5615,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5626,7 +5629,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5640,7 +5643,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5654,7 +5657,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5668,7 +5671,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5682,7 +5685,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5696,7 +5699,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5710,7 +5713,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5724,7 +5727,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5738,7 +5741,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5752,7 +5755,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5766,7 +5769,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5780,7 +5783,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5794,7 +5797,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5808,7 +5811,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5822,7 +5825,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5836,7 +5839,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5850,7 +5853,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5864,7 +5867,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5878,7 +5881,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5892,7 +5895,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5906,7 +5909,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5920,7 +5923,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5934,7 +5937,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5948,7 +5951,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5962,7 +5965,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5976,7 +5979,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5990,7 +5993,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6004,7 +6007,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6018,7 +6021,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6032,7 +6035,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6046,7 +6049,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6060,7 +6063,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6074,7 +6077,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6088,7 +6091,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6102,7 +6105,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6116,7 +6119,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6130,7 +6133,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6144,7 +6147,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6158,7 +6161,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6172,7 +6175,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6186,7 +6189,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6200,7 +6203,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6214,7 +6217,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6228,7 +6231,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6242,7 +6245,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6256,7 +6259,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6270,7 +6273,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6284,7 +6287,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6298,7 +6301,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6312,7 +6315,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6326,7 +6329,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6340,7 +6343,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6354,7 +6357,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6368,7 +6371,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6382,7 +6385,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6396,7 +6399,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6410,7 +6413,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6424,7 +6427,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6438,7 +6441,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6452,7 +6455,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6466,7 +6469,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6480,7 +6483,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6494,7 +6497,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6508,7 +6511,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6522,7 +6525,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6536,7 +6539,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6550,7 +6553,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6564,7 +6567,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6578,7 +6581,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6592,7 +6595,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6606,7 +6609,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6620,7 +6623,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6634,7 +6637,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6648,7 +6651,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6662,7 +6665,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6676,7 +6679,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6690,7 +6693,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6704,7 +6707,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6718,7 +6721,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6732,7 +6735,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6746,7 +6749,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6760,7 +6763,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6774,7 +6777,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6788,7 +6791,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6802,7 +6805,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6816,7 +6819,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6830,7 +6833,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6844,7 +6847,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6858,7 +6861,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6872,7 +6875,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6886,7 +6889,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6900,7 +6903,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6914,7 +6917,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6928,7 +6931,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6942,7 +6945,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6956,7 +6959,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6970,7 +6973,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6984,7 +6987,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -6998,7 +7001,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7012,7 +7015,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7026,7 +7029,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7040,7 +7043,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7054,7 +7057,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7068,7 +7071,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7082,7 +7085,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7096,7 +7099,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7110,7 +7113,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7124,7 +7127,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7138,7 +7141,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7152,7 +7155,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7166,7 +7169,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7180,7 +7183,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7194,7 +7197,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7208,7 +7211,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7222,7 +7225,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7236,7 +7239,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7250,7 +7253,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7264,7 +7267,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7278,7 +7281,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7292,7 +7295,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7306,7 +7309,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7320,7 +7323,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7334,7 +7337,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7348,7 +7351,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7362,7 +7365,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7376,7 +7379,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7390,7 +7393,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7404,7 +7407,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7418,7 +7421,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7432,7 +7435,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7446,7 +7449,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7460,7 +7463,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7474,7 +7477,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7488,7 +7491,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7502,7 +7505,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7516,7 +7519,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7530,7 +7533,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7544,7 +7547,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7558,7 +7561,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7572,7 +7575,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7586,7 +7589,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7600,7 +7603,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7614,7 +7617,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7628,7 +7631,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7642,7 +7645,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7656,7 +7659,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7670,7 +7673,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7684,7 +7687,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7698,7 +7701,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7712,7 +7715,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7726,7 +7729,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7740,7 +7743,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7754,7 +7757,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7768,7 +7771,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7782,7 +7785,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7796,7 +7799,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7810,7 +7813,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7824,7 +7827,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7838,7 +7841,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7852,7 +7855,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7866,7 +7869,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7880,7 +7883,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7894,7 +7897,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7908,7 +7911,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7922,7 +7925,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7936,7 +7939,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7950,7 +7953,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7964,7 +7967,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7978,7 +7981,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7992,7 +7995,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8006,7 +8009,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8020,7 +8023,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8034,7 +8037,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8048,7 +8051,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8062,7 +8065,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8076,7 +8079,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8090,7 +8093,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8104,7 +8107,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8118,7 +8121,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8132,7 +8135,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8146,7 +8149,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8160,7 +8163,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8174,7 +8177,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8188,7 +8191,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8202,7 +8205,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8216,7 +8219,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8230,7 +8233,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8244,7 +8247,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8258,7 +8261,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8272,7 +8275,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8286,7 +8289,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8300,7 +8303,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8314,7 +8317,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8328,7 +8331,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8342,7 +8345,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8356,7 +8359,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8370,7 +8373,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8384,7 +8387,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8398,7 +8401,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8412,7 +8415,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8426,7 +8429,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8440,7 +8443,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8454,7 +8457,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8468,7 +8471,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8482,7 +8485,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8496,7 +8499,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8510,7 +8513,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8524,7 +8527,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8538,7 +8541,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8552,7 +8555,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8566,7 +8569,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8580,7 +8583,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8594,7 +8597,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8608,7 +8611,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8622,7 +8625,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8636,7 +8639,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8650,7 +8653,7 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8664,7 +8667,7 @@
         <v>0.41</v>
       </c>
       <c r="D485" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8678,7 +8681,7 @@
         <v>0.47</v>
       </c>
       <c r="D486" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8692,7 +8695,7 @@
         <v>0.39</v>
       </c>
       <c r="D487" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8706,7 +8709,7 @@
         <v>0.4</v>
       </c>
       <c r="D488" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8720,7 +8723,7 @@
         <v>0.4</v>
       </c>
       <c r="D489" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8734,7 +8737,21 @@
         <v>0.4</v>
       </c>
       <c r="D490" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" t="s">
         <v>493</v>
+      </c>
+      <c r="B491">
+        <v>0.39</v>
+      </c>
+      <c r="C491">
+        <v>0.38</v>
+      </c>
+      <c r="D491" t="s">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="502">
   <si>
     <t>Data</t>
   </si>
@@ -1496,6 +1496,9 @@
   </si>
   <si>
     <t>07/16/2021</t>
+  </si>
+  <si>
+    <t>07/17/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1874,7 +1877,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D491"/>
+  <dimension ref="A1:D492"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1905,7 +1908,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1919,7 +1922,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1933,7 +1936,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1947,7 +1950,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1961,7 +1964,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1975,7 +1978,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1989,7 +1992,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2003,7 +2006,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2017,7 +2020,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2031,7 +2034,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2045,7 +2048,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2059,7 +2062,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2073,7 +2076,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2087,7 +2090,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2101,7 +2104,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2115,7 +2118,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2129,7 +2132,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2143,7 +2146,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2157,7 +2160,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2171,7 +2174,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2185,7 +2188,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2199,7 +2202,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2213,7 +2216,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2227,7 +2230,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2241,7 +2244,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2255,7 +2258,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2269,7 +2272,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2283,7 +2286,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2297,7 +2300,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2311,7 +2314,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2325,7 +2328,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2339,7 +2342,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2353,7 +2356,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2367,7 +2370,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2381,7 +2384,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2395,7 +2398,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2409,7 +2412,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2423,7 +2426,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2437,7 +2440,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2451,7 +2454,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2465,7 +2468,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2479,7 +2482,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2493,7 +2496,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2507,7 +2510,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2521,7 +2524,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2535,7 +2538,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2549,7 +2552,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2563,7 +2566,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2577,7 +2580,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2591,7 +2594,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2605,7 +2608,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2619,7 +2622,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2633,7 +2636,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2647,7 +2650,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2661,7 +2664,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2675,7 +2678,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2689,7 +2692,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2703,7 +2706,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2717,7 +2720,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2731,7 +2734,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2745,7 +2748,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2759,7 +2762,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2773,7 +2776,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2787,7 +2790,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2801,7 +2804,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2815,7 +2818,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2829,7 +2832,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2843,7 +2846,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2857,7 +2860,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2871,7 +2874,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2885,7 +2888,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2899,7 +2902,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2913,7 +2916,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2927,7 +2930,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2941,7 +2944,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2955,7 +2958,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2969,7 +2972,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2983,7 +2986,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2997,7 +3000,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3011,7 +3014,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3025,7 +3028,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3039,7 +3042,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3053,7 +3056,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3067,7 +3070,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3081,7 +3084,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3095,7 +3098,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3109,7 +3112,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3123,7 +3126,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3137,7 +3140,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3151,7 +3154,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3165,7 +3168,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3179,7 +3182,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3193,7 +3196,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3207,7 +3210,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3221,7 +3224,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3235,7 +3238,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3249,7 +3252,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3263,7 +3266,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3277,7 +3280,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3291,7 +3294,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3305,7 +3308,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3319,7 +3322,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3333,7 +3336,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3347,7 +3350,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3361,7 +3364,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3375,7 +3378,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3389,7 +3392,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3403,7 +3406,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3417,7 +3420,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3431,7 +3434,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3445,7 +3448,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3459,7 +3462,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3473,7 +3476,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3487,7 +3490,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3501,7 +3504,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3515,7 +3518,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3529,7 +3532,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3543,7 +3546,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3557,7 +3560,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3571,7 +3574,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3585,7 +3588,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3599,7 +3602,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3613,7 +3616,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3627,7 +3630,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3641,7 +3644,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3655,7 +3658,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3669,7 +3672,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3683,7 +3686,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3697,7 +3700,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3711,7 +3714,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3725,7 +3728,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3739,7 +3742,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3753,7 +3756,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3767,7 +3770,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3781,7 +3784,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3795,7 +3798,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3809,7 +3812,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3823,7 +3826,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3837,7 +3840,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3851,7 +3854,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3865,7 +3868,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3879,7 +3882,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3893,7 +3896,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3907,7 +3910,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3921,7 +3924,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3935,7 +3938,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3949,7 +3952,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3963,7 +3966,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3977,7 +3980,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3991,7 +3994,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4005,7 +4008,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4019,7 +4022,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4033,7 +4036,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4047,7 +4050,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4061,7 +4064,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4075,7 +4078,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4089,7 +4092,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4103,7 +4106,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4117,7 +4120,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4131,7 +4134,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4145,7 +4148,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4159,7 +4162,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4173,7 +4176,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4187,7 +4190,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4201,7 +4204,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4215,7 +4218,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4229,7 +4232,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4243,7 +4246,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4257,7 +4260,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4271,7 +4274,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4285,7 +4288,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4299,7 +4302,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4313,7 +4316,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4327,7 +4330,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4341,7 +4344,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4355,7 +4358,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4369,7 +4372,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4383,7 +4386,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4397,7 +4400,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4411,7 +4414,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4425,7 +4428,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4439,7 +4442,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4453,7 +4456,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4467,7 +4470,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4481,7 +4484,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4495,7 +4498,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4509,7 +4512,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4523,7 +4526,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4537,7 +4540,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4551,7 +4554,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4565,7 +4568,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4579,7 +4582,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4593,7 +4596,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4607,7 +4610,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4621,7 +4624,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4635,7 +4638,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4649,7 +4652,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4663,7 +4666,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4677,7 +4680,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4691,7 +4694,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4705,7 +4708,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4719,7 +4722,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4733,7 +4736,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4747,7 +4750,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4761,7 +4764,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4775,7 +4778,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4789,7 +4792,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4803,7 +4806,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4817,7 +4820,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4831,7 +4834,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4845,7 +4848,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4859,7 +4862,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4873,7 +4876,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4887,7 +4890,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4901,7 +4904,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4915,7 +4918,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4929,7 +4932,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4943,7 +4946,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4957,7 +4960,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4971,7 +4974,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4985,7 +4988,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -4999,7 +5002,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5013,7 +5016,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5027,7 +5030,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5041,7 +5044,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5055,7 +5058,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5069,7 +5072,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5083,7 +5086,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5097,7 +5100,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5111,7 +5114,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5125,7 +5128,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5139,7 +5142,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5153,7 +5156,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5167,7 +5170,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5181,7 +5184,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5195,7 +5198,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5209,7 +5212,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5223,7 +5226,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5237,7 +5240,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5251,7 +5254,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5265,7 +5268,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5279,7 +5282,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5293,7 +5296,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5307,7 +5310,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5321,7 +5324,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5335,7 +5338,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5349,7 +5352,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5363,7 +5366,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5377,7 +5380,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5391,7 +5394,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5405,7 +5408,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5419,7 +5422,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5433,7 +5436,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5447,7 +5450,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5461,7 +5464,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5475,7 +5478,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5489,7 +5492,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5503,7 +5506,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5517,7 +5520,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5531,7 +5534,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5545,7 +5548,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5559,7 +5562,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5573,7 +5576,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5587,7 +5590,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5601,7 +5604,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5615,7 +5618,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5629,7 +5632,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5643,7 +5646,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5657,7 +5660,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5671,7 +5674,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5685,7 +5688,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5699,7 +5702,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5713,7 +5716,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5727,7 +5730,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5741,7 +5744,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5755,7 +5758,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5769,7 +5772,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5783,7 +5786,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5797,7 +5800,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5811,7 +5814,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5825,7 +5828,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5839,7 +5842,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5853,7 +5856,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5867,7 +5870,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5881,7 +5884,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5895,7 +5898,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5909,7 +5912,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5923,7 +5926,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5937,7 +5940,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5951,7 +5954,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5965,7 +5968,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5979,7 +5982,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5993,7 +5996,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6007,7 +6010,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6021,7 +6024,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6035,7 +6038,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6049,7 +6052,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6063,7 +6066,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6077,7 +6080,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6091,7 +6094,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6105,7 +6108,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6119,7 +6122,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6133,7 +6136,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6147,7 +6150,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6161,7 +6164,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6175,7 +6178,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6189,7 +6192,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6203,7 +6206,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6217,7 +6220,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6231,7 +6234,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6245,7 +6248,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6259,7 +6262,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6273,7 +6276,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6287,7 +6290,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6301,7 +6304,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6315,7 +6318,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6329,7 +6332,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6343,7 +6346,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6357,7 +6360,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6371,7 +6374,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6385,7 +6388,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6399,7 +6402,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6413,7 +6416,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6427,7 +6430,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6441,7 +6444,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6455,7 +6458,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6469,7 +6472,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6483,7 +6486,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6497,7 +6500,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6511,7 +6514,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6525,7 +6528,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6539,7 +6542,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6553,7 +6556,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6567,7 +6570,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6581,7 +6584,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6595,7 +6598,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6609,7 +6612,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6623,7 +6626,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6637,7 +6640,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6651,7 +6654,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6665,7 +6668,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6679,7 +6682,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6693,7 +6696,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6707,7 +6710,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6721,7 +6724,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6735,7 +6738,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6749,7 +6752,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6763,7 +6766,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6777,7 +6780,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6791,7 +6794,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6805,7 +6808,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6819,7 +6822,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6833,7 +6836,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6847,7 +6850,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6861,7 +6864,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6875,7 +6878,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6889,7 +6892,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6903,7 +6906,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6917,7 +6920,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6931,7 +6934,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6945,7 +6948,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6959,7 +6962,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6973,7 +6976,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6987,7 +6990,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7001,7 +7004,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7015,7 +7018,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7029,7 +7032,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7043,7 +7046,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7057,7 +7060,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7071,7 +7074,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7085,7 +7088,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7099,7 +7102,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7113,7 +7116,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7127,7 +7130,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7141,7 +7144,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7155,7 +7158,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7169,7 +7172,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7183,7 +7186,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7197,7 +7200,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7211,7 +7214,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7225,7 +7228,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7239,7 +7242,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7253,7 +7256,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7267,7 +7270,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7281,7 +7284,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7295,7 +7298,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7309,7 +7312,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7323,7 +7326,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7337,7 +7340,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7351,7 +7354,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7365,7 +7368,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7379,7 +7382,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7393,7 +7396,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7407,7 +7410,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7421,7 +7424,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7435,7 +7438,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7449,7 +7452,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7463,7 +7466,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7477,7 +7480,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7491,7 +7494,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7505,7 +7508,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7519,7 +7522,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7533,7 +7536,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7547,7 +7550,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7561,7 +7564,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7575,7 +7578,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7589,7 +7592,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7603,7 +7606,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7617,7 +7620,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7631,7 +7634,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7645,7 +7648,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7659,7 +7662,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7673,7 +7676,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7687,7 +7690,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7701,7 +7704,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7715,7 +7718,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7729,7 +7732,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7743,7 +7746,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7757,7 +7760,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7771,7 +7774,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7785,7 +7788,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7799,7 +7802,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7813,7 +7816,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7827,7 +7830,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7841,7 +7844,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7855,7 +7858,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7869,7 +7872,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7883,7 +7886,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7897,7 +7900,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7911,7 +7914,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7925,7 +7928,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7939,7 +7942,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7953,7 +7956,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7967,7 +7970,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7981,7 +7984,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7995,7 +7998,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8009,7 +8012,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8023,7 +8026,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8037,7 +8040,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8051,7 +8054,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8065,7 +8068,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8079,7 +8082,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8093,7 +8096,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8107,7 +8110,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8121,7 +8124,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8135,7 +8138,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8149,7 +8152,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8163,7 +8166,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8177,7 +8180,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8191,7 +8194,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8205,7 +8208,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8219,7 +8222,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8233,7 +8236,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8247,7 +8250,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8261,7 +8264,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8275,7 +8278,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8289,7 +8292,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8303,7 +8306,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8317,7 +8320,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8331,7 +8334,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8345,7 +8348,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8359,7 +8362,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8373,7 +8376,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8387,7 +8390,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8401,7 +8404,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8415,7 +8418,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8429,7 +8432,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8443,7 +8446,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8457,7 +8460,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8471,7 +8474,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8485,7 +8488,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8499,7 +8502,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8513,7 +8516,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8527,7 +8530,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8541,7 +8544,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8555,7 +8558,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8569,7 +8572,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8583,7 +8586,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8597,7 +8600,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8611,7 +8614,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8625,7 +8628,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8639,7 +8642,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8653,7 +8656,7 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8667,7 +8670,7 @@
         <v>0.41</v>
       </c>
       <c r="D485" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8681,7 +8684,7 @@
         <v>0.47</v>
       </c>
       <c r="D486" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8695,7 +8698,7 @@
         <v>0.39</v>
       </c>
       <c r="D487" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8709,7 +8712,7 @@
         <v>0.4</v>
       </c>
       <c r="D488" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8723,7 +8726,7 @@
         <v>0.4</v>
       </c>
       <c r="D489" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8737,7 +8740,7 @@
         <v>0.4</v>
       </c>
       <c r="D490" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8751,7 +8754,21 @@
         <v>0.38</v>
       </c>
       <c r="D491" t="s">
-        <v>495</v>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" t="s">
+        <v>494</v>
+      </c>
+      <c r="B492">
+        <v>0.42</v>
+      </c>
+      <c r="C492">
+        <v>0.42</v>
+      </c>
+      <c r="D492" t="s">
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="503">
   <si>
     <t>Data</t>
   </si>
@@ -1499,6 +1499,9 @@
   </si>
   <si>
     <t>07/17/2021</t>
+  </si>
+  <si>
+    <t>07/18/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1877,7 +1880,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D492"/>
+  <dimension ref="A1:D493"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1908,7 +1911,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1922,7 +1925,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1936,7 +1939,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1950,7 +1953,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1964,7 +1967,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1978,7 +1981,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1992,7 +1995,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2006,7 +2009,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2020,7 +2023,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2034,7 +2037,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2048,7 +2051,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2062,7 +2065,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2076,7 +2079,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2090,7 +2093,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2104,7 +2107,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2118,7 +2121,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2132,7 +2135,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2146,7 +2149,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2160,7 +2163,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2174,7 +2177,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2188,7 +2191,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2202,7 +2205,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2216,7 +2219,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2230,7 +2233,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2244,7 +2247,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2258,7 +2261,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2272,7 +2275,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2286,7 +2289,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2300,7 +2303,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2314,7 +2317,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2328,7 +2331,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2342,7 +2345,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2356,7 +2359,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2370,7 +2373,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2384,7 +2387,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2398,7 +2401,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2412,7 +2415,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2426,7 +2429,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2440,7 +2443,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2454,7 +2457,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2468,7 +2471,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2482,7 +2485,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2496,7 +2499,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2510,7 +2513,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2524,7 +2527,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2538,7 +2541,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2552,7 +2555,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2566,7 +2569,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2580,7 +2583,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2594,7 +2597,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2608,7 +2611,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2622,7 +2625,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2636,7 +2639,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2650,7 +2653,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2664,7 +2667,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2678,7 +2681,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2692,7 +2695,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2706,7 +2709,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2720,7 +2723,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2734,7 +2737,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2748,7 +2751,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2762,7 +2765,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2776,7 +2779,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2790,7 +2793,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2804,7 +2807,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2818,7 +2821,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2832,7 +2835,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2846,7 +2849,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2860,7 +2863,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2874,7 +2877,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2888,7 +2891,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2902,7 +2905,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2916,7 +2919,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2930,7 +2933,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2944,7 +2947,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2958,7 +2961,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2972,7 +2975,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2986,7 +2989,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3000,7 +3003,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3014,7 +3017,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3028,7 +3031,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3042,7 +3045,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3056,7 +3059,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3070,7 +3073,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3084,7 +3087,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3098,7 +3101,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3112,7 +3115,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3126,7 +3129,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3140,7 +3143,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3154,7 +3157,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3168,7 +3171,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3182,7 +3185,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3196,7 +3199,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3210,7 +3213,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3224,7 +3227,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3238,7 +3241,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3252,7 +3255,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3266,7 +3269,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3280,7 +3283,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3294,7 +3297,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3308,7 +3311,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3322,7 +3325,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3336,7 +3339,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3350,7 +3353,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3364,7 +3367,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3378,7 +3381,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3392,7 +3395,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3406,7 +3409,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3420,7 +3423,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3434,7 +3437,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3448,7 +3451,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3462,7 +3465,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3476,7 +3479,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3490,7 +3493,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3504,7 +3507,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3518,7 +3521,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3532,7 +3535,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3546,7 +3549,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3560,7 +3563,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3574,7 +3577,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3588,7 +3591,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3602,7 +3605,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3616,7 +3619,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3630,7 +3633,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3644,7 +3647,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3658,7 +3661,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3672,7 +3675,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3686,7 +3689,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3700,7 +3703,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3714,7 +3717,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3728,7 +3731,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3742,7 +3745,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3756,7 +3759,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3770,7 +3773,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3784,7 +3787,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3798,7 +3801,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3812,7 +3815,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3826,7 +3829,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3840,7 +3843,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3854,7 +3857,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3868,7 +3871,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3882,7 +3885,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3896,7 +3899,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3910,7 +3913,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3924,7 +3927,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3938,7 +3941,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3952,7 +3955,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3966,7 +3969,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3980,7 +3983,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3994,7 +3997,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4008,7 +4011,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4022,7 +4025,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4036,7 +4039,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4050,7 +4053,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4064,7 +4067,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4078,7 +4081,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4092,7 +4095,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4106,7 +4109,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4120,7 +4123,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4134,7 +4137,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4148,7 +4151,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4162,7 +4165,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4176,7 +4179,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4190,7 +4193,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4204,7 +4207,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4218,7 +4221,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4232,7 +4235,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4246,7 +4249,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4260,7 +4263,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4274,7 +4277,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4288,7 +4291,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4302,7 +4305,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4316,7 +4319,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4330,7 +4333,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4344,7 +4347,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4358,7 +4361,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4372,7 +4375,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4386,7 +4389,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4400,7 +4403,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4414,7 +4417,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4428,7 +4431,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4442,7 +4445,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4456,7 +4459,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4470,7 +4473,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4484,7 +4487,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4498,7 +4501,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4512,7 +4515,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4526,7 +4529,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4540,7 +4543,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4554,7 +4557,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4568,7 +4571,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4582,7 +4585,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4596,7 +4599,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4610,7 +4613,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4624,7 +4627,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4638,7 +4641,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4652,7 +4655,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4666,7 +4669,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4680,7 +4683,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4694,7 +4697,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4708,7 +4711,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4722,7 +4725,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4736,7 +4739,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4750,7 +4753,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4764,7 +4767,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4778,7 +4781,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4792,7 +4795,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4806,7 +4809,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4820,7 +4823,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4834,7 +4837,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4848,7 +4851,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4862,7 +4865,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4876,7 +4879,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4890,7 +4893,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4904,7 +4907,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4918,7 +4921,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4932,7 +4935,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4946,7 +4949,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4960,7 +4963,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4974,7 +4977,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4988,7 +4991,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5002,7 +5005,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5016,7 +5019,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5030,7 +5033,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5044,7 +5047,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5058,7 +5061,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5072,7 +5075,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5086,7 +5089,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5100,7 +5103,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5114,7 +5117,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5128,7 +5131,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5142,7 +5145,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5156,7 +5159,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5170,7 +5173,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5184,7 +5187,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5198,7 +5201,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5212,7 +5215,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5226,7 +5229,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5240,7 +5243,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5254,7 +5257,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5268,7 +5271,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5282,7 +5285,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5296,7 +5299,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5310,7 +5313,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5324,7 +5327,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5338,7 +5341,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5352,7 +5355,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5366,7 +5369,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5380,7 +5383,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5394,7 +5397,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5408,7 +5411,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5422,7 +5425,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5436,7 +5439,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5450,7 +5453,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5464,7 +5467,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5478,7 +5481,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5492,7 +5495,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5506,7 +5509,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5520,7 +5523,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5534,7 +5537,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5548,7 +5551,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5562,7 +5565,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5576,7 +5579,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5590,7 +5593,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5604,7 +5607,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5618,7 +5621,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5632,7 +5635,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5646,7 +5649,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5660,7 +5663,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5674,7 +5677,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5688,7 +5691,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5702,7 +5705,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5716,7 +5719,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5730,7 +5733,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5744,7 +5747,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5758,7 +5761,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5772,7 +5775,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5786,7 +5789,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5800,7 +5803,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5814,7 +5817,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5828,7 +5831,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5842,7 +5845,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5856,7 +5859,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5870,7 +5873,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5884,7 +5887,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5898,7 +5901,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5912,7 +5915,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5926,7 +5929,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5940,7 +5943,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5954,7 +5957,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5968,7 +5971,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5982,7 +5985,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5996,7 +5999,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6010,7 +6013,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6024,7 +6027,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6038,7 +6041,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6052,7 +6055,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6066,7 +6069,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6080,7 +6083,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6094,7 +6097,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6108,7 +6111,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6122,7 +6125,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6136,7 +6139,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6150,7 +6153,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6164,7 +6167,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6178,7 +6181,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6192,7 +6195,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6206,7 +6209,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6220,7 +6223,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6234,7 +6237,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6248,7 +6251,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6262,7 +6265,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6276,7 +6279,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6290,7 +6293,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6304,7 +6307,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6318,7 +6321,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6332,7 +6335,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6346,7 +6349,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6360,7 +6363,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6374,7 +6377,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6388,7 +6391,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6402,7 +6405,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6416,7 +6419,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6430,7 +6433,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6444,7 +6447,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6458,7 +6461,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6472,7 +6475,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6486,7 +6489,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6500,7 +6503,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6514,7 +6517,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6528,7 +6531,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6542,7 +6545,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6556,7 +6559,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6570,7 +6573,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6584,7 +6587,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6598,7 +6601,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6612,7 +6615,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6626,7 +6629,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6640,7 +6643,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6654,7 +6657,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6668,7 +6671,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6682,7 +6685,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6696,7 +6699,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6710,7 +6713,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6724,7 +6727,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6738,7 +6741,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6752,7 +6755,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6766,7 +6769,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6780,7 +6783,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6794,7 +6797,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6808,7 +6811,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6822,7 +6825,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6836,7 +6839,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6850,7 +6853,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6864,7 +6867,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6878,7 +6881,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6892,7 +6895,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6906,7 +6909,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6920,7 +6923,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6934,7 +6937,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6948,7 +6951,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6962,7 +6965,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6976,7 +6979,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6990,7 +6993,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7004,7 +7007,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7018,7 +7021,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7032,7 +7035,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7046,7 +7049,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7060,7 +7063,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7074,7 +7077,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7088,7 +7091,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7102,7 +7105,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7116,7 +7119,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7130,7 +7133,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7144,7 +7147,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7158,7 +7161,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7172,7 +7175,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7186,7 +7189,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7200,7 +7203,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7214,7 +7217,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7228,7 +7231,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7242,7 +7245,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7256,7 +7259,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7270,7 +7273,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7284,7 +7287,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7298,7 +7301,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7312,7 +7315,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7326,7 +7329,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7340,7 +7343,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7354,7 +7357,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7368,7 +7371,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7382,7 +7385,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7396,7 +7399,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7410,7 +7413,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7424,7 +7427,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7438,7 +7441,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7452,7 +7455,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7466,7 +7469,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7480,7 +7483,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7494,7 +7497,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7508,7 +7511,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7522,7 +7525,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7536,7 +7539,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7550,7 +7553,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7564,7 +7567,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7578,7 +7581,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7592,7 +7595,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7606,7 +7609,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7620,7 +7623,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7634,7 +7637,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7648,7 +7651,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7662,7 +7665,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7676,7 +7679,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7690,7 +7693,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7704,7 +7707,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7718,7 +7721,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7732,7 +7735,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7746,7 +7749,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7760,7 +7763,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7774,7 +7777,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7788,7 +7791,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7802,7 +7805,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7816,7 +7819,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7830,7 +7833,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7844,7 +7847,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7858,7 +7861,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7872,7 +7875,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7886,7 +7889,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7900,7 +7903,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7914,7 +7917,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7928,7 +7931,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7942,7 +7945,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7956,7 +7959,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7970,7 +7973,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7984,7 +7987,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -7998,7 +8001,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8012,7 +8015,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8026,7 +8029,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8040,7 +8043,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8054,7 +8057,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8068,7 +8071,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8082,7 +8085,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8096,7 +8099,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8110,7 +8113,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8124,7 +8127,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8138,7 +8141,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8152,7 +8155,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8166,7 +8169,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8180,7 +8183,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8194,7 +8197,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8208,7 +8211,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8222,7 +8225,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8236,7 +8239,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8250,7 +8253,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8264,7 +8267,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8278,7 +8281,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8292,7 +8295,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8306,7 +8309,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8320,7 +8323,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8334,7 +8337,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8348,7 +8351,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8362,7 +8365,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8376,7 +8379,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8390,7 +8393,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8404,7 +8407,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8418,7 +8421,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8432,7 +8435,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8446,7 +8449,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8460,7 +8463,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8474,7 +8477,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8488,7 +8491,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8502,7 +8505,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8516,7 +8519,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8530,7 +8533,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8544,7 +8547,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8558,7 +8561,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8572,7 +8575,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8586,7 +8589,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8600,7 +8603,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8614,7 +8617,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8628,7 +8631,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8642,7 +8645,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8656,7 +8659,7 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8670,7 +8673,7 @@
         <v>0.41</v>
       </c>
       <c r="D485" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8684,7 +8687,7 @@
         <v>0.47</v>
       </c>
       <c r="D486" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8698,7 +8701,7 @@
         <v>0.39</v>
       </c>
       <c r="D487" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8712,7 +8715,7 @@
         <v>0.4</v>
       </c>
       <c r="D488" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8726,7 +8729,7 @@
         <v>0.4</v>
       </c>
       <c r="D489" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8740,7 +8743,7 @@
         <v>0.4</v>
       </c>
       <c r="D490" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8754,7 +8757,7 @@
         <v>0.38</v>
       </c>
       <c r="D491" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8768,7 +8771,21 @@
         <v>0.42</v>
       </c>
       <c r="D492" t="s">
-        <v>499</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" t="s">
+        <v>495</v>
+      </c>
+      <c r="B493">
+        <v>0.46</v>
+      </c>
+      <c r="C493">
+        <v>0.48</v>
+      </c>
+      <c r="D493" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="504">
   <si>
     <t>Data</t>
   </si>
@@ -1502,6 +1502,9 @@
   </si>
   <si>
     <t>07/18/2021</t>
+  </si>
+  <si>
+    <t>07/19/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1880,7 +1883,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D493"/>
+  <dimension ref="A1:D494"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1911,7 +1914,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1925,7 +1928,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1939,7 +1942,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1953,7 +1956,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1967,7 +1970,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1981,7 +1984,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1995,7 +1998,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2009,7 +2012,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2023,7 +2026,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2037,7 +2040,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2051,7 +2054,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2065,7 +2068,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2079,7 +2082,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2093,7 +2096,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2107,7 +2110,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2121,7 +2124,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2135,7 +2138,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2149,7 +2152,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2163,7 +2166,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2177,7 +2180,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2191,7 +2194,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2205,7 +2208,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2219,7 +2222,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2233,7 +2236,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2247,7 +2250,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2261,7 +2264,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2275,7 +2278,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2289,7 +2292,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2303,7 +2306,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2317,7 +2320,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2331,7 +2334,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2345,7 +2348,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2359,7 +2362,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2373,7 +2376,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2387,7 +2390,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2401,7 +2404,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2415,7 +2418,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2429,7 +2432,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2443,7 +2446,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2457,7 +2460,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2471,7 +2474,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2485,7 +2488,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2499,7 +2502,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2513,7 +2516,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2527,7 +2530,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2541,7 +2544,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2555,7 +2558,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2569,7 +2572,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2583,7 +2586,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2597,7 +2600,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2611,7 +2614,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2625,7 +2628,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2639,7 +2642,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2653,7 +2656,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2667,7 +2670,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2681,7 +2684,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2695,7 +2698,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2709,7 +2712,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2723,7 +2726,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2737,7 +2740,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2751,7 +2754,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2765,7 +2768,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2779,7 +2782,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2793,7 +2796,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2807,7 +2810,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2821,7 +2824,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2835,7 +2838,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2849,7 +2852,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2863,7 +2866,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2877,7 +2880,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2891,7 +2894,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2905,7 +2908,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2919,7 +2922,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2933,7 +2936,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2947,7 +2950,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2961,7 +2964,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2975,7 +2978,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2989,7 +2992,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3003,7 +3006,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3017,7 +3020,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3031,7 +3034,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3045,7 +3048,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3059,7 +3062,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3073,7 +3076,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3087,7 +3090,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3101,7 +3104,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3115,7 +3118,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3129,7 +3132,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3143,7 +3146,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3157,7 +3160,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3171,7 +3174,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3185,7 +3188,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3199,7 +3202,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3213,7 +3216,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3227,7 +3230,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3241,7 +3244,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3255,7 +3258,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3269,7 +3272,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3283,7 +3286,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3297,7 +3300,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3311,7 +3314,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3325,7 +3328,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3339,7 +3342,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3353,7 +3356,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3367,7 +3370,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3381,7 +3384,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3395,7 +3398,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3409,7 +3412,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3423,7 +3426,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3437,7 +3440,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3451,7 +3454,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3465,7 +3468,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3479,7 +3482,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3493,7 +3496,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3507,7 +3510,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3521,7 +3524,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3535,7 +3538,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3549,7 +3552,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3563,7 +3566,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3577,7 +3580,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3591,7 +3594,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3605,7 +3608,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3619,7 +3622,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3633,7 +3636,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3647,7 +3650,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3661,7 +3664,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3675,7 +3678,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3689,7 +3692,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3703,7 +3706,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3717,7 +3720,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3731,7 +3734,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3745,7 +3748,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3759,7 +3762,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3773,7 +3776,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3787,7 +3790,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3801,7 +3804,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3815,7 +3818,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3829,7 +3832,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3843,7 +3846,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3857,7 +3860,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3871,7 +3874,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3885,7 +3888,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3899,7 +3902,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3913,7 +3916,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3927,7 +3930,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3941,7 +3944,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3955,7 +3958,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3969,7 +3972,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3983,7 +3986,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3997,7 +4000,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4011,7 +4014,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4025,7 +4028,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4039,7 +4042,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4053,7 +4056,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4067,7 +4070,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4081,7 +4084,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4095,7 +4098,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4109,7 +4112,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4123,7 +4126,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4137,7 +4140,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4151,7 +4154,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4165,7 +4168,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4179,7 +4182,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4193,7 +4196,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4207,7 +4210,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4221,7 +4224,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4235,7 +4238,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4249,7 +4252,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4263,7 +4266,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4277,7 +4280,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4291,7 +4294,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4305,7 +4308,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4319,7 +4322,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4333,7 +4336,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4347,7 +4350,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4361,7 +4364,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4375,7 +4378,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4389,7 +4392,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4403,7 +4406,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4417,7 +4420,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4431,7 +4434,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4445,7 +4448,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4459,7 +4462,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4473,7 +4476,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4487,7 +4490,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4501,7 +4504,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4515,7 +4518,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4529,7 +4532,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4543,7 +4546,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4557,7 +4560,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4571,7 +4574,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4585,7 +4588,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4599,7 +4602,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4613,7 +4616,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4627,7 +4630,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4641,7 +4644,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4655,7 +4658,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4669,7 +4672,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4683,7 +4686,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4697,7 +4700,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4711,7 +4714,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4725,7 +4728,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4739,7 +4742,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4753,7 +4756,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4767,7 +4770,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4781,7 +4784,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4795,7 +4798,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4809,7 +4812,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4823,7 +4826,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4837,7 +4840,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4851,7 +4854,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4865,7 +4868,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4879,7 +4882,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4893,7 +4896,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4907,7 +4910,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4921,7 +4924,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4935,7 +4938,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4949,7 +4952,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4963,7 +4966,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4977,7 +4980,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4991,7 +4994,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5005,7 +5008,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5019,7 +5022,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5033,7 +5036,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5047,7 +5050,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5061,7 +5064,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5075,7 +5078,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5089,7 +5092,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5103,7 +5106,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5117,7 +5120,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5131,7 +5134,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5145,7 +5148,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5159,7 +5162,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5173,7 +5176,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5187,7 +5190,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5201,7 +5204,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5215,7 +5218,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5229,7 +5232,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5243,7 +5246,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5257,7 +5260,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5271,7 +5274,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5285,7 +5288,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5299,7 +5302,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5313,7 +5316,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5327,7 +5330,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5341,7 +5344,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5355,7 +5358,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5369,7 +5372,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5383,7 +5386,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5397,7 +5400,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5411,7 +5414,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5425,7 +5428,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5439,7 +5442,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5453,7 +5456,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5467,7 +5470,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5481,7 +5484,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5495,7 +5498,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5509,7 +5512,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5523,7 +5526,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5537,7 +5540,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5551,7 +5554,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5565,7 +5568,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5579,7 +5582,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5593,7 +5596,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5607,7 +5610,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5621,7 +5624,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5635,7 +5638,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5649,7 +5652,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5663,7 +5666,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5677,7 +5680,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5691,7 +5694,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5705,7 +5708,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5719,7 +5722,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5733,7 +5736,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5747,7 +5750,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5761,7 +5764,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5775,7 +5778,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5789,7 +5792,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5803,7 +5806,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5817,7 +5820,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5831,7 +5834,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5845,7 +5848,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5859,7 +5862,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5873,7 +5876,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5887,7 +5890,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5901,7 +5904,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5915,7 +5918,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5929,7 +5932,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5943,7 +5946,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5957,7 +5960,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5971,7 +5974,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5985,7 +5988,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -5999,7 +6002,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6013,7 +6016,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6027,7 +6030,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6041,7 +6044,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6055,7 +6058,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6069,7 +6072,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6083,7 +6086,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6097,7 +6100,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6111,7 +6114,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6125,7 +6128,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6139,7 +6142,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6153,7 +6156,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6167,7 +6170,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6181,7 +6184,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6195,7 +6198,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6209,7 +6212,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6223,7 +6226,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6237,7 +6240,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6251,7 +6254,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6265,7 +6268,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6279,7 +6282,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6293,7 +6296,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6307,7 +6310,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6321,7 +6324,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6335,7 +6338,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6349,7 +6352,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6363,7 +6366,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6377,7 +6380,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6391,7 +6394,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6405,7 +6408,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6419,7 +6422,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6433,7 +6436,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6447,7 +6450,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6461,7 +6464,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6475,7 +6478,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6489,7 +6492,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6503,7 +6506,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6517,7 +6520,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6531,7 +6534,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6545,7 +6548,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6559,7 +6562,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6573,7 +6576,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6587,7 +6590,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6601,7 +6604,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6615,7 +6618,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6629,7 +6632,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6643,7 +6646,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6657,7 +6660,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6671,7 +6674,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6685,7 +6688,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6699,7 +6702,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6713,7 +6716,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6727,7 +6730,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6741,7 +6744,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6755,7 +6758,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6769,7 +6772,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6783,7 +6786,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6797,7 +6800,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6811,7 +6814,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6825,7 +6828,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6839,7 +6842,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6853,7 +6856,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6867,7 +6870,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6881,7 +6884,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6895,7 +6898,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6909,7 +6912,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6923,7 +6926,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6937,7 +6940,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6951,7 +6954,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6965,7 +6968,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6979,7 +6982,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6993,7 +6996,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7007,7 +7010,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7021,7 +7024,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7035,7 +7038,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7049,7 +7052,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7063,7 +7066,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7077,7 +7080,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7091,7 +7094,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7105,7 +7108,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7119,7 +7122,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7133,7 +7136,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7147,7 +7150,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7161,7 +7164,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7175,7 +7178,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7189,7 +7192,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7203,7 +7206,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7217,7 +7220,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7231,7 +7234,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7245,7 +7248,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7259,7 +7262,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7273,7 +7276,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7287,7 +7290,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7301,7 +7304,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7315,7 +7318,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7329,7 +7332,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7343,7 +7346,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7357,7 +7360,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7371,7 +7374,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7385,7 +7388,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7399,7 +7402,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7413,7 +7416,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7427,7 +7430,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7441,7 +7444,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7455,7 +7458,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7469,7 +7472,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7483,7 +7486,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7497,7 +7500,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7511,7 +7514,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7525,7 +7528,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7539,7 +7542,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7553,7 +7556,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7567,7 +7570,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7581,7 +7584,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7595,7 +7598,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7609,7 +7612,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7623,7 +7626,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7637,7 +7640,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7651,7 +7654,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7665,7 +7668,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7679,7 +7682,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7693,7 +7696,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7707,7 +7710,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7721,7 +7724,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7735,7 +7738,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7749,7 +7752,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7763,7 +7766,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7777,7 +7780,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7791,7 +7794,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7805,7 +7808,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7819,7 +7822,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7833,7 +7836,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7847,7 +7850,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7861,7 +7864,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7875,7 +7878,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7889,7 +7892,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7903,7 +7906,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7917,7 +7920,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7931,7 +7934,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7945,7 +7948,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7959,7 +7962,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7973,7 +7976,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7987,7 +7990,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8001,7 +8004,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8015,7 +8018,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8029,7 +8032,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8043,7 +8046,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8057,7 +8060,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8071,7 +8074,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8085,7 +8088,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8099,7 +8102,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8113,7 +8116,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8127,7 +8130,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8141,7 +8144,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8155,7 +8158,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8169,7 +8172,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8183,7 +8186,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8197,7 +8200,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8211,7 +8214,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8225,7 +8228,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8239,7 +8242,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8253,7 +8256,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8267,7 +8270,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8281,7 +8284,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8295,7 +8298,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8309,7 +8312,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8323,7 +8326,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8337,7 +8340,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8351,7 +8354,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8365,7 +8368,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8379,7 +8382,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8393,7 +8396,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8407,7 +8410,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8421,7 +8424,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8435,7 +8438,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8449,7 +8452,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8463,7 +8466,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8477,7 +8480,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8491,7 +8494,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8505,7 +8508,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8519,7 +8522,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8533,7 +8536,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8547,7 +8550,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8561,7 +8564,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8575,7 +8578,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8589,7 +8592,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8603,7 +8606,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8617,7 +8620,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8631,7 +8634,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8645,7 +8648,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8659,7 +8662,7 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8673,7 +8676,7 @@
         <v>0.41</v>
       </c>
       <c r="D485" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8687,7 +8690,7 @@
         <v>0.47</v>
       </c>
       <c r="D486" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8701,7 +8704,7 @@
         <v>0.39</v>
       </c>
       <c r="D487" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8715,7 +8718,7 @@
         <v>0.4</v>
       </c>
       <c r="D488" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8729,7 +8732,7 @@
         <v>0.4</v>
       </c>
       <c r="D489" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8743,7 +8746,7 @@
         <v>0.4</v>
       </c>
       <c r="D490" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8757,7 +8760,7 @@
         <v>0.38</v>
       </c>
       <c r="D491" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8771,7 +8774,7 @@
         <v>0.42</v>
       </c>
       <c r="D492" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8785,7 +8788,21 @@
         <v>0.48</v>
       </c>
       <c r="D493" t="s">
-        <v>501</v>
+        <v>502</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" t="s">
+        <v>496</v>
+      </c>
+      <c r="B494">
+        <v>0.4</v>
+      </c>
+      <c r="C494">
+        <v>0.4</v>
+      </c>
+      <c r="D494" t="s">
+        <v>503</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="505">
   <si>
     <t>Data</t>
   </si>
@@ -1505,6 +1505,9 @@
   </si>
   <si>
     <t>07/19/2021</t>
+  </si>
+  <si>
+    <t>07/20/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1883,7 +1886,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D494"/>
+  <dimension ref="A1:D495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1914,7 +1917,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1928,7 +1931,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1942,7 +1945,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1956,7 +1959,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1970,7 +1973,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1984,7 +1987,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1998,7 +2001,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2012,7 +2015,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2026,7 +2029,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2040,7 +2043,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2054,7 +2057,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2068,7 +2071,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2082,7 +2085,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2096,7 +2099,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2110,7 +2113,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2124,7 +2127,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2138,7 +2141,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2152,7 +2155,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2166,7 +2169,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2180,7 +2183,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2194,7 +2197,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2208,7 +2211,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2222,7 +2225,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2236,7 +2239,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2250,7 +2253,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2264,7 +2267,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2278,7 +2281,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2292,7 +2295,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2306,7 +2309,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2320,7 +2323,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2334,7 +2337,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2348,7 +2351,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2362,7 +2365,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2376,7 +2379,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2390,7 +2393,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2404,7 +2407,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2418,7 +2421,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2432,7 +2435,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2446,7 +2449,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2460,7 +2463,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2474,7 +2477,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2488,7 +2491,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2502,7 +2505,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2516,7 +2519,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2530,7 +2533,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2544,7 +2547,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2558,7 +2561,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2572,7 +2575,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2586,7 +2589,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2600,7 +2603,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2614,7 +2617,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2628,7 +2631,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2642,7 +2645,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2656,7 +2659,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2670,7 +2673,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2684,7 +2687,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2698,7 +2701,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2712,7 +2715,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2726,7 +2729,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2740,7 +2743,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2754,7 +2757,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2768,7 +2771,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2782,7 +2785,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2796,7 +2799,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2810,7 +2813,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2824,7 +2827,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2838,7 +2841,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2852,7 +2855,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2866,7 +2869,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2880,7 +2883,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2894,7 +2897,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2908,7 +2911,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2922,7 +2925,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2936,7 +2939,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2950,7 +2953,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2964,7 +2967,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2978,7 +2981,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2992,7 +2995,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3006,7 +3009,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3020,7 +3023,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3034,7 +3037,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3048,7 +3051,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3062,7 +3065,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3076,7 +3079,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3090,7 +3093,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3104,7 +3107,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3118,7 +3121,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3132,7 +3135,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3146,7 +3149,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3160,7 +3163,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3174,7 +3177,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3188,7 +3191,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3202,7 +3205,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3216,7 +3219,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3230,7 +3233,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3244,7 +3247,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3258,7 +3261,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3272,7 +3275,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3286,7 +3289,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3300,7 +3303,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3314,7 +3317,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3328,7 +3331,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3342,7 +3345,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3356,7 +3359,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3370,7 +3373,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3384,7 +3387,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3398,7 +3401,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3412,7 +3415,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3426,7 +3429,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3440,7 +3443,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3454,7 +3457,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3468,7 +3471,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3482,7 +3485,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3496,7 +3499,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3510,7 +3513,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3524,7 +3527,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3538,7 +3541,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3552,7 +3555,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3566,7 +3569,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3580,7 +3583,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3594,7 +3597,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3608,7 +3611,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3622,7 +3625,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3636,7 +3639,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3650,7 +3653,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3664,7 +3667,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3678,7 +3681,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3692,7 +3695,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3706,7 +3709,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3720,7 +3723,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3734,7 +3737,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3748,7 +3751,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3762,7 +3765,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3776,7 +3779,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3790,7 +3793,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3804,7 +3807,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3818,7 +3821,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3832,7 +3835,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3846,7 +3849,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3860,7 +3863,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3874,7 +3877,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3888,7 +3891,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3902,7 +3905,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3916,7 +3919,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3930,7 +3933,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3944,7 +3947,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3958,7 +3961,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3972,7 +3975,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3986,7 +3989,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4000,7 +4003,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4014,7 +4017,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4028,7 +4031,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4042,7 +4045,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4056,7 +4059,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4070,7 +4073,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4084,7 +4087,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4098,7 +4101,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4112,7 +4115,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4126,7 +4129,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4140,7 +4143,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4154,7 +4157,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4168,7 +4171,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4182,7 +4185,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4196,7 +4199,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4210,7 +4213,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4224,7 +4227,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4238,7 +4241,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4252,7 +4255,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4266,7 +4269,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4280,7 +4283,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4294,7 +4297,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4308,7 +4311,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4322,7 +4325,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4336,7 +4339,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4350,7 +4353,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4364,7 +4367,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4378,7 +4381,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4392,7 +4395,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4406,7 +4409,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4420,7 +4423,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4434,7 +4437,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4448,7 +4451,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4462,7 +4465,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4476,7 +4479,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4490,7 +4493,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4504,7 +4507,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4518,7 +4521,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4532,7 +4535,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4546,7 +4549,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4560,7 +4563,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4574,7 +4577,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4588,7 +4591,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4602,7 +4605,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4616,7 +4619,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4630,7 +4633,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4644,7 +4647,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4658,7 +4661,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4672,7 +4675,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4686,7 +4689,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4700,7 +4703,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4714,7 +4717,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4728,7 +4731,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4742,7 +4745,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4756,7 +4759,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4770,7 +4773,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4784,7 +4787,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4798,7 +4801,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4812,7 +4815,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4826,7 +4829,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4840,7 +4843,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4854,7 +4857,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4868,7 +4871,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4882,7 +4885,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4896,7 +4899,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4910,7 +4913,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4924,7 +4927,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4938,7 +4941,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4952,7 +4955,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4966,7 +4969,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4980,7 +4983,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4994,7 +4997,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5008,7 +5011,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5022,7 +5025,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5036,7 +5039,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5050,7 +5053,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5064,7 +5067,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5078,7 +5081,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5092,7 +5095,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5106,7 +5109,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5120,7 +5123,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5134,7 +5137,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5148,7 +5151,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5162,7 +5165,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5176,7 +5179,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5190,7 +5193,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5204,7 +5207,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5218,7 +5221,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5232,7 +5235,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5246,7 +5249,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5260,7 +5263,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5274,7 +5277,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5288,7 +5291,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5302,7 +5305,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5316,7 +5319,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5330,7 +5333,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5344,7 +5347,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5358,7 +5361,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5372,7 +5375,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5386,7 +5389,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5400,7 +5403,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5414,7 +5417,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5428,7 +5431,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5442,7 +5445,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5456,7 +5459,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5470,7 +5473,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5484,7 +5487,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5498,7 +5501,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5512,7 +5515,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5526,7 +5529,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5540,7 +5543,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5554,7 +5557,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5568,7 +5571,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5582,7 +5585,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5596,7 +5599,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5610,7 +5613,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5624,7 +5627,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5638,7 +5641,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5652,7 +5655,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5666,7 +5669,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5680,7 +5683,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5694,7 +5697,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5708,7 +5711,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5722,7 +5725,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5736,7 +5739,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5750,7 +5753,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5764,7 +5767,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5778,7 +5781,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5792,7 +5795,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5806,7 +5809,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5820,7 +5823,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5834,7 +5837,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5848,7 +5851,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5862,7 +5865,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5876,7 +5879,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5890,7 +5893,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5904,7 +5907,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5918,7 +5921,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5932,7 +5935,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5946,7 +5949,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5960,7 +5963,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5974,7 +5977,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5988,7 +5991,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6002,7 +6005,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6016,7 +6019,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6030,7 +6033,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6044,7 +6047,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6058,7 +6061,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6072,7 +6075,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6086,7 +6089,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6100,7 +6103,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6114,7 +6117,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6128,7 +6131,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6142,7 +6145,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6156,7 +6159,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6170,7 +6173,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6184,7 +6187,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6198,7 +6201,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6212,7 +6215,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6226,7 +6229,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6240,7 +6243,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6254,7 +6257,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6268,7 +6271,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6282,7 +6285,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6296,7 +6299,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6310,7 +6313,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6324,7 +6327,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6338,7 +6341,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6352,7 +6355,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6366,7 +6369,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6380,7 +6383,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6394,7 +6397,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6408,7 +6411,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6422,7 +6425,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6436,7 +6439,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6450,7 +6453,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6464,7 +6467,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6478,7 +6481,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6492,7 +6495,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6506,7 +6509,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6520,7 +6523,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6534,7 +6537,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6548,7 +6551,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6562,7 +6565,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6576,7 +6579,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6590,7 +6593,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6604,7 +6607,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6618,7 +6621,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6632,7 +6635,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6646,7 +6649,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6660,7 +6663,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6674,7 +6677,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6688,7 +6691,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6702,7 +6705,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6716,7 +6719,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6730,7 +6733,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6744,7 +6747,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6758,7 +6761,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6772,7 +6775,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6786,7 +6789,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6800,7 +6803,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6814,7 +6817,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6828,7 +6831,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6842,7 +6845,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6856,7 +6859,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6870,7 +6873,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6884,7 +6887,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6898,7 +6901,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6912,7 +6915,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6926,7 +6929,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6940,7 +6943,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6954,7 +6957,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6968,7 +6971,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6982,7 +6985,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6996,7 +6999,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7010,7 +7013,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7024,7 +7027,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7038,7 +7041,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7052,7 +7055,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7066,7 +7069,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7080,7 +7083,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7094,7 +7097,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7108,7 +7111,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7122,7 +7125,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7136,7 +7139,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7150,7 +7153,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7164,7 +7167,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7178,7 +7181,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7192,7 +7195,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7206,7 +7209,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7220,7 +7223,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7234,7 +7237,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7248,7 +7251,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7262,7 +7265,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7276,7 +7279,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7290,7 +7293,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7304,7 +7307,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7318,7 +7321,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7332,7 +7335,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7346,7 +7349,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7360,7 +7363,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7374,7 +7377,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7388,7 +7391,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7402,7 +7405,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7416,7 +7419,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7430,7 +7433,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7444,7 +7447,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7458,7 +7461,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7472,7 +7475,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7486,7 +7489,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7500,7 +7503,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7514,7 +7517,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7528,7 +7531,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7542,7 +7545,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7556,7 +7559,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7570,7 +7573,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7584,7 +7587,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7598,7 +7601,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7612,7 +7615,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7626,7 +7629,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7640,7 +7643,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7654,7 +7657,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7668,7 +7671,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7682,7 +7685,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7696,7 +7699,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7710,7 +7713,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7724,7 +7727,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7738,7 +7741,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7752,7 +7755,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7766,7 +7769,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7780,7 +7783,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7794,7 +7797,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7808,7 +7811,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7822,7 +7825,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7836,7 +7839,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7850,7 +7853,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7864,7 +7867,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7878,7 +7881,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7892,7 +7895,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7906,7 +7909,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7920,7 +7923,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7934,7 +7937,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7948,7 +7951,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7962,7 +7965,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7976,7 +7979,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7990,7 +7993,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8004,7 +8007,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8018,7 +8021,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8032,7 +8035,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8046,7 +8049,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8060,7 +8063,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8074,7 +8077,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8088,7 +8091,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8102,7 +8105,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8116,7 +8119,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8130,7 +8133,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8144,7 +8147,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8158,7 +8161,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8172,7 +8175,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8186,7 +8189,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8200,7 +8203,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8214,7 +8217,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8228,7 +8231,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8242,7 +8245,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8256,7 +8259,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8270,7 +8273,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8284,7 +8287,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8298,7 +8301,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8312,7 +8315,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8326,7 +8329,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8340,7 +8343,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8354,7 +8357,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8368,7 +8371,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8382,7 +8385,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8396,7 +8399,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8410,7 +8413,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8424,7 +8427,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8438,7 +8441,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8452,7 +8455,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8466,7 +8469,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8480,7 +8483,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8494,7 +8497,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8508,7 +8511,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8522,7 +8525,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8536,7 +8539,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8550,7 +8553,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8564,7 +8567,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8578,7 +8581,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8592,7 +8595,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8606,7 +8609,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8620,7 +8623,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8634,7 +8637,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8648,7 +8651,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8662,7 +8665,7 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8676,7 +8679,7 @@
         <v>0.41</v>
       </c>
       <c r="D485" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8690,7 +8693,7 @@
         <v>0.47</v>
       </c>
       <c r="D486" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8704,7 +8707,7 @@
         <v>0.39</v>
       </c>
       <c r="D487" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8718,7 +8721,7 @@
         <v>0.4</v>
       </c>
       <c r="D488" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8732,7 +8735,7 @@
         <v>0.4</v>
       </c>
       <c r="D489" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8746,7 +8749,7 @@
         <v>0.4</v>
       </c>
       <c r="D490" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8760,7 +8763,7 @@
         <v>0.38</v>
       </c>
       <c r="D491" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8774,7 +8777,7 @@
         <v>0.42</v>
       </c>
       <c r="D492" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8788,7 +8791,7 @@
         <v>0.48</v>
       </c>
       <c r="D493" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8802,7 +8805,21 @@
         <v>0.4</v>
       </c>
       <c r="D494" t="s">
-        <v>503</v>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" t="s">
+        <v>497</v>
+      </c>
+      <c r="B495">
+        <v>0.41</v>
+      </c>
+      <c r="C495">
+        <v>0.41</v>
+      </c>
+      <c r="D495" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="506">
   <si>
     <t>Data</t>
   </si>
@@ -1508,6 +1508,9 @@
   </si>
   <si>
     <t>07/20/2021</t>
+  </si>
+  <si>
+    <t>07/21/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1886,7 +1889,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D495"/>
+  <dimension ref="A1:D496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1917,7 +1920,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1931,7 +1934,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1945,7 +1948,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1959,7 +1962,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1973,7 +1976,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1987,7 +1990,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2001,7 +2004,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2015,7 +2018,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2029,7 +2032,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2043,7 +2046,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2057,7 +2060,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2071,7 +2074,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2085,7 +2088,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2099,7 +2102,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2113,7 +2116,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2127,7 +2130,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2141,7 +2144,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2155,7 +2158,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2169,7 +2172,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2183,7 +2186,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2197,7 +2200,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2211,7 +2214,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2225,7 +2228,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2239,7 +2242,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2253,7 +2256,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2267,7 +2270,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2281,7 +2284,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2295,7 +2298,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2309,7 +2312,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2323,7 +2326,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2337,7 +2340,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2351,7 +2354,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2365,7 +2368,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2379,7 +2382,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2393,7 +2396,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2407,7 +2410,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2421,7 +2424,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2435,7 +2438,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2449,7 +2452,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2463,7 +2466,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2477,7 +2480,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2491,7 +2494,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2505,7 +2508,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2519,7 +2522,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2533,7 +2536,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2547,7 +2550,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2561,7 +2564,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2575,7 +2578,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2589,7 +2592,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2603,7 +2606,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2617,7 +2620,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2631,7 +2634,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2645,7 +2648,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2659,7 +2662,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2673,7 +2676,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2687,7 +2690,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2701,7 +2704,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2715,7 +2718,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2729,7 +2732,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2743,7 +2746,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2757,7 +2760,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2771,7 +2774,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2785,7 +2788,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2799,7 +2802,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2813,7 +2816,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2827,7 +2830,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2841,7 +2844,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2855,7 +2858,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2869,7 +2872,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2883,7 +2886,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2897,7 +2900,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2911,7 +2914,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2925,7 +2928,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2939,7 +2942,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2953,7 +2956,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2967,7 +2970,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2981,7 +2984,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2995,7 +2998,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3009,7 +3012,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3023,7 +3026,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3037,7 +3040,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3051,7 +3054,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3065,7 +3068,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3079,7 +3082,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3093,7 +3096,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3107,7 +3110,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3121,7 +3124,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3135,7 +3138,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3149,7 +3152,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3163,7 +3166,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3177,7 +3180,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3191,7 +3194,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3205,7 +3208,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3219,7 +3222,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3233,7 +3236,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3247,7 +3250,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3261,7 +3264,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3275,7 +3278,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3289,7 +3292,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3303,7 +3306,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3317,7 +3320,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3331,7 +3334,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3345,7 +3348,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3359,7 +3362,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3373,7 +3376,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3387,7 +3390,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3401,7 +3404,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3415,7 +3418,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3429,7 +3432,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3443,7 +3446,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3457,7 +3460,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3471,7 +3474,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3485,7 +3488,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3499,7 +3502,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3513,7 +3516,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3527,7 +3530,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3541,7 +3544,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3555,7 +3558,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3569,7 +3572,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3583,7 +3586,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3597,7 +3600,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3611,7 +3614,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3625,7 +3628,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3639,7 +3642,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3653,7 +3656,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3667,7 +3670,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3681,7 +3684,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3695,7 +3698,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3709,7 +3712,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3723,7 +3726,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3737,7 +3740,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3751,7 +3754,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3765,7 +3768,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3779,7 +3782,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3793,7 +3796,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3807,7 +3810,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3821,7 +3824,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3835,7 +3838,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3849,7 +3852,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3863,7 +3866,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3877,7 +3880,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3891,7 +3894,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3905,7 +3908,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3919,7 +3922,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3933,7 +3936,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3947,7 +3950,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3961,7 +3964,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3975,7 +3978,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3989,7 +3992,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4003,7 +4006,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4017,7 +4020,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4031,7 +4034,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4045,7 +4048,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4059,7 +4062,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4073,7 +4076,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4087,7 +4090,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4101,7 +4104,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4115,7 +4118,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4129,7 +4132,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4143,7 +4146,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4157,7 +4160,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4171,7 +4174,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4185,7 +4188,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4199,7 +4202,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4213,7 +4216,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4227,7 +4230,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4241,7 +4244,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4255,7 +4258,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4269,7 +4272,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4283,7 +4286,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -4297,7 +4300,7 @@
         <v>0.46</v>
       </c>
       <c r="D172" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -4311,7 +4314,7 @@
         <v>0.39</v>
       </c>
       <c r="D173" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -4325,7 +4328,7 @@
         <v>0.4</v>
       </c>
       <c r="D174" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -4339,7 +4342,7 @@
         <v>0.4</v>
       </c>
       <c r="D175" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -4353,7 +4356,7 @@
         <v>0.39</v>
       </c>
       <c r="D176" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -4367,7 +4370,7 @@
         <v>0.35</v>
       </c>
       <c r="D177" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -4381,7 +4384,7 @@
         <v>0.4</v>
       </c>
       <c r="D178" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -4395,7 +4398,7 @@
         <v>0.44</v>
       </c>
       <c r="D179" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -4409,7 +4412,7 @@
         <v>0.46</v>
       </c>
       <c r="D180" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -4423,7 +4426,7 @@
         <v>0.38</v>
       </c>
       <c r="D181" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -4437,7 +4440,7 @@
         <v>0.39</v>
       </c>
       <c r="D182" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -4451,7 +4454,7 @@
         <v>0.39</v>
       </c>
       <c r="D183" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -4465,7 +4468,7 @@
         <v>0.39</v>
       </c>
       <c r="D184" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -4479,7 +4482,7 @@
         <v>0.41</v>
       </c>
       <c r="D185" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4493,7 +4496,7 @@
         <v>0.45</v>
       </c>
       <c r="D186" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -4507,7 +4510,7 @@
         <v>0.39</v>
       </c>
       <c r="D187" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -4521,7 +4524,7 @@
         <v>0.4</v>
       </c>
       <c r="D188" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -4535,7 +4538,7 @@
         <v>0.4</v>
       </c>
       <c r="D189" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4549,7 +4552,7 @@
         <v>0.4</v>
       </c>
       <c r="D190" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -4563,7 +4566,7 @@
         <v>0.39</v>
       </c>
       <c r="D191" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -4577,7 +4580,7 @@
         <v>0.4</v>
       </c>
       <c r="D192" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -4591,7 +4594,7 @@
         <v>0.47</v>
       </c>
       <c r="D193" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -4605,7 +4608,7 @@
         <v>0.4</v>
       </c>
       <c r="D194" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -4619,7 +4622,7 @@
         <v>0.41</v>
       </c>
       <c r="D195" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -4633,7 +4636,7 @@
         <v>0.4</v>
       </c>
       <c r="D196" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -4647,7 +4650,7 @@
         <v>0.4</v>
       </c>
       <c r="D197" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -4661,7 +4664,7 @@
         <v>0.39</v>
       </c>
       <c r="D198" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -4675,7 +4678,7 @@
         <v>0.41</v>
       </c>
       <c r="D199" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -4689,7 +4692,7 @@
         <v>0.45</v>
       </c>
       <c r="D200" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -4703,7 +4706,7 @@
         <v>0.41</v>
       </c>
       <c r="D201" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -4717,7 +4720,7 @@
         <v>0.38</v>
       </c>
       <c r="D202" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -4731,7 +4734,7 @@
         <v>0.38</v>
       </c>
       <c r="D203" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -4745,7 +4748,7 @@
         <v>0.4</v>
       </c>
       <c r="D204" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -4759,7 +4762,7 @@
         <v>0.39</v>
       </c>
       <c r="D205" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -4773,7 +4776,7 @@
         <v>0.4</v>
       </c>
       <c r="D206" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -4787,7 +4790,7 @@
         <v>0.45</v>
       </c>
       <c r="D207" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -4801,7 +4804,7 @@
         <v>0.39</v>
       </c>
       <c r="D208" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -4815,7 +4818,7 @@
         <v>0.38</v>
       </c>
       <c r="D209" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -4829,7 +4832,7 @@
         <v>0.39</v>
       </c>
       <c r="D210" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -4843,7 +4846,7 @@
         <v>0.4</v>
       </c>
       <c r="D211" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -4857,7 +4860,7 @@
         <v>0.39</v>
       </c>
       <c r="D212" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -4871,7 +4874,7 @@
         <v>0.39</v>
       </c>
       <c r="D213" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -4885,7 +4888,7 @@
         <v>0.44</v>
       </c>
       <c r="D214" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -4899,7 +4902,7 @@
         <v>0.47</v>
       </c>
       <c r="D215" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4913,7 +4916,7 @@
         <v>0.38</v>
       </c>
       <c r="D216" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -4927,7 +4930,7 @@
         <v>0.39</v>
       </c>
       <c r="D217" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -4941,7 +4944,7 @@
         <v>0.39</v>
       </c>
       <c r="D218" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -4955,7 +4958,7 @@
         <v>0.4</v>
       </c>
       <c r="D219" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -4969,7 +4972,7 @@
         <v>0.41</v>
       </c>
       <c r="D220" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -4983,7 +4986,7 @@
         <v>0.46</v>
       </c>
       <c r="D221" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -4997,7 +5000,7 @@
         <v>0.39</v>
       </c>
       <c r="D222" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5011,7 +5014,7 @@
         <v>0.39</v>
       </c>
       <c r="D223" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5025,7 +5028,7 @@
         <v>0.39</v>
       </c>
       <c r="D224" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -5039,7 +5042,7 @@
         <v>0.4</v>
       </c>
       <c r="D225" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -5053,7 +5056,7 @@
         <v>0.38</v>
       </c>
       <c r="D226" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -5067,7 +5070,7 @@
         <v>0.41</v>
       </c>
       <c r="D227" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -5081,7 +5084,7 @@
         <v>0.46</v>
       </c>
       <c r="D228" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5095,7 +5098,7 @@
         <v>0.39</v>
       </c>
       <c r="D229" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -5109,7 +5112,7 @@
         <v>0.4</v>
       </c>
       <c r="D230" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5123,7 +5126,7 @@
         <v>0.4</v>
       </c>
       <c r="D231" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -5137,7 +5140,7 @@
         <v>0.39</v>
       </c>
       <c r="D232" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -5151,7 +5154,7 @@
         <v>0.38</v>
       </c>
       <c r="D233" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -5165,7 +5168,7 @@
         <v>0.41</v>
       </c>
       <c r="D234" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -5179,7 +5182,7 @@
         <v>0.46</v>
       </c>
       <c r="D235" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -5193,7 +5196,7 @@
         <v>0.46</v>
       </c>
       <c r="D236" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -5207,7 +5210,7 @@
         <v>0.39</v>
       </c>
       <c r="D237" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -5221,7 +5224,7 @@
         <v>0.4</v>
       </c>
       <c r="D238" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -5235,7 +5238,7 @@
         <v>0.38</v>
       </c>
       <c r="D239" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -5249,7 +5252,7 @@
         <v>0.38</v>
       </c>
       <c r="D240" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -5263,7 +5266,7 @@
         <v>0.41</v>
       </c>
       <c r="D241" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -5277,7 +5280,7 @@
         <v>0.44</v>
       </c>
       <c r="D242" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5291,7 +5294,7 @@
         <v>0.39</v>
       </c>
       <c r="D243" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -5305,7 +5308,7 @@
         <v>0.38</v>
       </c>
       <c r="D244" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -5319,7 +5322,7 @@
         <v>0.4</v>
       </c>
       <c r="D245" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -5333,7 +5336,7 @@
         <v>0.38</v>
       </c>
       <c r="D246" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -5347,7 +5350,7 @@
         <v>0.38</v>
       </c>
       <c r="D247" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -5361,7 +5364,7 @@
         <v>0.41</v>
       </c>
       <c r="D248" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -5375,7 +5378,7 @@
         <v>0.44</v>
       </c>
       <c r="D249" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -5389,7 +5392,7 @@
         <v>0.38</v>
       </c>
       <c r="D250" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -5403,7 +5406,7 @@
         <v>0.38</v>
       </c>
       <c r="D251" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -5417,7 +5420,7 @@
         <v>0.39</v>
       </c>
       <c r="D252" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -5431,7 +5434,7 @@
         <v>0.38</v>
       </c>
       <c r="D253" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -5445,7 +5448,7 @@
         <v>0.4</v>
       </c>
       <c r="D254" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -5459,7 +5462,7 @@
         <v>0.41</v>
       </c>
       <c r="D255" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -5473,7 +5476,7 @@
         <v>0.43</v>
       </c>
       <c r="D256" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -5487,7 +5490,7 @@
         <v>0.39</v>
       </c>
       <c r="D257" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -5501,7 +5504,7 @@
         <v>0.39</v>
       </c>
       <c r="D258" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -5515,7 +5518,7 @@
         <v>0.38</v>
       </c>
       <c r="D259" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -5529,7 +5532,7 @@
         <v>0.39</v>
       </c>
       <c r="D260" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -5543,7 +5546,7 @@
         <v>0.4</v>
       </c>
       <c r="D261" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -5557,7 +5560,7 @@
         <v>0.41</v>
       </c>
       <c r="D262" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -5571,7 +5574,7 @@
         <v>0.45</v>
       </c>
       <c r="D263" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -5585,7 +5588,7 @@
         <v>0.39</v>
       </c>
       <c r="D264" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -5599,7 +5602,7 @@
         <v>0.38</v>
       </c>
       <c r="D265" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -5613,7 +5616,7 @@
         <v>0.39</v>
       </c>
       <c r="D266" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -5627,7 +5630,7 @@
         <v>0.39</v>
       </c>
       <c r="D267" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -5641,7 +5644,7 @@
         <v>0.38</v>
       </c>
       <c r="D268" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -5655,7 +5658,7 @@
         <v>0.39</v>
       </c>
       <c r="D269" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -5669,7 +5672,7 @@
         <v>0.43</v>
       </c>
       <c r="D270" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -5683,7 +5686,7 @@
         <v>0.39</v>
       </c>
       <c r="D271" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -5697,7 +5700,7 @@
         <v>0.42</v>
       </c>
       <c r="D272" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -5711,7 +5714,7 @@
         <v>0.38</v>
       </c>
       <c r="D273" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -5725,7 +5728,7 @@
         <v>0.39</v>
       </c>
       <c r="D274" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -5739,7 +5742,7 @@
         <v>0.38</v>
       </c>
       <c r="D275" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -5753,7 +5756,7 @@
         <v>0.4</v>
       </c>
       <c r="D276" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -5767,7 +5770,7 @@
         <v>0.43</v>
       </c>
       <c r="D277" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -5781,7 +5784,7 @@
         <v>0.4</v>
       </c>
       <c r="D278" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -5795,7 +5798,7 @@
         <v>0.41</v>
       </c>
       <c r="D279" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -5809,7 +5812,7 @@
         <v>0.39</v>
       </c>
       <c r="D280" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -5823,7 +5826,7 @@
         <v>0.4</v>
       </c>
       <c r="D281" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -5837,7 +5840,7 @@
         <v>0.38</v>
       </c>
       <c r="D282" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -5851,7 +5854,7 @@
         <v>0.4</v>
       </c>
       <c r="D283" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5865,7 +5868,7 @@
         <v>0.44</v>
       </c>
       <c r="D284" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -5879,7 +5882,7 @@
         <v>0.39</v>
       </c>
       <c r="D285" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -5893,7 +5896,7 @@
         <v>0.4</v>
       </c>
       <c r="D286" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -5907,7 +5910,7 @@
         <v>0.38</v>
       </c>
       <c r="D287" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -5921,7 +5924,7 @@
         <v>0.4</v>
       </c>
       <c r="D288" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -5935,7 +5938,7 @@
         <v>0.48</v>
       </c>
       <c r="D289" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -5949,7 +5952,7 @@
         <v>0.46</v>
       </c>
       <c r="D290" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -5963,7 +5966,7 @@
         <v>0.5</v>
       </c>
       <c r="D291" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -5977,7 +5980,7 @@
         <v>0.41</v>
       </c>
       <c r="D292" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -5991,7 +5994,7 @@
         <v>0.37</v>
       </c>
       <c r="D293" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -6005,7 +6008,7 @@
         <v>0.39</v>
       </c>
       <c r="D294" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -6019,7 +6022,7 @@
         <v>0.41</v>
       </c>
       <c r="D295" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -6033,7 +6036,7 @@
         <v>0.48</v>
       </c>
       <c r="D296" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -6047,7 +6050,7 @@
         <v>0.47</v>
       </c>
       <c r="D297" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -6061,7 +6064,7 @@
         <v>0.48</v>
       </c>
       <c r="D298" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -6075,7 +6078,7 @@
         <v>0.36</v>
       </c>
       <c r="D299" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -6089,7 +6092,7 @@
         <v>0.39</v>
       </c>
       <c r="D300" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6103,7 +6106,7 @@
         <v>0.47</v>
       </c>
       <c r="D301" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6117,7 +6120,7 @@
         <v>0.4</v>
       </c>
       <c r="D302" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -6131,7 +6134,7 @@
         <v>0.39</v>
       </c>
       <c r="D303" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -6145,7 +6148,7 @@
         <v>0.46</v>
       </c>
       <c r="D304" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6159,7 +6162,7 @@
         <v>0.46</v>
       </c>
       <c r="D305" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -6173,7 +6176,7 @@
         <v>0.4</v>
       </c>
       <c r="D306" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -6187,7 +6190,7 @@
         <v>0.4</v>
       </c>
       <c r="D307" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -6201,7 +6204,7 @@
         <v>0.4</v>
       </c>
       <c r="D308" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -6215,7 +6218,7 @@
         <v>0.4</v>
       </c>
       <c r="D309" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -6229,7 +6232,7 @@
         <v>0.4</v>
       </c>
       <c r="D310" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -6243,7 +6246,7 @@
         <v>0.41</v>
       </c>
       <c r="D311" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -6257,7 +6260,7 @@
         <v>0.47</v>
       </c>
       <c r="D312" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6271,7 +6274,7 @@
         <v>0.39</v>
       </c>
       <c r="D313" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -6285,7 +6288,7 @@
         <v>0.4</v>
       </c>
       <c r="D314" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6299,7 +6302,7 @@
         <v>0.4</v>
       </c>
       <c r="D315" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -6313,7 +6316,7 @@
         <v>0.39</v>
       </c>
       <c r="D316" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -6327,7 +6330,7 @@
         <v>0.4</v>
       </c>
       <c r="D317" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -6341,7 +6344,7 @@
         <v>0.41</v>
       </c>
       <c r="D318" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -6355,7 +6358,7 @@
         <v>0.47</v>
       </c>
       <c r="D319" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -6369,7 +6372,7 @@
         <v>0.4</v>
       </c>
       <c r="D320" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -6383,7 +6386,7 @@
         <v>0.39</v>
       </c>
       <c r="D321" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -6397,7 +6400,7 @@
         <v>0.39</v>
       </c>
       <c r="D322" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -6411,7 +6414,7 @@
         <v>0.38</v>
       </c>
       <c r="D323" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -6425,7 +6428,7 @@
         <v>0.4</v>
       </c>
       <c r="D324" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -6439,7 +6442,7 @@
         <v>0.41</v>
       </c>
       <c r="D325" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -6453,7 +6456,7 @@
         <v>0.43</v>
       </c>
       <c r="D326" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -6467,7 +6470,7 @@
         <v>0.39</v>
       </c>
       <c r="D327" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -6481,7 +6484,7 @@
         <v>0.4</v>
       </c>
       <c r="D328" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -6495,7 +6498,7 @@
         <v>0.39</v>
       </c>
       <c r="D329" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -6509,7 +6512,7 @@
         <v>0.39</v>
       </c>
       <c r="D330" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -6523,7 +6526,7 @@
         <v>0.38</v>
       </c>
       <c r="D331" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -6537,7 +6540,7 @@
         <v>0.43</v>
       </c>
       <c r="D332" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -6551,7 +6554,7 @@
         <v>0.47</v>
       </c>
       <c r="D333" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -6565,7 +6568,7 @@
         <v>0.39</v>
       </c>
       <c r="D334" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -6579,7 +6582,7 @@
         <v>0.37</v>
       </c>
       <c r="D335" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -6593,7 +6596,7 @@
         <v>0.37</v>
       </c>
       <c r="D336" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -6607,7 +6610,7 @@
         <v>0.39</v>
       </c>
       <c r="D337" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -6621,7 +6624,7 @@
         <v>0.39</v>
       </c>
       <c r="D338" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -6635,7 +6638,7 @@
         <v>0.43</v>
       </c>
       <c r="D339" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -6649,7 +6652,7 @@
         <v>0.47</v>
       </c>
       <c r="D340" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -6663,7 +6666,7 @@
         <v>0.46</v>
       </c>
       <c r="D341" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -6677,7 +6680,7 @@
         <v>0.41</v>
       </c>
       <c r="D342" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -6691,7 +6694,7 @@
         <v>0.4</v>
       </c>
       <c r="D343" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -6705,7 +6708,7 @@
         <v>0.39</v>
       </c>
       <c r="D344" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -6719,7 +6722,7 @@
         <v>0.38</v>
       </c>
       <c r="D345" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -6733,7 +6736,7 @@
         <v>0.42</v>
       </c>
       <c r="D346" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -6747,7 +6750,7 @@
         <v>0.48</v>
       </c>
       <c r="D347" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -6761,7 +6764,7 @@
         <v>0.39</v>
       </c>
       <c r="D348" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -6775,7 +6778,7 @@
         <v>0.4</v>
       </c>
       <c r="D349" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -6789,7 +6792,7 @@
         <v>0.48</v>
       </c>
       <c r="D350" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -6803,7 +6806,7 @@
         <v>0.4</v>
       </c>
       <c r="D351" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -6817,7 +6820,7 @@
         <v>0.39</v>
       </c>
       <c r="D352" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -6831,7 +6834,7 @@
         <v>0.43</v>
       </c>
       <c r="D353" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -6845,7 +6848,7 @@
         <v>0.49</v>
       </c>
       <c r="D354" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -6859,7 +6862,7 @@
         <v>0.38</v>
       </c>
       <c r="D355" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -6873,7 +6876,7 @@
         <v>0.42</v>
       </c>
       <c r="D356" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -6887,7 +6890,7 @@
         <v>0.43</v>
       </c>
       <c r="D357" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -6901,7 +6904,7 @@
         <v>0.43</v>
       </c>
       <c r="D358" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -6915,7 +6918,7 @@
         <v>0.43</v>
       </c>
       <c r="D359" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -6929,7 +6932,7 @@
         <v>0.47</v>
       </c>
       <c r="D360" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -6943,7 +6946,7 @@
         <v>0.53</v>
       </c>
       <c r="D361" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6957,7 +6960,7 @@
         <v>0.42</v>
       </c>
       <c r="D362" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -6971,7 +6974,7 @@
         <v>0.42</v>
       </c>
       <c r="D363" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -6985,7 +6988,7 @@
         <v>0.42</v>
       </c>
       <c r="D364" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -6999,7 +7002,7 @@
         <v>0.42</v>
       </c>
       <c r="D365" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7013,7 +7016,7 @@
         <v>0.41</v>
       </c>
       <c r="D366" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7027,7 +7030,7 @@
         <v>0.45</v>
       </c>
       <c r="D367" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="368" spans="1:4">
@@ -7041,7 +7044,7 @@
         <v>0.51</v>
       </c>
       <c r="D368" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="369" spans="1:4">
@@ -7055,7 +7058,7 @@
         <v>0.42</v>
       </c>
       <c r="D369" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="370" spans="1:4">
@@ -7069,7 +7072,7 @@
         <v>0.43</v>
       </c>
       <c r="D370" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="371" spans="1:4">
@@ -7083,7 +7086,7 @@
         <v>0.42</v>
       </c>
       <c r="D371" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -7097,7 +7100,7 @@
         <v>0.42</v>
       </c>
       <c r="D372" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="373" spans="1:4">
@@ -7111,7 +7114,7 @@
         <v>0.42</v>
       </c>
       <c r="D373" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="374" spans="1:4">
@@ -7125,7 +7128,7 @@
         <v>0.45</v>
       </c>
       <c r="D374" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7139,7 +7142,7 @@
         <v>0.51</v>
       </c>
       <c r="D375" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7153,7 +7156,7 @@
         <v>0.42</v>
       </c>
       <c r="D376" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7167,7 +7170,7 @@
         <v>0.43</v>
       </c>
       <c r="D377" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="378" spans="1:4">
@@ -7181,7 +7184,7 @@
         <v>0.42</v>
       </c>
       <c r="D378" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="379" spans="1:4">
@@ -7195,7 +7198,7 @@
         <v>0.42</v>
       </c>
       <c r="D379" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7209,7 +7212,7 @@
         <v>0.41</v>
       </c>
       <c r="D380" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="381" spans="1:4">
@@ -7223,7 +7226,7 @@
         <v>0.45</v>
       </c>
       <c r="D381" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -7237,7 +7240,7 @@
         <v>0.51</v>
       </c>
       <c r="D382" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="383" spans="1:4">
@@ -7251,7 +7254,7 @@
         <v>0.42</v>
       </c>
       <c r="D383" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="384" spans="1:4">
@@ -7265,7 +7268,7 @@
         <v>0.42</v>
       </c>
       <c r="D384" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7279,7 +7282,7 @@
         <v>0.42</v>
       </c>
       <c r="D385" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="386" spans="1:4">
@@ -7293,7 +7296,7 @@
         <v>0.43</v>
       </c>
       <c r="D386" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="387" spans="1:4">
@@ -7307,7 +7310,7 @@
         <v>0.47</v>
       </c>
       <c r="D387" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7321,7 +7324,7 @@
         <v>0.46</v>
       </c>
       <c r="D388" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="389" spans="1:4">
@@ -7335,7 +7338,7 @@
         <v>0.5</v>
       </c>
       <c r="D389" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="390" spans="1:4">
@@ -7349,7 +7352,7 @@
         <v>0.42</v>
       </c>
       <c r="D390" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="391" spans="1:4">
@@ -7363,7 +7366,7 @@
         <v>0.42</v>
       </c>
       <c r="D391" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="392" spans="1:4">
@@ -7377,7 +7380,7 @@
         <v>0.42</v>
       </c>
       <c r="D392" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="393" spans="1:4">
@@ -7391,7 +7394,7 @@
         <v>0.41</v>
       </c>
       <c r="D393" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="394" spans="1:4">
@@ -7405,7 +7408,7 @@
         <v>0.41</v>
       </c>
       <c r="D394" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="395" spans="1:4">
@@ -7419,7 +7422,7 @@
         <v>0.44</v>
       </c>
       <c r="D395" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="396" spans="1:4">
@@ -7433,7 +7436,7 @@
         <v>0.5</v>
       </c>
       <c r="D396" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -7447,7 +7450,7 @@
         <v>0.4</v>
       </c>
       <c r="D397" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="398" spans="1:4">
@@ -7461,7 +7464,7 @@
         <v>0.41</v>
       </c>
       <c r="D398" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -7475,7 +7478,7 @@
         <v>0.41</v>
       </c>
       <c r="D399" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="400" spans="1:4">
@@ -7489,7 +7492,7 @@
         <v>0.41</v>
       </c>
       <c r="D400" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="401" spans="1:4">
@@ -7503,7 +7506,7 @@
         <v>0.41</v>
       </c>
       <c r="D401" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="402" spans="1:4">
@@ -7517,7 +7520,7 @@
         <v>0.44</v>
       </c>
       <c r="D402" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="403" spans="1:4">
@@ -7531,7 +7534,7 @@
         <v>0.5</v>
       </c>
       <c r="D403" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7545,7 +7548,7 @@
         <v>0.41</v>
       </c>
       <c r="D404" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="405" spans="1:4">
@@ -7559,7 +7562,7 @@
         <v>0.41</v>
       </c>
       <c r="D405" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -7573,7 +7576,7 @@
         <v>0.48</v>
       </c>
       <c r="D406" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="407" spans="1:4">
@@ -7587,7 +7590,7 @@
         <v>0.4</v>
       </c>
       <c r="D407" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -7601,7 +7604,7 @@
         <v>0.41</v>
       </c>
       <c r="D408" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="409" spans="1:4">
@@ -7615,7 +7618,7 @@
         <v>0.43</v>
       </c>
       <c r="D409" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -7629,7 +7632,7 @@
         <v>0.5</v>
       </c>
       <c r="D410" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -7643,7 +7646,7 @@
         <v>0.42</v>
       </c>
       <c r="D411" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -7657,7 +7660,7 @@
         <v>0.4</v>
       </c>
       <c r="D412" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -7671,7 +7674,7 @@
         <v>0.4</v>
       </c>
       <c r="D413" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -7685,7 +7688,7 @@
         <v>0.4</v>
       </c>
       <c r="D414" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="415" spans="1:4">
@@ -7699,7 +7702,7 @@
         <v>0.43</v>
       </c>
       <c r="D415" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="416" spans="1:4">
@@ -7713,7 +7716,7 @@
         <v>0.43</v>
       </c>
       <c r="D416" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -7727,7 +7730,7 @@
         <v>0.48</v>
       </c>
       <c r="D417" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="418" spans="1:4">
@@ -7741,7 +7744,7 @@
         <v>0.4</v>
       </c>
       <c r="D418" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="419" spans="1:4">
@@ -7755,7 +7758,7 @@
         <v>0.4</v>
       </c>
       <c r="D419" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="420" spans="1:4">
@@ -7769,7 +7772,7 @@
         <v>0.4</v>
       </c>
       <c r="D420" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="421" spans="1:4">
@@ -7783,7 +7786,7 @@
         <v>0.38</v>
       </c>
       <c r="D421" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="422" spans="1:4">
@@ -7797,7 +7800,7 @@
         <v>0.39</v>
       </c>
       <c r="D422" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="423" spans="1:4">
@@ -7811,7 +7814,7 @@
         <v>0.41</v>
       </c>
       <c r="D423" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -7825,7 +7828,7 @@
         <v>0.46</v>
       </c>
       <c r="D424" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="425" spans="1:4">
@@ -7839,7 +7842,7 @@
         <v>0.4</v>
       </c>
       <c r="D425" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -7853,7 +7856,7 @@
         <v>0.4</v>
       </c>
       <c r="D426" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="427" spans="1:4">
@@ -7867,7 +7870,7 @@
         <v>0.4</v>
       </c>
       <c r="D427" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -7881,7 +7884,7 @@
         <v>0.4</v>
       </c>
       <c r="D428" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="429" spans="1:4">
@@ -7895,7 +7898,7 @@
         <v>0.39</v>
       </c>
       <c r="D429" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -7909,7 +7912,7 @@
         <v>0.42</v>
       </c>
       <c r="D430" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="431" spans="1:4">
@@ -7923,7 +7926,7 @@
         <v>0.47</v>
       </c>
       <c r="D431" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="432" spans="1:4">
@@ -7937,7 +7940,7 @@
         <v>0.4</v>
       </c>
       <c r="D432" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -7951,7 +7954,7 @@
         <v>0.41</v>
       </c>
       <c r="D433" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7965,7 +7968,7 @@
         <v>0.41</v>
       </c>
       <c r="D434" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="435" spans="1:4">
@@ -7979,7 +7982,7 @@
         <v>0.4</v>
       </c>
       <c r="D435" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -7993,7 +7996,7 @@
         <v>0.4</v>
       </c>
       <c r="D436" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="437" spans="1:4">
@@ -8007,7 +8010,7 @@
         <v>0.43</v>
       </c>
       <c r="D437" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="438" spans="1:4">
@@ -8021,7 +8024,7 @@
         <v>0.49</v>
       </c>
       <c r="D438" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8035,7 +8038,7 @@
         <v>0.41</v>
       </c>
       <c r="D439" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="440" spans="1:4">
@@ -8049,7 +8052,7 @@
         <v>0.41</v>
       </c>
       <c r="D440" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -8063,7 +8066,7 @@
         <v>0.41</v>
       </c>
       <c r="D441" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="442" spans="1:4">
@@ -8077,7 +8080,7 @@
         <v>0.4</v>
       </c>
       <c r="D442" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8091,7 +8094,7 @@
         <v>0.4</v>
       </c>
       <c r="D443" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="444" spans="1:4">
@@ -8105,7 +8108,7 @@
         <v>0.43</v>
       </c>
       <c r="D444" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="445" spans="1:4">
@@ -8119,7 +8122,7 @@
         <v>0.49</v>
       </c>
       <c r="D445" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="446" spans="1:4">
@@ -8133,7 +8136,7 @@
         <v>0.41</v>
       </c>
       <c r="D446" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8147,7 +8150,7 @@
         <v>0.41</v>
       </c>
       <c r="D447" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8161,7 +8164,7 @@
         <v>0.4</v>
       </c>
       <c r="D448" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8175,7 +8178,7 @@
         <v>0.47</v>
       </c>
       <c r="D449" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="450" spans="1:4">
@@ -8189,7 +8192,7 @@
         <v>0.4</v>
       </c>
       <c r="D450" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8203,7 +8206,7 @@
         <v>0.42</v>
       </c>
       <c r="D451" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="452" spans="1:4">
@@ -8217,7 +8220,7 @@
         <v>0.48</v>
       </c>
       <c r="D452" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="453" spans="1:4">
@@ -8231,7 +8234,7 @@
         <v>0.4</v>
       </c>
       <c r="D453" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8245,7 +8248,7 @@
         <v>0.39</v>
       </c>
       <c r="D454" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="455" spans="1:4">
@@ -8259,7 +8262,7 @@
         <v>0.4</v>
       </c>
       <c r="D455" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="456" spans="1:4">
@@ -8273,7 +8276,7 @@
         <v>0.39</v>
       </c>
       <c r="D456" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8287,7 +8290,7 @@
         <v>0.39</v>
       </c>
       <c r="D457" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="458" spans="1:4">
@@ -8301,7 +8304,7 @@
         <v>0.42</v>
       </c>
       <c r="D458" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8315,7 +8318,7 @@
         <v>0.47</v>
       </c>
       <c r="D459" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="460" spans="1:4">
@@ -8329,7 +8332,7 @@
         <v>0.39</v>
       </c>
       <c r="D460" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="461" spans="1:4">
@@ -8343,7 +8346,7 @@
         <v>0.4</v>
       </c>
       <c r="D461" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="462" spans="1:4">
@@ -8357,7 +8360,7 @@
         <v>0.4</v>
       </c>
       <c r="D462" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8371,7 +8374,7 @@
         <v>0.39</v>
       </c>
       <c r="D463" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="464" spans="1:4">
@@ -8385,7 +8388,7 @@
         <v>0.39</v>
       </c>
       <c r="D464" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="465" spans="1:4">
@@ -8399,7 +8402,7 @@
         <v>0.43</v>
       </c>
       <c r="D465" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="466" spans="1:4">
@@ -8413,7 +8416,7 @@
         <v>0.49</v>
       </c>
       <c r="D466" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="467" spans="1:4">
@@ -8427,7 +8430,7 @@
         <v>0.4</v>
       </c>
       <c r="D467" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -8441,7 +8444,7 @@
         <v>0.42</v>
       </c>
       <c r="D468" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -8455,7 +8458,7 @@
         <v>0.4</v>
       </c>
       <c r="D469" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -8469,7 +8472,7 @@
         <v>0.4</v>
       </c>
       <c r="D470" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -8483,7 +8486,7 @@
         <v>0.4</v>
       </c>
       <c r="D471" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="472" spans="1:4">
@@ -8497,7 +8500,7 @@
         <v>0.45</v>
       </c>
       <c r="D472" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="473" spans="1:4">
@@ -8511,7 +8514,7 @@
         <v>0.49</v>
       </c>
       <c r="D473" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8525,7 +8528,7 @@
         <v>0.4</v>
       </c>
       <c r="D474" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="475" spans="1:4">
@@ -8539,7 +8542,7 @@
         <v>0.41</v>
       </c>
       <c r="D475" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="476" spans="1:4">
@@ -8553,7 +8556,7 @@
         <v>0.4</v>
       </c>
       <c r="D476" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="477" spans="1:4">
@@ -8567,7 +8570,7 @@
         <v>0.41</v>
       </c>
       <c r="D477" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -8581,7 +8584,7 @@
         <v>0.39</v>
       </c>
       <c r="D478" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="479" spans="1:4">
@@ -8595,7 +8598,7 @@
         <v>0.43</v>
       </c>
       <c r="D479" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="480" spans="1:4">
@@ -8609,7 +8612,7 @@
         <v>0.48</v>
       </c>
       <c r="D480" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="481" spans="1:4">
@@ -8623,7 +8626,7 @@
         <v>0.4</v>
       </c>
       <c r="D481" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="482" spans="1:4">
@@ -8637,7 +8640,7 @@
         <v>0.4</v>
       </c>
       <c r="D482" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -8651,7 +8654,7 @@
         <v>0.39</v>
       </c>
       <c r="D483" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="484" spans="1:4">
@@ -8665,7 +8668,7 @@
         <v>0.38</v>
       </c>
       <c r="D484" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="485" spans="1:4">
@@ -8679,7 +8682,7 @@
         <v>0.41</v>
       </c>
       <c r="D485" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="486" spans="1:4">
@@ -8693,7 +8696,7 @@
         <v>0.47</v>
       </c>
       <c r="D486" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="487" spans="1:4">
@@ -8707,7 +8710,7 @@
         <v>0.39</v>
       </c>
       <c r="D487" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="488" spans="1:4">
@@ -8721,7 +8724,7 @@
         <v>0.4</v>
       </c>
       <c r="D488" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -8735,7 +8738,7 @@
         <v>0.4</v>
       </c>
       <c r="D489" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="490" spans="1:4">
@@ -8749,7 +8752,7 @@
         <v>0.4</v>
       </c>
       <c r="D490" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="491" spans="1:4">
@@ -8763,7 +8766,7 @@
         <v>0.38</v>
       </c>
       <c r="D491" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="492" spans="1:4">
@@ -8777,7 +8780,7 @@
         <v>0.42</v>
       </c>
       <c r="D492" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="493" spans="1:4">
@@ -8791,7 +8794,7 @@
         <v>0.48</v>
       </c>
       <c r="D493" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="494" spans="1:4">
@@ -8805,7 +8808,7 @@
         <v>0.4</v>
       </c>
       <c r="D494" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="495" spans="1:4">
@@ -8819,7 +8822,21 @@
         <v>0.41</v>
       </c>
       <c r="D495" t="s">
-        <v>500</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" t="s">
+        <v>498</v>
+      </c>
+      <c r="B496">
+        <v>0.4</v>
+      </c>
+      <c r="C496">
+        <v>0.41</v>
+      </c>
+      <c r="D496" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="507">
   <si>
     <t>Data</t>
   </si>
@@ -1511,6 +1511,9 @@
   </si>
   <si>
     <t>07/21/2021</t>
+  </si>
+  <si>
+    <t>07/22/2021</t>
   </si>
   <si>
     <t>Quinta-Feira</t>
@@ -1889,7 +1892,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D496"/>
+  <dimension ref="A1:D497"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1920,7 +1923,7 @@
         <v>0.4</v>
       </c>
       <c r="D2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1934,7 +1937,7 @@
         <v>0.38</v>
       </c>
       <c r="D3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1948,7 +1951,7 @@
         <v>0.35</v>
       </c>
       <c r="D4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1962,7 +1965,7 @@
         <v>0.37</v>
       </c>
       <c r="D5" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1976,7 +1979,7 @@
         <v>0.43</v>
       </c>
       <c r="D6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1990,7 +1993,7 @@
         <v>0.42</v>
       </c>
       <c r="D7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2004,7 +2007,7 @@
         <v>0.44</v>
       </c>
       <c r="D8" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2018,7 +2021,7 @@
         <v>0.46</v>
       </c>
       <c r="D9" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2032,7 +2035,7 @@
         <v>0.58</v>
       </c>
       <c r="D10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2046,7 +2049,7 @@
         <v>0.57</v>
       </c>
       <c r="D11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2060,7 +2063,7 @@
         <v>0.53</v>
       </c>
       <c r="D12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2074,7 +2077,7 @@
         <v>0.55</v>
       </c>
       <c r="D13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2088,7 +2091,7 @@
         <v>0.55</v>
       </c>
       <c r="D14" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2102,7 +2105,7 @@
         <v>0.54</v>
       </c>
       <c r="D15" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2116,7 +2119,7 @@
         <v>0.54</v>
       </c>
       <c r="D16" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2130,7 +2133,7 @@
         <v>0.57</v>
       </c>
       <c r="D17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2144,7 +2147,7 @@
         <v>0.59</v>
       </c>
       <c r="D18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2158,7 +2161,7 @@
         <v>0.57</v>
       </c>
       <c r="D19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2172,7 +2175,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2186,7 +2189,7 @@
         <v>0.55</v>
       </c>
       <c r="D21" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2200,7 +2203,7 @@
         <v>0.55</v>
       </c>
       <c r="D22" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -2214,7 +2217,7 @@
         <v>0.55</v>
       </c>
       <c r="D23" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -2228,7 +2231,7 @@
         <v>0.58</v>
       </c>
       <c r="D24" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2242,7 +2245,7 @@
         <v>0.58</v>
       </c>
       <c r="D25" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2256,7 +2259,7 @@
         <v>0.53</v>
       </c>
       <c r="D26" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -2270,7 +2273,7 @@
         <v>0.51</v>
       </c>
       <c r="D27" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2284,7 +2287,7 @@
         <v>0.48</v>
       </c>
       <c r="D28" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2298,7 +2301,7 @@
         <v>0.5</v>
       </c>
       <c r="D29" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2312,7 +2315,7 @@
         <v>0.61</v>
       </c>
       <c r="D30" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2326,7 +2329,7 @@
         <v>0.54</v>
       </c>
       <c r="D31" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2340,7 +2343,7 @@
         <v>0.57</v>
       </c>
       <c r="D32" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2354,7 +2357,7 @@
         <v>0.49</v>
       </c>
       <c r="D33" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -2368,7 +2371,7 @@
         <v>0.5</v>
       </c>
       <c r="D34" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2382,7 +2385,7 @@
         <v>0.5</v>
       </c>
       <c r="D35" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2396,7 +2399,7 @@
         <v>0.49</v>
       </c>
       <c r="D36" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2410,7 +2413,7 @@
         <v>0.48</v>
       </c>
       <c r="D37" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2424,7 +2427,7 @@
         <v>0.53</v>
       </c>
       <c r="D38" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2438,7 +2441,7 @@
         <v>0.58</v>
       </c>
       <c r="D39" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2452,7 +2455,7 @@
         <v>0.49</v>
       </c>
       <c r="D40" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -2466,7 +2469,7 @@
         <v>0.57</v>
       </c>
       <c r="D41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -2480,7 +2483,7 @@
         <v>0.47</v>
       </c>
       <c r="D42" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2494,7 +2497,7 @@
         <v>0.46</v>
       </c>
       <c r="D43" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -2508,7 +2511,7 @@
         <v>0.47</v>
       </c>
       <c r="D44" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2522,7 +2525,7 @@
         <v>0.52</v>
       </c>
       <c r="D45" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2536,7 +2539,7 @@
         <v>0.57</v>
       </c>
       <c r="D46" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -2550,7 +2553,7 @@
         <v>0.47</v>
       </c>
       <c r="D47" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2564,7 +2567,7 @@
         <v>0.46</v>
       </c>
       <c r="D48" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2578,7 +2581,7 @@
         <v>0.47</v>
       </c>
       <c r="D49" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2592,7 +2595,7 @@
         <v>0.46</v>
       </c>
       <c r="D50" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2606,7 +2609,7 @@
         <v>0.53</v>
       </c>
       <c r="D51" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2620,7 +2623,7 @@
         <v>0.5</v>
       </c>
       <c r="D52" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2634,7 +2637,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2648,7 +2651,7 @@
         <v>0.46</v>
       </c>
       <c r="D54" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -2662,7 +2665,7 @@
         <v>0.46</v>
       </c>
       <c r="D55" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -2676,7 +2679,7 @@
         <v>0.45</v>
       </c>
       <c r="D56" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2690,7 +2693,7 @@
         <v>0.45</v>
       </c>
       <c r="D57" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -2704,7 +2707,7 @@
         <v>0.44</v>
       </c>
       <c r="D58" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2718,7 +2721,7 @@
         <v>0.47</v>
       </c>
       <c r="D59" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2732,7 +2735,7 @@
         <v>0.51</v>
       </c>
       <c r="D60" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2746,7 +2749,7 @@
         <v>0.46</v>
       </c>
       <c r="D61" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2760,7 +2763,7 @@
         <v>0.46</v>
       </c>
       <c r="D62" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2774,7 +2777,7 @@
         <v>0.45</v>
       </c>
       <c r="D63" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2788,7 +2791,7 @@
         <v>0.46</v>
       </c>
       <c r="D64" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2802,7 +2805,7 @@
         <v>0.45</v>
       </c>
       <c r="D65" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2816,7 +2819,7 @@
         <v>0.47</v>
       </c>
       <c r="D66" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2830,7 +2833,7 @@
         <v>0.51</v>
       </c>
       <c r="D67" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2844,7 +2847,7 @@
         <v>0.45</v>
       </c>
       <c r="D68" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2858,7 +2861,7 @@
         <v>0.45</v>
       </c>
       <c r="D69" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2872,7 +2875,7 @@
         <v>0.44</v>
       </c>
       <c r="D70" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2886,7 +2889,7 @@
         <v>0.45</v>
       </c>
       <c r="D71" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2900,7 +2903,7 @@
         <v>0.44</v>
       </c>
       <c r="D72" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2914,7 +2917,7 @@
         <v>0.47</v>
       </c>
       <c r="D73" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2928,7 +2931,7 @@
         <v>0.53</v>
       </c>
       <c r="D74" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2942,7 +2945,7 @@
         <v>0.5</v>
       </c>
       <c r="D75" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2956,7 +2959,7 @@
         <v>0.44</v>
       </c>
       <c r="D76" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2970,7 +2973,7 @@
         <v>0.44</v>
       </c>
       <c r="D77" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2984,7 +2987,7 @@
         <v>0.44</v>
       </c>
       <c r="D78" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2998,7 +3001,7 @@
         <v>0.44</v>
       </c>
       <c r="D79" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -3012,7 +3015,7 @@
         <v>0.47</v>
       </c>
       <c r="D80" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3026,7 +3029,7 @@
         <v>0.5</v>
       </c>
       <c r="D81" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3040,7 +3043,7 @@
         <v>0.44</v>
       </c>
       <c r="D82" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -3054,7 +3057,7 @@
         <v>0.44</v>
       </c>
       <c r="D83" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -3068,7 +3071,7 @@
         <v>0.43</v>
       </c>
       <c r="D84" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3082,7 +3085,7 @@
         <v>0.44</v>
       </c>
       <c r="D85" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -3096,7 +3099,7 @@
         <v>0.42</v>
       </c>
       <c r="D86" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3110,7 +3113,7 @@
         <v>0.45</v>
       </c>
       <c r="D87" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3124,7 +3127,7 @@
         <v>0.49</v>
       </c>
       <c r="D88" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -3138,7 +3141,7 @@
         <v>0.44</v>
       </c>
       <c r="D89" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -3152,7 +3155,7 @@
         <v>0.43</v>
       </c>
       <c r="D90" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3166,7 +3169,7 @@
         <v>0.4</v>
       </c>
       <c r="D91" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -3180,7 +3183,7 @@
         <v>0.45</v>
       </c>
       <c r="D92" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -3194,7 +3197,7 @@
         <v>0.41</v>
       </c>
       <c r="D93" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3208,7 +3211,7 @@
         <v>0.43</v>
       </c>
       <c r="D94" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3222,7 +3225,7 @@
         <v>0.47</v>
       </c>
       <c r="D95" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3236,7 +3239,7 @@
         <v>0.42</v>
       </c>
       <c r="D96" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -3250,7 +3253,7 @@
         <v>0.42</v>
       </c>
       <c r="D97" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3264,7 +3267,7 @@
         <v>0.42</v>
       </c>
       <c r="D98" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -3278,7 +3281,7 @@
         <v>0.41</v>
       </c>
       <c r="D99" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3292,7 +3295,7 @@
         <v>0.4</v>
       </c>
       <c r="D100" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -3306,7 +3309,7 @@
         <v>0.44</v>
       </c>
       <c r="D101" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3320,7 +3323,7 @@
         <v>0.48</v>
       </c>
       <c r="D102" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -3334,7 +3337,7 @@
         <v>0.42</v>
       </c>
       <c r="D103" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -3348,7 +3351,7 @@
         <v>0.42</v>
       </c>
       <c r="D104" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -3362,7 +3365,7 @@
         <v>0.43</v>
       </c>
       <c r="D105" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3376,7 +3379,7 @@
         <v>0.43</v>
       </c>
       <c r="D106" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3390,7 +3393,7 @@
         <v>0.42</v>
       </c>
       <c r="D107" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -3404,7 +3407,7 @@
         <v>0.44</v>
       </c>
       <c r="D108" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -3418,7 +3421,7 @@
         <v>0.49</v>
       </c>
       <c r="D109" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3432,7 +3435,7 @@
         <v>0.46</v>
       </c>
       <c r="D110" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3446,7 +3449,7 @@
         <v>0.43</v>
       </c>
       <c r="D111" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -3460,7 +3463,7 @@
         <v>0.42</v>
       </c>
       <c r="D112" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -3474,7 +3477,7 @@
         <v>0.42</v>
       </c>
       <c r="D113" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -3488,7 +3491,7 @@
         <v>0.41</v>
       </c>
       <c r="D114" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -3502,7 +3505,7 @@
         <v>0.44</v>
       </c>
       <c r="D115" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -3516,7 +3519,7 @@
         <v>0.48</v>
       </c>
       <c r="D116" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -3530,7 +3533,7 @@
         <v>0.42</v>
       </c>
       <c r="D117" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3544,7 +3547,7 @@
         <v>0.42</v>
       </c>
       <c r="D118" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3558,7 +3561,7 @@
         <v>0.42</v>
       </c>
       <c r="D119" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -3572,7 +3575,7 @@
         <v>0.42</v>
       </c>
       <c r="D120" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -3586,7 +3589,7 @@
         <v>0.4</v>
       </c>
       <c r="D121" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -3600,7 +3603,7 @@
         <v>0.44</v>
       </c>
       <c r="D122" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -3614,7 +3617,7 @@
         <v>0.48</v>
       </c>
       <c r="D123" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -3628,7 +3631,7 @@
         <v>0.42</v>
       </c>
       <c r="D124" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -3642,7 +3645,7 @@
         <v>0.42</v>
       </c>
       <c r="D125" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -3656,7 +3659,7 @@
         <v>0.41</v>
       </c>
       <c r="D126" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -3670,7 +3673,7 @@
         <v>0.42</v>
       </c>
       <c r="D127" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -3684,7 +3687,7 @@
         <v>0.42</v>
       </c>
       <c r="D128" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -3698,7 +3701,7 @@
         <v>0.44</v>
       </c>
       <c r="D129" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -3712,7 +3715,7 @@
         <v>0.49</v>
       </c>
       <c r="D130" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -3726,7 +3729,7 @@
         <v>0.42</v>
       </c>
       <c r="D131" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -3740,7 +3743,7 @@
         <v>0.41</v>
       </c>
       <c r="D132" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -3754,7 +3757,7 @@
         <v>0.4</v>
       </c>
       <c r="D133" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -3768,7 +3771,7 @@
         <v>0.4</v>
       </c>
       <c r="D134" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -3782,7 +3785,7 @@
         <v>0.39</v>
       </c>
       <c r="D135" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -3796,7 +3799,7 @@
         <v>0.44</v>
       </c>
       <c r="D136" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -3810,7 +3813,7 @@
         <v>0.49</v>
       </c>
       <c r="D137" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -3824,7 +3827,7 @@
         <v>0.41</v>
       </c>
       <c r="D138" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3838,7 +3841,7 @@
         <v>0.41</v>
       </c>
       <c r="D139" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3852,7 +3855,7 @@
         <v>0.41</v>
       </c>
       <c r="D140" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3866,7 +3869,7 @@
         <v>0.41</v>
       </c>
       <c r="D141" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3880,7 +3883,7 @@
         <v>0.41</v>
       </c>
       <c r="D142" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3894,7 +3897,7 @@
         <v>0.41</v>
       </c>
       <c r="D143" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3908,7 +3911,7 @@
         <v>0.48</v>
       </c>
       <c r="D144" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3922,7 +3925,7 @@
         <v>0.4</v>
       </c>
       <c r="D145" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3936,7 +3939,7 @@
         <v>0.4</v>
       </c>
       <c r="D146" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3950,7 +3953,7 @@
         <v>0.39</v>
       </c>
       <c r="D147" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3964,7 +3967,7 @@
         <v>0.31</v>
       </c>
       <c r="D148" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3978,7 +3981,7 @@
         <v>0.38</v>
       </c>
       <c r="D149" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3992,7 +3995,7 @@
         <v>0.41</v>
       </c>
       <c r="D150" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -4006,7 +4009,7 @@
         <v>0.46</v>
       </c>
       <c r="D151" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -4020,7 +4023,7 @@
         <v>0.41</v>
       </c>
       <c r="D152" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -4034,7 +4037,7 @@
         <v>0.4</v>
       </c>
       <c r="D153" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -4048,7 +4051,7 @@
         <v>0.4</v>
       </c>
       <c r="D154" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -4062,7 +4065,7 @@
         <v>0.39</v>
       </c>
       <c r="D155" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -4076,7 +4079,7 @@
         <v>0.41</v>
       </c>
       <c r="D156" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -4090,7 +4093,7 @@
         <v>0.42</v>
       </c>
       <c r="D157" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4104,7 +4107,7 @@
         <v>0.49</v>
       </c>
       <c r="D158" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -4118,7 +4121,7 @@
         <v>0.41</v>
       </c>
       <c r="D159" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4132,7 +4135,7 @@
         <v>0.4</v>
       </c>
       <c r="D160" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4146,7 +4149,7 @@
         <v>0.41</v>
       </c>
       <c r="D161" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -4160,7 +4163,7 @@
         <v>0.4</v>
       </c>
       <c r="D162" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4174,7 +4177,7 @@
         <v>0.4</v>
       </c>
       <c r="D163" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -4188,7 +4191,7 @@
         <v>0.42</v>
       </c>
       <c r="D164" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -4202,7 +4205,7 @@
         <v>0.48</v>
       </c>
       <c r="D165" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -4216,7 +4219,7 @@
         <v>0.4</v>
       </c>
       <c r="D166" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -4230,7 +4233,7 @@
         <v>0.4</v>
       </c>
       <c r="D167" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4244,7 +4247,7 @@
         <v>0.4</v>
       </c>
       <c r="D168" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -4258,7 +4261,7 @@
         <v>0.4</v>
       </c>
       <c r="D169" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4272,7 +4275,7 @@
         <v>0.39</v>
       </c>
       <c r="D170" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -4286,7 +4289,7 @@
         <v>0.4</v>
       </c>
       <c r="D171" t="s">
-    